--- a/tests/tests8/ЛМ 0.3.xlsx
+++ b/tests/tests8/ЛМ 0.3.xlsx
@@ -576,7 +576,7 @@
         <v>22</v>
       </c>
       <c r="T2">
-        <v>0.005356799999958639</v>
+        <v>0.005605299999999147</v>
       </c>
       <c r="U2">
         <v>29</v>
@@ -644,7 +644,7 @@
         <v>22</v>
       </c>
       <c r="T3">
-        <v>0.006309499999986201</v>
+        <v>0.005890500000006682</v>
       </c>
       <c r="U3">
         <v>27</v>
@@ -712,7 +712,7 @@
         <v>22</v>
       </c>
       <c r="T4">
-        <v>0.0042023000000313</v>
+        <v>0.004474399999992329</v>
       </c>
       <c r="U4">
         <v>23</v>
@@ -780,7 +780,7 @@
         <v>22</v>
       </c>
       <c r="T5">
-        <v>0.006576499999994212</v>
+        <v>0.006622699999994097</v>
       </c>
       <c r="U5">
         <v>29</v>
@@ -848,7 +848,7 @@
         <v>22</v>
       </c>
       <c r="T6">
-        <v>0.005501200000026074</v>
+        <v>0.004566299999993362</v>
       </c>
       <c r="U6">
         <v>23</v>
@@ -916,7 +916,7 @@
         <v>22</v>
       </c>
       <c r="T7">
-        <v>0.004443600000001879</v>
+        <v>0.005265100000002576</v>
       </c>
       <c r="U7">
         <v>24</v>
@@ -984,7 +984,7 @@
         <v>22</v>
       </c>
       <c r="T8">
-        <v>0.003739800000005289</v>
+        <v>0.003914699999995719</v>
       </c>
       <c r="U8">
         <v>19</v>
@@ -1052,7 +1052,7 @@
         <v>22</v>
       </c>
       <c r="T9">
-        <v>0.004349199999978737</v>
+        <v>0.003953800000005003</v>
       </c>
       <c r="U9">
         <v>20</v>
@@ -1120,7 +1120,7 @@
         <v>22</v>
       </c>
       <c r="T10">
-        <v>0.005178000000000793</v>
+        <v>0.006233399999999278</v>
       </c>
       <c r="U10">
         <v>29</v>
@@ -1188,7 +1188,7 @@
         <v>22</v>
       </c>
       <c r="T11">
-        <v>0.002712799999983417</v>
+        <v>0.002750300000002426</v>
       </c>
       <c r="U11">
         <v>14</v>
@@ -1256,7 +1256,7 @@
         <v>22</v>
       </c>
       <c r="T12">
-        <v>0.004491500000028736</v>
+        <v>0.004555800000005661</v>
       </c>
       <c r="U12">
         <v>24</v>
@@ -1324,7 +1324,7 @@
         <v>22</v>
       </c>
       <c r="T13">
-        <v>0.00433259999999791</v>
+        <v>0.004952500000001692</v>
       </c>
       <c r="U13">
         <v>23</v>
@@ -1392,7 +1392,7 @@
         <v>22</v>
       </c>
       <c r="T14">
-        <v>0.005931099999997969</v>
+        <v>0.004719499999993104</v>
       </c>
       <c r="U14">
         <v>24</v>
@@ -1460,7 +1460,7 @@
         <v>22</v>
       </c>
       <c r="T15">
-        <v>0.005167799999981071</v>
+        <v>0.005593300000001022</v>
       </c>
       <c r="U15">
         <v>29</v>
@@ -1528,7 +1528,7 @@
         <v>22</v>
       </c>
       <c r="T16">
-        <v>0.005384399999968537</v>
+        <v>0.006007499999995503</v>
       </c>
       <c r="U16">
         <v>29</v>
@@ -1596,7 +1596,7 @@
         <v>22</v>
       </c>
       <c r="T17">
-        <v>0.005822899999998299</v>
+        <v>0.005524400000012974</v>
       </c>
       <c r="U17">
         <v>29</v>
@@ -1664,7 +1664,7 @@
         <v>22</v>
       </c>
       <c r="T18">
-        <v>0.004283999999984189</v>
+        <v>0.004480399999991391</v>
       </c>
       <c r="U18">
         <v>24</v>
@@ -1732,7 +1732,7 @@
         <v>22</v>
       </c>
       <c r="T19">
-        <v>0.004478199999994104</v>
+        <v>0.00598140000001024</v>
       </c>
       <c r="U19">
         <v>24</v>
@@ -1800,7 +1800,7 @@
         <v>22</v>
       </c>
       <c r="T20">
-        <v>0.005990100000019538</v>
+        <v>0.00551129999999489</v>
       </c>
       <c r="U20">
         <v>29</v>
@@ -1868,7 +1868,7 @@
         <v>22</v>
       </c>
       <c r="T21">
-        <v>0.003935599999977057</v>
+        <v>0.00413310000000422</v>
       </c>
       <c r="U21">
         <v>21</v>
@@ -1936,7 +1936,7 @@
         <v>22</v>
       </c>
       <c r="T22">
-        <v>0.005453899999963596</v>
+        <v>0.006031600000000026</v>
       </c>
       <c r="U22">
         <v>30</v>
@@ -2004,7 +2004,7 @@
         <v>22</v>
       </c>
       <c r="T23">
-        <v>0.003410299999984545</v>
+        <v>0.005069399999996449</v>
       </c>
       <c r="U23">
         <v>17</v>
@@ -2072,7 +2072,7 @@
         <v>22</v>
       </c>
       <c r="T24">
-        <v>0.004258999999990465</v>
+        <v>0.004445900000007441</v>
       </c>
       <c r="U24">
         <v>24</v>
@@ -2140,7 +2140,7 @@
         <v>22</v>
       </c>
       <c r="T25">
-        <v>0.005963799999960884</v>
+        <v>0.005433100000004742</v>
       </c>
       <c r="U25">
         <v>29</v>
@@ -2208,7 +2208,7 @@
         <v>22</v>
       </c>
       <c r="T26">
-        <v>0.003447600000015427</v>
+        <v>0.00414809999999477</v>
       </c>
       <c r="U26">
         <v>18</v>
@@ -2276,7 +2276,7 @@
         <v>22</v>
       </c>
       <c r="T27">
-        <v>0.003370899999993071</v>
+        <v>0.004196300000003816</v>
       </c>
       <c r="U27">
         <v>16</v>
@@ -2344,7 +2344,7 @@
         <v>22</v>
       </c>
       <c r="T28">
-        <v>0.004708900000025551</v>
+        <v>0.004812999999998624</v>
       </c>
       <c r="U28">
         <v>26</v>
@@ -2412,7 +2412,7 @@
         <v>22</v>
       </c>
       <c r="T29">
-        <v>0.005054299999983414</v>
+        <v>0.005193500000004292</v>
       </c>
       <c r="U29">
         <v>28</v>
@@ -2480,7 +2480,7 @@
         <v>22</v>
       </c>
       <c r="T30">
-        <v>0.006737399999963145</v>
+        <v>0.006492899999997803</v>
       </c>
       <c r="U30">
         <v>31</v>
@@ -2548,7 +2548,7 @@
         <v>22</v>
       </c>
       <c r="T31">
-        <v>0.005770100000006551</v>
+        <v>0.005760000000009313</v>
       </c>
       <c r="U31">
         <v>31</v>
@@ -2616,7 +2616,7 @@
         <v>22</v>
       </c>
       <c r="T32">
-        <v>0.005459400000006553</v>
+        <v>0.005661400000008143</v>
       </c>
       <c r="U32">
         <v>29</v>
@@ -2684,7 +2684,7 @@
         <v>22</v>
       </c>
       <c r="T33">
-        <v>0.005718800000011015</v>
+        <v>0.005047599999997487</v>
       </c>
       <c r="U33">
         <v>27</v>
@@ -2752,7 +2752,7 @@
         <v>22</v>
       </c>
       <c r="T34">
-        <v>0.00308660000001737</v>
+        <v>0.003728000000009501</v>
       </c>
       <c r="U34">
         <v>15</v>
@@ -2820,7 +2820,7 @@
         <v>22</v>
       </c>
       <c r="T35">
-        <v>0.004448400000001129</v>
+        <v>0.004581099999995786</v>
       </c>
       <c r="U35">
         <v>24</v>
@@ -2888,7 +2888,7 @@
         <v>22</v>
       </c>
       <c r="T36">
-        <v>0.002880800000014005</v>
+        <v>0.003040499999997337</v>
       </c>
       <c r="U36">
         <v>15</v>
@@ -2956,7 +2956,7 @@
         <v>22</v>
       </c>
       <c r="T37">
-        <v>0.004786199999955443</v>
+        <v>0.005860800000007771</v>
       </c>
       <c r="U37">
         <v>27</v>
@@ -3024,7 +3024,7 @@
         <v>22</v>
       </c>
       <c r="T38">
-        <v>0.006330100000013772</v>
+        <v>0.006022700000002601</v>
       </c>
       <c r="U38">
         <v>31</v>
@@ -3092,7 +3092,7 @@
         <v>22</v>
       </c>
       <c r="T39">
-        <v>0.003809300000000349</v>
+        <v>0.003951000000000704</v>
       </c>
       <c r="U39">
         <v>20</v>
@@ -3160,7 +3160,7 @@
         <v>22</v>
       </c>
       <c r="T40">
-        <v>0.004573100000015984</v>
+        <v>0.005447699999990618</v>
       </c>
       <c r="U40">
         <v>25</v>
@@ -3228,7 +3228,7 @@
         <v>22</v>
       </c>
       <c r="T41">
-        <v>0.006356999999979962</v>
+        <v>0.005327300000004698</v>
       </c>
       <c r="U41">
         <v>29</v>
@@ -3296,7 +3296,7 @@
         <v>22</v>
       </c>
       <c r="T42">
-        <v>0.004041299999983039</v>
+        <v>0.004153900000005706</v>
       </c>
       <c r="U42">
         <v>22</v>
@@ -3364,7 +3364,7 @@
         <v>22</v>
       </c>
       <c r="T43">
-        <v>0.004336399999999685</v>
+        <v>0.005215100000000916</v>
       </c>
       <c r="U43">
         <v>23</v>
@@ -3432,7 +3432,7 @@
         <v>22</v>
       </c>
       <c r="T44">
-        <v>0.005661799999984396</v>
+        <v>0.005438499999996793</v>
       </c>
       <c r="U44">
         <v>27</v>
@@ -3500,7 +3500,7 @@
         <v>22</v>
       </c>
       <c r="T45">
-        <v>0.003868400000044403</v>
+        <v>0.004129599999998845</v>
       </c>
       <c r="U45">
         <v>21</v>
@@ -3568,7 +3568,7 @@
         <v>22</v>
       </c>
       <c r="T46">
-        <v>0.005745400000023437</v>
+        <v>0.005084499999995273</v>
       </c>
       <c r="U46">
         <v>27</v>
@@ -3636,7 +3636,7 @@
         <v>22</v>
       </c>
       <c r="T47">
-        <v>0.004476399999987279</v>
+        <v>0.004422199999993381</v>
       </c>
       <c r="U47">
         <v>23</v>
@@ -3704,7 +3704,7 @@
         <v>22</v>
       </c>
       <c r="T48">
-        <v>0.005620899999996709</v>
+        <v>0.005761100000000852</v>
       </c>
       <c r="U48">
         <v>31</v>
@@ -3772,7 +3772,7 @@
         <v>22</v>
       </c>
       <c r="T49">
-        <v>0.005039999999951306</v>
+        <v>0.003965900000011402</v>
       </c>
       <c r="U49">
         <v>21</v>
@@ -3840,7 +3840,7 @@
         <v>22</v>
       </c>
       <c r="T50">
-        <v>0.001937599999962458</v>
+        <v>0.002019400000008886</v>
       </c>
       <c r="U50">
         <v>9</v>
@@ -3908,7 +3908,7 @@
         <v>22</v>
       </c>
       <c r="T51">
-        <v>0.005348599999990711</v>
+        <v>0.004501599999997552</v>
       </c>
       <c r="U51">
         <v>23</v>
@@ -3976,7 +3976,7 @@
         <v>22</v>
       </c>
       <c r="T52">
-        <v>0.00489119999997456</v>
+        <v>0.006206300000002329</v>
       </c>
       <c r="U52">
         <v>27</v>
@@ -4044,7 +4044,7 @@
         <v>22</v>
       </c>
       <c r="T53">
-        <v>0.005073699999968539</v>
+        <v>0.005075800000000186</v>
       </c>
       <c r="U53">
         <v>27</v>
@@ -4112,7 +4112,7 @@
         <v>22</v>
       </c>
       <c r="T54">
-        <v>0.005340499999988424</v>
+        <v>0.004723800000007827</v>
       </c>
       <c r="U54">
         <v>24</v>
@@ -4180,7 +4180,7 @@
         <v>22</v>
       </c>
       <c r="T55">
-        <v>0.003391300000032516</v>
+        <v>0.004359100000002059</v>
       </c>
       <c r="U55">
         <v>17</v>
@@ -4248,7 +4248,7 @@
         <v>22</v>
       </c>
       <c r="T56">
-        <v>0.004952800000012303</v>
+        <v>0.005150299999996832</v>
       </c>
       <c r="U56">
         <v>27</v>
@@ -4316,7 +4316,7 @@
         <v>22</v>
       </c>
       <c r="T57">
-        <v>0.004943300000036288</v>
+        <v>0.004087399999988861</v>
       </c>
       <c r="U57">
         <v>21</v>
@@ -4384,7 +4384,7 @@
         <v>22</v>
       </c>
       <c r="T58">
-        <v>0.004479600000024675</v>
+        <v>0.00523130000000549</v>
       </c>
       <c r="U58">
         <v>24</v>
@@ -4452,7 +4452,7 @@
         <v>22</v>
       </c>
       <c r="T59">
-        <v>0.003827300000011746</v>
+        <v>0.003995400000007976</v>
       </c>
       <c r="U59">
         <v>20</v>
@@ -4520,7 +4520,7 @@
         <v>22</v>
       </c>
       <c r="T60">
-        <v>0.004609900000048128</v>
+        <v>0.004801199999988626</v>
       </c>
       <c r="U60">
         <v>26</v>
@@ -4588,7 +4588,7 @@
         <v>22</v>
       </c>
       <c r="T61">
-        <v>0.00500899999997273</v>
+        <v>0.005866599999990285</v>
       </c>
       <c r="U61">
         <v>28</v>
@@ -4656,7 +4656,7 @@
         <v>22</v>
       </c>
       <c r="T62">
-        <v>0.005042800000012448</v>
+        <v>0.004327700000004597</v>
       </c>
       <c r="U62">
         <v>23</v>
@@ -4724,7 +4724,7 @@
         <v>22</v>
       </c>
       <c r="T63">
-        <v>0.004948899999988043</v>
+        <v>0.005266599999998789</v>
       </c>
       <c r="U63">
         <v>28</v>
@@ -4792,7 +4792,7 @@
         <v>22</v>
       </c>
       <c r="T64">
-        <v>0.003461599999980081</v>
+        <v>0.004222200000000953</v>
       </c>
       <c r="U64">
         <v>17</v>
@@ -4860,7 +4860,7 @@
         <v>22</v>
       </c>
       <c r="T65">
-        <v>0.004974099999969894</v>
+        <v>0.005123900000000958</v>
       </c>
       <c r="U65">
         <v>28</v>
@@ -4928,7 +4928,7 @@
         <v>22</v>
       </c>
       <c r="T66">
-        <v>0.004816900000037094</v>
+        <v>0.005106100000006109</v>
       </c>
       <c r="U66">
         <v>27</v>
@@ -4996,7 +4996,7 @@
         <v>22</v>
       </c>
       <c r="T67">
-        <v>0.004968500000018139</v>
+        <v>0.004303100000001336</v>
       </c>
       <c r="U67">
         <v>23</v>
@@ -5064,7 +5064,7 @@
         <v>22</v>
       </c>
       <c r="T68">
-        <v>0.004205000000013115</v>
+        <v>0.004441399999990381</v>
       </c>
       <c r="U68">
         <v>23</v>
@@ -5132,7 +5132,7 @@
         <v>22</v>
       </c>
       <c r="T69">
-        <v>0.005246099999965281</v>
+        <v>0.005611999999999284</v>
       </c>
       <c r="U69">
         <v>29</v>
@@ -5200,7 +5200,7 @@
         <v>22</v>
       </c>
       <c r="T70">
-        <v>0.004119500000001608</v>
+        <v>0.004483499999992091</v>
       </c>
       <c r="U70">
         <v>23</v>
@@ -5268,7 +5268,7 @@
         <v>22</v>
       </c>
       <c r="T71">
-        <v>0.00476680000002716</v>
+        <v>0.004992500000000177</v>
       </c>
       <c r="U71">
         <v>27</v>
@@ -5336,7 +5336,7 @@
         <v>22</v>
       </c>
       <c r="T72">
-        <v>0.005821099999991475</v>
+        <v>0.005187399999996956</v>
       </c>
       <c r="U72">
         <v>27</v>
@@ -5404,7 +5404,7 @@
         <v>22</v>
       </c>
       <c r="T73">
-        <v>0.004061799999988125</v>
+        <v>0.004909499999996569</v>
       </c>
       <c r="U73">
         <v>23</v>
@@ -5472,7 +5472,7 @@
         <v>22</v>
       </c>
       <c r="T74">
-        <v>0.003861299999982748</v>
+        <v>0.005302700000001437</v>
       </c>
       <c r="U74">
         <v>21</v>
@@ -5540,7 +5540,7 @@
         <v>22</v>
       </c>
       <c r="T75">
-        <v>0.00608420000003207</v>
+        <v>0.005516900000003488</v>
       </c>
       <c r="U75">
         <v>29</v>
@@ -5608,7 +5608,7 @@
         <v>22</v>
       </c>
       <c r="T76">
-        <v>0.004266400000005888</v>
+        <v>0.00472700000000259</v>
       </c>
       <c r="U76">
         <v>24</v>
@@ -5676,7 +5676,7 @@
         <v>22</v>
       </c>
       <c r="T77">
-        <v>0.005186399999956848</v>
+        <v>0.005685700000000793</v>
       </c>
       <c r="U77">
         <v>27</v>
@@ -5744,7 +5744,7 @@
         <v>22</v>
       </c>
       <c r="T78">
-        <v>0.004750800000010713</v>
+        <v>0.00517000000000678</v>
       </c>
       <c r="U78">
         <v>27</v>
@@ -5812,7 +5812,7 @@
         <v>22</v>
       </c>
       <c r="T79">
-        <v>0.003548899999998412</v>
+        <v>0.00382290000000296</v>
       </c>
       <c r="U79">
         <v>18</v>
@@ -5880,7 +5880,7 @@
         <v>22</v>
       </c>
       <c r="T80">
-        <v>0.003336899999965226</v>
+        <v>0.003658500000000231</v>
       </c>
       <c r="U80">
         <v>17</v>
@@ -5948,7 +5948,7 @@
         <v>22</v>
       </c>
       <c r="T81">
-        <v>0.004949899999985519</v>
+        <v>0.005261899999993602</v>
       </c>
       <c r="U81">
         <v>28</v>
@@ -6016,7 +6016,7 @@
         <v>22</v>
       </c>
       <c r="T82">
-        <v>0.006186000000013792</v>
+        <v>0.005372499999992897</v>
       </c>
       <c r="U82">
         <v>29</v>
@@ -6084,7 +6084,7 @@
         <v>22</v>
       </c>
       <c r="T83">
-        <v>0.004574499999989712</v>
+        <v>0.00648660000000234</v>
       </c>
       <c r="U83">
         <v>26</v>
@@ -6152,7 +6152,7 @@
         <v>22</v>
       </c>
       <c r="T84">
-        <v>0.004408100000034665</v>
+        <v>0.0045408000000009</v>
       </c>
       <c r="U84">
         <v>24</v>
@@ -6220,7 +6220,7 @@
         <v>22</v>
       </c>
       <c r="T85">
-        <v>0.005070700000032957</v>
+        <v>0.004629200000010769</v>
       </c>
       <c r="U85">
         <v>24</v>
@@ -6288,7 +6288,7 @@
         <v>23</v>
       </c>
       <c r="T86">
-        <v>0.003219500000000153</v>
+        <v>0.00420459999999423</v>
       </c>
       <c r="U86">
         <v>17</v>
@@ -6356,7 +6356,7 @@
         <v>22</v>
       </c>
       <c r="T87">
-        <v>0.006148199999984172</v>
+        <v>0.005399199999999382</v>
       </c>
       <c r="U87">
         <v>29</v>
@@ -6424,7 +6424,7 @@
         <v>22</v>
       </c>
       <c r="T88">
-        <v>0.004502899999977217</v>
+        <v>0.004458800000008978</v>
       </c>
       <c r="U88">
         <v>23</v>
@@ -6492,7 +6492,7 @@
         <v>22</v>
       </c>
       <c r="T89">
-        <v>0.005370799999980136</v>
+        <v>0.006113900000002559</v>
       </c>
       <c r="U89">
         <v>30</v>
@@ -6560,7 +6560,7 @@
         <v>22</v>
       </c>
       <c r="T90">
-        <v>0.006024500000023636</v>
+        <v>0.0065464999999989</v>
       </c>
       <c r="U90">
         <v>29</v>
@@ -6628,7 +6628,7 @@
         <v>22</v>
       </c>
       <c r="T91">
-        <v>0.004700500000012653</v>
+        <v>0.005175000000008367</v>
       </c>
       <c r="U91">
         <v>27</v>
@@ -6696,7 +6696,7 @@
         <v>22</v>
       </c>
       <c r="T92">
-        <v>0.004195100000004004</v>
+        <v>0.004249500000000239</v>
       </c>
       <c r="U92">
         <v>23</v>
@@ -6764,7 +6764,7 @@
         <v>22</v>
       </c>
       <c r="T93">
-        <v>0.005228900000020076</v>
+        <v>0.00490809999999442</v>
       </c>
       <c r="U93">
         <v>23</v>
@@ -6832,7 +6832,7 @@
         <v>22</v>
       </c>
       <c r="T94">
-        <v>0.004388800000015181</v>
+        <v>0.004893000000009806</v>
       </c>
       <c r="U94">
         <v>23</v>
@@ -6900,7 +6900,7 @@
         <v>22</v>
       </c>
       <c r="T95">
-        <v>0.005382200000042303</v>
+        <v>0.005841099999997823</v>
       </c>
       <c r="U95">
         <v>29</v>
@@ -6968,7 +6968,7 @@
         <v>22</v>
       </c>
       <c r="T96">
-        <v>0.00633349999998245</v>
+        <v>0.006493000000006077</v>
       </c>
       <c r="U96">
         <v>31</v>
@@ -7036,7 +7036,7 @@
         <v>22</v>
       </c>
       <c r="T97">
-        <v>0.004771700000048895</v>
+        <v>0.004253800000000751</v>
       </c>
       <c r="U97">
         <v>23</v>
@@ -7104,7 +7104,7 @@
         <v>22</v>
       </c>
       <c r="T98">
-        <v>0.004772799999955168</v>
+        <v>0.004536900000005062</v>
       </c>
       <c r="U98">
         <v>24</v>
@@ -7172,7 +7172,7 @@
         <v>22</v>
       </c>
       <c r="T99">
-        <v>0.005151300000022729</v>
+        <v>0.00589159999999822</v>
       </c>
       <c r="U99">
         <v>29</v>
@@ -7240,7 +7240,7 @@
         <v>23</v>
       </c>
       <c r="T100">
-        <v>0.005479999999977281</v>
+        <v>0.006686999999999443</v>
       </c>
       <c r="U100">
         <v>31</v>
@@ -7308,7 +7308,7 @@
         <v>22</v>
       </c>
       <c r="T101">
-        <v>0.006513799999993353</v>
+        <v>0.006364500000003659</v>
       </c>
       <c r="U101">
         <v>30</v>

--- a/tests/tests8/ЛМ 0.3.xlsx
+++ b/tests/tests8/ЛМ 0.3.xlsx
@@ -573,7 +573,7 @@
         <v>22</v>
       </c>
       <c r="T2">
-        <v>0.00386100000002898</v>
+        <v>0.003584400000001153</v>
       </c>
       <c r="U2">
         <v>19</v>
@@ -641,7 +641,7 @@
         <v>22</v>
       </c>
       <c r="T3">
-        <v>0.002468099999987317</v>
+        <v>0.002773399999998816</v>
       </c>
       <c r="U3">
         <v>12</v>
@@ -709,7 +709,7 @@
         <v>22</v>
       </c>
       <c r="T4">
-        <v>0.001846900000032292</v>
+        <v>0.00178460000000058</v>
       </c>
       <c r="U4">
         <v>8</v>
@@ -777,7 +777,7 @@
         <v>22</v>
       </c>
       <c r="T5">
-        <v>0.003716899999972156</v>
+        <v>0.003797500000001008</v>
       </c>
       <c r="U5">
         <v>19</v>
@@ -845,7 +845,7 @@
         <v>22</v>
       </c>
       <c r="T6">
-        <v>0.006703100000095219</v>
+        <v>0.004507100000001429</v>
       </c>
       <c r="U6">
         <v>24</v>
@@ -913,7 +913,7 @@
         <v>22</v>
       </c>
       <c r="T7">
-        <v>0.002060099999994236</v>
+        <v>0.001957099999998491</v>
       </c>
       <c r="U7">
         <v>9</v>
@@ -981,7 +981,7 @@
         <v>22</v>
       </c>
       <c r="T8">
-        <v>0.005370999999968262</v>
+        <v>0.00554299999999941</v>
       </c>
       <c r="U8">
         <v>27</v>
@@ -1049,7 +1049,7 @@
         <v>22</v>
       </c>
       <c r="T9">
-        <v>0.001770999999962442</v>
+        <v>0.001759899999999703</v>
       </c>
       <c r="U9">
         <v>8</v>
@@ -1117,7 +1117,7 @@
         <v>22</v>
       </c>
       <c r="T10">
-        <v>0.004381699999953526</v>
+        <v>0.004371700000000089</v>
       </c>
       <c r="U10">
         <v>23</v>
@@ -1185,7 +1185,7 @@
         <v>22</v>
       </c>
       <c r="T11">
-        <v>0.001590400000054615</v>
+        <v>0.001631799999998407</v>
       </c>
       <c r="U11">
         <v>7</v>

--- a/tests/tests8/ЛМ 0.3.xlsx
+++ b/tests/tests8/ЛМ 0.3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>П0_ист</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>V0_апр</t>
+  </si>
+  <si>
+    <t>Птек_ист</t>
+  </si>
+  <si>
+    <t>Дтек_ист</t>
   </si>
   <si>
     <t>СКО X</t>
@@ -440,13 +446,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,8 +519,14 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:24">
       <c r="A2">
         <v>0</v>
       </c>
@@ -528,16 +540,16 @@
         <v>11.58227239646903</v>
       </c>
       <c r="E2">
-        <v>359.9685408737741</v>
+        <v>-0.01179644932886068</v>
       </c>
       <c r="F2">
-        <v>9.933668896635977</v>
+        <v>10.07986870285238</v>
       </c>
       <c r="G2">
-        <v>98.49369262933358</v>
+        <v>11.59500436973014</v>
       </c>
       <c r="H2">
-        <v>11.54560208103179</v>
+        <v>-1.803314855263558</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -552,37 +564,43 @@
         <v>7</v>
       </c>
       <c r="M2">
-        <v>0.008435685891771572</v>
+        <v>0.3392696413876129</v>
       </c>
       <c r="N2">
-        <v>0.1197246879260705</v>
+        <v>15.80711097780685</v>
       </c>
       <c r="O2">
-        <v>0.1902606499418556</v>
+        <v>0.008610779675959144</v>
       </c>
       <c r="P2">
-        <v>0.04459468698032157</v>
+        <v>0.123533753307402</v>
       </c>
       <c r="Q2">
-        <v>0.08435156617533847</v>
+        <v>0.1955633068879516</v>
       </c>
       <c r="R2">
-        <v>0.03415359892398689</v>
-      </c>
-      <c r="S2" t="s">
-        <v>22</v>
+        <v>0.04649141208055429</v>
+      </c>
+      <c r="S2">
+        <v>0.08991100466108479</v>
       </c>
       <c r="T2">
-        <v>0.003584400000001153</v>
-      </c>
-      <c r="U2">
+        <v>0.06888695352697982</v>
+      </c>
+      <c r="U2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2">
+        <v>0.004045900000164693</v>
+      </c>
+      <c r="W2">
         <v>19</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:24">
       <c r="A3">
         <v>0</v>
       </c>
@@ -596,16 +614,16 @@
         <v>11.6438939213059</v>
       </c>
       <c r="E3">
-        <v>359.8943149641531</v>
+        <v>0.002816251817284077</v>
       </c>
       <c r="F3">
-        <v>10.16472171377211</v>
+        <v>9.89731892018184</v>
       </c>
       <c r="G3">
-        <v>75.19488299220777</v>
+        <v>11.07813911847729</v>
       </c>
       <c r="H3">
-        <v>11.94621101286983</v>
+        <v>2.977748466521287</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -620,37 +638,43 @@
         <v>7</v>
       </c>
       <c r="M3">
-        <v>0.008698869514203487</v>
+        <v>0.6427012887259322</v>
       </c>
       <c r="N3">
-        <v>0.09834596805681575</v>
+        <v>18.32782196423818</v>
       </c>
       <c r="O3">
-        <v>0.1579890735495812</v>
+        <v>0.008353084768425383</v>
       </c>
       <c r="P3">
-        <v>0.03583693830463979</v>
+        <v>0.09240950368905469</v>
       </c>
       <c r="Q3">
-        <v>0.08750527277848351</v>
+        <v>0.1481771041410915</v>
       </c>
       <c r="R3">
-        <v>0.1220568644396132</v>
-      </c>
-      <c r="S3" t="s">
-        <v>22</v>
+        <v>0.03440585666339423</v>
+      </c>
+      <c r="S3">
+        <v>0.08946919843009489</v>
       </c>
       <c r="T3">
-        <v>0.002773399999998816</v>
-      </c>
-      <c r="U3">
+        <v>0.07572241923644635</v>
+      </c>
+      <c r="U3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V3">
+        <v>0.002540600000429549</v>
+      </c>
+      <c r="W3">
         <v>12</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:24">
       <c r="A4">
         <v>0</v>
       </c>
@@ -664,16 +688,16 @@
         <v>3.311114781934696</v>
       </c>
       <c r="E4">
-        <v>0.03456910298696968</v>
+        <v>0.007627534959925974</v>
       </c>
       <c r="F4">
-        <v>10.02199149361065</v>
+        <v>10.0224735514409</v>
       </c>
       <c r="G4">
-        <v>79.00187253223139</v>
+        <v>3.219275741194233</v>
       </c>
       <c r="H4">
-        <v>3.29324398619062</v>
+        <v>0.6017709490093607</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -688,37 +712,43 @@
         <v>7</v>
       </c>
       <c r="M4">
-        <v>0.006887454292036746</v>
+        <v>1.016342879682239</v>
       </c>
       <c r="N4">
-        <v>0.04258783344174023</v>
+        <v>9.618122158119826</v>
       </c>
       <c r="O4">
-        <v>0.03957124960679997</v>
+        <v>0.006880989027609184</v>
       </c>
       <c r="P4">
-        <v>0.03903905277616197</v>
+        <v>0.04248765662860834</v>
       </c>
       <c r="Q4">
-        <v>0.08856242348238282</v>
+        <v>0.03945393573501611</v>
       </c>
       <c r="R4">
-        <v>0.03887031386763908</v>
-      </c>
-      <c r="S4" t="s">
-        <v>22</v>
+        <v>0.03891555935748628</v>
+      </c>
+      <c r="S4">
+        <v>0.0949310697587166</v>
       </c>
       <c r="T4">
-        <v>0.00178460000000058</v>
-      </c>
-      <c r="U4">
+        <v>0.06977355975659452</v>
+      </c>
+      <c r="U4" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4">
+        <v>0.001629899999898043</v>
+      </c>
+      <c r="W4">
         <v>8</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:24">
       <c r="A5">
         <v>0</v>
       </c>
@@ -732,16 +762,16 @@
         <v>11.49777387141726</v>
       </c>
       <c r="E5">
-        <v>0.05723745352554588</v>
+        <v>0.01098420283702448</v>
       </c>
       <c r="F5">
-        <v>9.937756213781318</v>
+        <v>9.946193917640713</v>
       </c>
       <c r="G5">
-        <v>99.34373088164607</v>
+        <v>11.22684473263515</v>
       </c>
       <c r="H5">
-        <v>11.35403611856532</v>
+        <v>-1.821007013061896</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -756,37 +786,43 @@
         <v>7</v>
       </c>
       <c r="M5">
-        <v>0.008299746984537143</v>
+        <v>0.3375023832549029</v>
       </c>
       <c r="N5">
-        <v>0.1191006692344227</v>
+        <v>15.67687823027242</v>
       </c>
       <c r="O5">
-        <v>0.1866470292119844</v>
+        <v>0.008300675737371012</v>
       </c>
       <c r="P5">
-        <v>0.04588809418220365</v>
+        <v>0.1192134015166433</v>
       </c>
       <c r="Q5">
-        <v>0.08567968931618435</v>
+        <v>0.186975442356576</v>
       </c>
       <c r="R5">
-        <v>0.06093942570142883</v>
-      </c>
-      <c r="S5" t="s">
-        <v>22</v>
+        <v>0.0456227025102301</v>
+      </c>
+      <c r="S5">
+        <v>0.09412411742042734</v>
       </c>
       <c r="T5">
-        <v>0.003797500000001008</v>
-      </c>
-      <c r="U5">
+        <v>0.04624604811843225</v>
+      </c>
+      <c r="U5" t="s">
+        <v>24</v>
+      </c>
+      <c r="V5">
+        <v>0.004057199999806471</v>
+      </c>
+      <c r="W5">
         <v>19</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:24">
       <c r="A6">
         <v>0</v>
       </c>
@@ -800,16 +836,16 @@
         <v>9.566786990108668</v>
       </c>
       <c r="E6">
-        <v>359.9620830568292</v>
+        <v>-0.003342190881982985</v>
       </c>
       <c r="F6">
-        <v>10.01268394852795</v>
+        <v>10.04796059595525</v>
       </c>
       <c r="G6">
-        <v>173.9995528125705</v>
+        <v>1.007039135161566</v>
       </c>
       <c r="H6">
-        <v>9.583283549548838</v>
+        <v>-9.571879944129233</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -824,37 +860,43 @@
         <v>7</v>
       </c>
       <c r="M6">
-        <v>0.003091289727596976</v>
+        <v>-1.042039640464102</v>
       </c>
       <c r="N6">
-        <v>0.03655656248721445</v>
+        <v>4.673171010711503</v>
       </c>
       <c r="O6">
-        <v>0.01161003894295343</v>
+        <v>0.003104325447639314</v>
       </c>
       <c r="P6">
-        <v>0.04460670349811586</v>
+        <v>0.03681074161724539</v>
       </c>
       <c r="Q6">
-        <v>0.08236948962439755</v>
+        <v>0.01166720295917749</v>
       </c>
       <c r="R6">
-        <v>0.01754957583053934</v>
-      </c>
-      <c r="S6" t="s">
-        <v>22</v>
+        <v>0.04490939285279592</v>
+      </c>
+      <c r="S6">
+        <v>0.08451601943484413</v>
       </c>
       <c r="T6">
-        <v>0.004507100000001429</v>
-      </c>
-      <c r="U6">
+        <v>0.04369702732590014</v>
+      </c>
+      <c r="U6" t="s">
         <v>24</v>
       </c>
       <c r="V6">
+        <v>0.004561299999295443</v>
+      </c>
+      <c r="W6">
+        <v>24</v>
+      </c>
+      <c r="X6">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:24">
       <c r="A7">
         <v>0</v>
       </c>
@@ -868,16 +910,16 @@
         <v>13.44878767412852</v>
       </c>
       <c r="E7">
-        <v>0.0282842796859502</v>
+        <v>-0.008782966049992477</v>
       </c>
       <c r="F7">
-        <v>9.94602452757252</v>
+        <v>10.05185873397631</v>
       </c>
       <c r="G7">
-        <v>39.80394163104136</v>
+        <v>8.734334961775904</v>
       </c>
       <c r="H7">
-        <v>13.38670272316925</v>
+        <v>10.40078247732851</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -892,37 +934,43 @@
         <v>7</v>
       </c>
       <c r="M7">
-        <v>0.00874163669734309</v>
+        <v>1.04226575396884</v>
       </c>
       <c r="N7">
-        <v>0.08382374487028986</v>
+        <v>22.87529985576693</v>
       </c>
       <c r="O7">
-        <v>0.1078082568656155</v>
+        <v>0.008863049198847551</v>
       </c>
       <c r="P7">
-        <v>0.1082234839127104</v>
+        <v>0.08579405273451038</v>
       </c>
       <c r="Q7">
-        <v>0.08889840252459187</v>
+        <v>0.1106509212984269</v>
       </c>
       <c r="R7">
-        <v>0.03147870508660547</v>
-      </c>
-      <c r="S7" t="s">
-        <v>22</v>
+        <v>0.1102865455273648</v>
+      </c>
+      <c r="S7">
+        <v>0.08636723013677074</v>
       </c>
       <c r="T7">
-        <v>0.001957099999998491</v>
-      </c>
-      <c r="U7">
+        <v>0.04735080504031875</v>
+      </c>
+      <c r="U7" t="s">
+        <v>24</v>
+      </c>
+      <c r="V7">
+        <v>0.001943400000527618</v>
+      </c>
+      <c r="W7">
         <v>9</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:24">
       <c r="A8">
         <v>0</v>
       </c>
@@ -936,16 +984,16 @@
         <v>6.983757663614126</v>
       </c>
       <c r="E8">
-        <v>359.9789364543157</v>
+        <v>-0.01281600258194643</v>
       </c>
       <c r="F8">
-        <v>9.98540102329023</v>
+        <v>10.17164249320658</v>
       </c>
       <c r="G8">
-        <v>160.6550859060485</v>
+        <v>2.415765084292164</v>
       </c>
       <c r="H8">
-        <v>6.970858752813598</v>
+        <v>-6.746749502399026</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -960,37 +1008,43 @@
         <v>7</v>
       </c>
       <c r="M8">
-        <v>0.007821904305962418</v>
+        <v>-0.1329274218000709</v>
       </c>
       <c r="N8">
-        <v>0.119392783766425</v>
+        <v>3.973338297383755</v>
       </c>
       <c r="O8">
-        <v>0.07359896743036802</v>
+        <v>0.008077015557201172</v>
       </c>
       <c r="P8">
-        <v>0.1073285622652119</v>
+        <v>0.1243206576148433</v>
       </c>
       <c r="Q8">
-        <v>0.08347915749220017</v>
+        <v>0.07649873008277057</v>
       </c>
       <c r="R8">
-        <v>0.01381005094091256</v>
-      </c>
-      <c r="S8" t="s">
-        <v>22</v>
+        <v>0.1117964951156491</v>
+      </c>
+      <c r="S8">
+        <v>0.08347235721500505</v>
       </c>
       <c r="T8">
-        <v>0.00554299999999941</v>
-      </c>
-      <c r="U8">
+        <v>0.1312347761633799</v>
+      </c>
+      <c r="U8" t="s">
+        <v>24</v>
+      </c>
+      <c r="V8">
+        <v>0.005007199999454315</v>
+      </c>
+      <c r="W8">
         <v>27</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:24">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1004,16 +1058,16 @@
         <v>12.35902550688138</v>
       </c>
       <c r="E9">
-        <v>359.9985317121024</v>
+        <v>0.006478542057442495</v>
       </c>
       <c r="F9">
-        <v>9.891405503818264</v>
+        <v>9.883243426348081</v>
       </c>
       <c r="G9">
-        <v>13.54580206320595</v>
+        <v>2.851537851597305</v>
       </c>
       <c r="H9">
-        <v>12.44585675726832</v>
+        <v>11.80891913506645</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1028,37 +1082,43 @@
         <v>7</v>
       </c>
       <c r="M9">
-        <v>0.008027040620982709</v>
+        <v>1.35871477809105</v>
       </c>
       <c r="N9">
-        <v>0.09435304324681672</v>
+        <v>22.28974380606835</v>
       </c>
       <c r="O9">
-        <v>0.04885904772298424</v>
+        <v>0.007993110621003273</v>
       </c>
       <c r="P9">
-        <v>0.1653640517520961</v>
+        <v>0.093143481365163</v>
       </c>
       <c r="Q9">
-        <v>0.08220394013406741</v>
+        <v>0.04793578002851309</v>
       </c>
       <c r="R9">
-        <v>0.04077274526558024</v>
-      </c>
-      <c r="S9" t="s">
-        <v>22</v>
+        <v>0.1626498917300425</v>
+      </c>
+      <c r="S9">
+        <v>0.08542279930119398</v>
       </c>
       <c r="T9">
-        <v>0.001759899999999703</v>
-      </c>
-      <c r="U9">
+        <v>0.08482492764406348</v>
+      </c>
+      <c r="U9" t="s">
+        <v>24</v>
+      </c>
+      <c r="V9">
+        <v>0.001602599999387166</v>
+      </c>
+      <c r="W9">
         <v>8</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:24">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1072,16 +1132,16 @@
         <v>14.62248795385118</v>
       </c>
       <c r="E10">
-        <v>0.03059883940714066</v>
+        <v>-0.00119353760280985</v>
       </c>
       <c r="F10">
-        <v>10.02407259375771</v>
+        <v>9.966793313017281</v>
       </c>
       <c r="G10">
-        <v>157.249269620738</v>
+        <v>5.642954890843455</v>
       </c>
       <c r="H10">
-        <v>14.65626747979718</v>
+        <v>-13.42882415361335</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1096,37 +1156,43 @@
         <v>7</v>
       </c>
       <c r="M10">
-        <v>0.003901378671253121</v>
+        <v>-0.8348238211053474</v>
       </c>
       <c r="N10">
-        <v>0.0517579810057666</v>
+        <v>11.86534188679525</v>
       </c>
       <c r="O10">
-        <v>0.0431156067477879</v>
+        <v>0.003884257721875727</v>
       </c>
       <c r="P10">
-        <v>0.08312030002045814</v>
+        <v>0.05120687287295991</v>
       </c>
       <c r="Q10">
-        <v>0.09782205817381598</v>
+        <v>0.04278688216800515</v>
       </c>
       <c r="R10">
-        <v>0.01823650668869944</v>
-      </c>
-      <c r="S10" t="s">
-        <v>22</v>
+        <v>0.08226548561972791</v>
+      </c>
+      <c r="S10">
+        <v>0.09848228561505144</v>
       </c>
       <c r="T10">
-        <v>0.004371700000000089</v>
-      </c>
-      <c r="U10">
+        <v>0.01785833950897671</v>
+      </c>
+      <c r="U10" t="s">
+        <v>24</v>
+      </c>
+      <c r="V10">
+        <v>0.004360200000519399</v>
+      </c>
+      <c r="W10">
         <v>23</v>
       </c>
-      <c r="V10">
+      <c r="X10">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:24">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1140,16 +1206,16 @@
         <v>9.022495105784865</v>
       </c>
       <c r="E11">
-        <v>3.821050343162304E-05</v>
+        <v>-0.001961111462774457</v>
       </c>
       <c r="F11">
-        <v>10.12012686520347</v>
+        <v>10.07343099928106</v>
       </c>
       <c r="G11">
-        <v>1.878193015114088</v>
+        <v>0.2975952740932762</v>
       </c>
       <c r="H11">
-        <v>8.86021006941195</v>
+        <v>8.950618693118713</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1164,33 +1230,39 @@
         <v>7</v>
       </c>
       <c r="M11">
-        <v>0.006457536073428736</v>
+        <v>1.487317718644038</v>
       </c>
       <c r="N11">
-        <v>0.129583344776623</v>
+        <v>18.26849864379155</v>
       </c>
       <c r="O11">
-        <v>0.02389943728171392</v>
+        <v>0.006435478200159691</v>
       </c>
       <c r="P11">
-        <v>0.2098607897886657</v>
+        <v>0.1293649981787719</v>
       </c>
       <c r="Q11">
-        <v>0.08845357409629379</v>
+        <v>0.02393859897265657</v>
       </c>
       <c r="R11">
-        <v>0.06526861398124638</v>
-      </c>
-      <c r="S11" t="s">
-        <v>22</v>
+        <v>0.2097803662010873</v>
+      </c>
+      <c r="S11">
+        <v>0.09423448751949749</v>
       </c>
       <c r="T11">
-        <v>0.001631799999998407</v>
-      </c>
-      <c r="U11">
-        <v>7</v>
+        <v>0.02239290472535272</v>
+      </c>
+      <c r="U11" t="s">
+        <v>24</v>
       </c>
       <c r="V11">
+        <v>0.001401599999553582</v>
+      </c>
+      <c r="W11">
+        <v>7</v>
+      </c>
+      <c r="X11">
         <v>6</v>
       </c>
     </row>

--- a/tests/tests8/ЛМ 0.3.xlsx
+++ b/tests/tests8/ЛМ 0.3.xlsx
@@ -540,16 +540,16 @@
         <v>11.58227239646903</v>
       </c>
       <c r="E2">
-        <v>-0.01179644932886068</v>
+        <v>359.9329468992956</v>
       </c>
       <c r="F2">
-        <v>10.07986870285238</v>
+        <v>10.07987560553005</v>
       </c>
       <c r="G2">
-        <v>11.59500436973014</v>
+        <v>98.8401138974379</v>
       </c>
       <c r="H2">
-        <v>-1.803314855263558</v>
+        <v>11.73439690828955</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>24</v>
       </c>
       <c r="V2">
-        <v>0.004045900000164693</v>
+        <v>0.003604099999999999</v>
       </c>
       <c r="W2">
         <v>19</v>
@@ -614,16 +614,16 @@
         <v>11.6438939213059</v>
       </c>
       <c r="E3">
-        <v>0.002816251817284077</v>
+        <v>0.01630333832048543</v>
       </c>
       <c r="F3">
-        <v>9.89731892018184</v>
+        <v>9.897319320859753</v>
       </c>
       <c r="G3">
-        <v>11.07813911847729</v>
+        <v>74.95479434940358</v>
       </c>
       <c r="H3">
-        <v>2.977748466521287</v>
+        <v>11.47136226688909</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>24</v>
       </c>
       <c r="V3">
-        <v>0.002540600000429549</v>
+        <v>0.002394600000000136</v>
       </c>
       <c r="W3">
         <v>12</v>
@@ -688,16 +688,16 @@
         <v>3.311114781934696</v>
       </c>
       <c r="E4">
-        <v>0.007627534959925974</v>
+        <v>0.04360455277592427</v>
       </c>
       <c r="F4">
-        <v>10.0224735514409</v>
+        <v>10.02247645388214</v>
       </c>
       <c r="G4">
-        <v>3.219275741194233</v>
+        <v>79.41203954962741</v>
       </c>
       <c r="H4">
-        <v>0.6017709490093607</v>
+        <v>3.275036575813055</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>24</v>
       </c>
       <c r="V4">
-        <v>0.001629899999898043</v>
+        <v>0.001970000000000027</v>
       </c>
       <c r="W4">
         <v>8</v>
@@ -762,16 +762,16 @@
         <v>11.49777387141726</v>
       </c>
       <c r="E5">
-        <v>0.01098420283702448</v>
+        <v>0.06327528029656621</v>
       </c>
       <c r="F5">
-        <v>9.946193917640713</v>
+        <v>9.946199982909306</v>
       </c>
       <c r="G5">
-        <v>11.22684473263515</v>
+        <v>99.21320256471229</v>
       </c>
       <c r="H5">
-        <v>-1.821007013061896</v>
+        <v>11.37357064392349</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -813,7 +813,7 @@
         <v>24</v>
       </c>
       <c r="V5">
-        <v>0.004057199999806471</v>
+        <v>0.004277100000000367</v>
       </c>
       <c r="W5">
         <v>19</v>
@@ -836,16 +836,16 @@
         <v>9.566786990108668</v>
       </c>
       <c r="E6">
-        <v>-0.003342190881982985</v>
+        <v>359.9809420605332</v>
       </c>
       <c r="F6">
-        <v>10.04796059595525</v>
+        <v>10.04796115180136</v>
       </c>
       <c r="G6">
-        <v>1.007039135161566</v>
+        <v>173.994115064397</v>
       </c>
       <c r="H6">
-        <v>-9.571879944129233</v>
+        <v>9.624708488290459</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -887,7 +887,7 @@
         <v>24</v>
       </c>
       <c r="V6">
-        <v>0.004561299999295443</v>
+        <v>0.004510999999999932</v>
       </c>
       <c r="W6">
         <v>24</v>
@@ -910,16 +910,16 @@
         <v>13.44878767412852</v>
       </c>
       <c r="E7">
-        <v>-0.008782966049992477</v>
+        <v>359.9499369448453</v>
       </c>
       <c r="F7">
-        <v>10.05185873397631</v>
+        <v>10.05186257110136</v>
       </c>
       <c r="G7">
-        <v>8.734334961775904</v>
+        <v>40.02275775488271</v>
       </c>
       <c r="H7">
-        <v>10.40078247732851</v>
+        <v>13.58178498450055</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>24</v>
       </c>
       <c r="V7">
-        <v>0.001943400000527618</v>
+        <v>0.001850899999999989</v>
       </c>
       <c r="W7">
         <v>9</v>
@@ -984,16 +984,16 @@
         <v>6.983757663614126</v>
       </c>
       <c r="E8">
-        <v>-0.01281600258194643</v>
+        <v>359.9278088597699</v>
       </c>
       <c r="F8">
-        <v>10.17164249320658</v>
+        <v>10.17165056711682</v>
       </c>
       <c r="G8">
-        <v>2.415765084292164</v>
+        <v>160.299405127723</v>
       </c>
       <c r="H8">
-        <v>-6.746749502399026</v>
+        <v>7.166208885499127</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>24</v>
       </c>
       <c r="V8">
-        <v>0.005007199999454315</v>
+        <v>0.005051600000000267</v>
       </c>
       <c r="W8">
         <v>27</v>
@@ -1058,16 +1058,16 @@
         <v>12.35902550688138</v>
       </c>
       <c r="E9">
-        <v>0.006478542057442495</v>
+        <v>0.03755781863409612</v>
       </c>
       <c r="F9">
-        <v>9.883243426348081</v>
+        <v>9.883245549714918</v>
       </c>
       <c r="G9">
-        <v>2.851537851597305</v>
+        <v>13.5755192318101</v>
       </c>
       <c r="H9">
-        <v>11.80891913506645</v>
+        <v>12.14832660318411</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>24</v>
       </c>
       <c r="V9">
-        <v>0.001602599999387166</v>
+        <v>0.002185499999999951</v>
       </c>
       <c r="W9">
         <v>8</v>
@@ -1132,16 +1132,16 @@
         <v>14.62248795385118</v>
       </c>
       <c r="E10">
-        <v>-0.00119353760280985</v>
+        <v>359.9931387493593</v>
       </c>
       <c r="F10">
-        <v>9.966793313017281</v>
+        <v>9.966793384481189</v>
       </c>
       <c r="G10">
-        <v>5.642954890843455</v>
+        <v>157.2072630756345</v>
       </c>
       <c r="H10">
-        <v>-13.42882415361335</v>
+        <v>14.56627124726035</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>24</v>
       </c>
       <c r="V10">
-        <v>0.004360200000519399</v>
+        <v>0.004220300000000066</v>
       </c>
       <c r="W10">
         <v>23</v>
@@ -1206,16 +1206,16 @@
         <v>9.022495105784865</v>
       </c>
       <c r="E11">
-        <v>-0.001961111462774457</v>
+        <v>359.988845567259</v>
       </c>
       <c r="F11">
-        <v>10.07343099928106</v>
+        <v>10.0734311901772</v>
       </c>
       <c r="G11">
-        <v>0.2975952740932762</v>
+        <v>1.904301240623661</v>
       </c>
       <c r="H11">
-        <v>8.950618693118713</v>
+        <v>8.95556463528508</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>24</v>
       </c>
       <c r="V11">
-        <v>0.001401599999553582</v>
+        <v>0.001401500000000055</v>
       </c>
       <c r="W11">
         <v>7</v>

--- a/tests/tests8/ЛМ 0.3.xlsx
+++ b/tests/tests8/ЛМ 0.3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>П0_ист</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>Дтек_ист</t>
+  </si>
+  <si>
+    <t>Птек_расч</t>
+  </si>
+  <si>
+    <t>Дтек_расч</t>
   </si>
   <si>
     <t>СКО X</t>
@@ -446,13 +452,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,8 +531,14 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:26">
       <c r="A2">
         <v>0</v>
       </c>
@@ -564,43 +576,49 @@
         <v>7</v>
       </c>
       <c r="M2">
-        <v>0.3392696413876129</v>
+        <v>70.56128143157282</v>
       </c>
       <c r="N2">
         <v>15.80711097780685</v>
       </c>
       <c r="O2">
+        <v>70.62839304825181</v>
+      </c>
+      <c r="P2">
+        <v>15.9771765266163</v>
+      </c>
+      <c r="Q2">
         <v>0.008610779675959144</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>0.123533753307402</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>0.1955633068879516</v>
       </c>
-      <c r="R2">
+      <c r="T2">
         <v>0.04649141208055429</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>0.08991100466108479</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>0.06888695352697982</v>
       </c>
-      <c r="U2" t="s">
-        <v>24</v>
-      </c>
-      <c r="V2">
-        <v>0.003604099999999999</v>
-      </c>
-      <c r="W2">
+      <c r="W2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X2">
+        <v>0.003625299999981735</v>
+      </c>
+      <c r="Y2">
         <v>19</v>
       </c>
-      <c r="X2">
+      <c r="Z2">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:26">
       <c r="A3">
         <v>0</v>
       </c>
@@ -638,43 +656,49 @@
         <v>7</v>
       </c>
       <c r="M3">
-        <v>0.6427012887259322</v>
+        <v>53.17592866838513</v>
       </c>
       <c r="N3">
         <v>18.32782196423818</v>
       </c>
       <c r="O3">
+        <v>53.12002430854515</v>
+      </c>
+      <c r="P3">
+        <v>18.08618292395778</v>
+      </c>
+      <c r="Q3">
         <v>0.008353084768425383</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>0.09240950368905469</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>0.1481771041410915</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>0.03440585666339423</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>0.08946919843009489</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>0.07572241923644635</v>
       </c>
-      <c r="U3" t="s">
-        <v>24</v>
-      </c>
-      <c r="V3">
-        <v>0.002394600000000136</v>
-      </c>
-      <c r="W3">
+      <c r="W3" t="s">
+        <v>26</v>
+      </c>
+      <c r="X3">
+        <v>0.003060000000004948</v>
+      </c>
+      <c r="Y3">
         <v>12</v>
       </c>
-      <c r="X3">
+      <c r="Z3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:26">
       <c r="A4">
         <v>0</v>
       </c>
@@ -712,43 +736,49 @@
         <v>7</v>
       </c>
       <c r="M4">
-        <v>1.016342879682239</v>
+        <v>31.7678424560353</v>
       </c>
       <c r="N4">
         <v>9.618122158119826</v>
       </c>
       <c r="O4">
+        <v>31.80759915450683</v>
+      </c>
+      <c r="P4">
+        <v>9.564624835740831</v>
+      </c>
+      <c r="Q4">
         <v>0.006880989027609184</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>0.04248765662860834</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>0.03945393573501611</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>0.03891555935748628</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>0.0949310697587166</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>0.06977355975659452</v>
       </c>
-      <c r="U4" t="s">
-        <v>24</v>
-      </c>
-      <c r="V4">
-        <v>0.001970000000000027</v>
-      </c>
-      <c r="W4">
+      <c r="W4" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4">
+        <v>0.002744699999993827</v>
+      </c>
+      <c r="Y4">
         <v>8</v>
       </c>
-      <c r="X4">
+      <c r="Z4">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:26">
       <c r="A5">
         <v>0</v>
       </c>
@@ -786,43 +816,49 @@
         <v>7</v>
       </c>
       <c r="M5">
-        <v>0.3375023832549029</v>
+        <v>70.66253786388728</v>
       </c>
       <c r="N5">
         <v>15.67687823027242</v>
       </c>
       <c r="O5">
+        <v>70.65478023103496</v>
+      </c>
+      <c r="P5">
+        <v>15.53050753219797</v>
+      </c>
+      <c r="Q5">
         <v>0.008300675737371012</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>0.1192134015166433</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>0.186975442356576</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <v>0.0456227025102301</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>0.09412411742042734</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>0.04624604811843225</v>
       </c>
-      <c r="U5" t="s">
-        <v>24</v>
-      </c>
-      <c r="V5">
-        <v>0.004277100000000367</v>
-      </c>
-      <c r="W5">
+      <c r="W5" t="s">
+        <v>26</v>
+      </c>
+      <c r="X5">
+        <v>0.003748000000001639</v>
+      </c>
+      <c r="Y5">
         <v>19</v>
       </c>
-      <c r="X5">
+      <c r="Z5">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:26">
       <c r="A6">
         <v>0</v>
       </c>
@@ -860,43 +896,49 @@
         <v>7</v>
       </c>
       <c r="M6">
-        <v>-1.042039640464102</v>
+        <v>149.7044734839228</v>
       </c>
       <c r="N6">
         <v>4.673171010711503</v>
       </c>
       <c r="O6">
+        <v>149.6346471584997</v>
+      </c>
+      <c r="P6">
+        <v>4.69931167520316</v>
+      </c>
+      <c r="Q6">
         <v>0.003104325447639314</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>0.03681074161724539</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>0.01166720295917749</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <v>0.04490939285279592</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>0.08451601943484413</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>0.04369702732590014</v>
       </c>
-      <c r="U6" t="s">
+      <c r="W6" t="s">
+        <v>26</v>
+      </c>
+      <c r="X6">
+        <v>0.004961699999995517</v>
+      </c>
+      <c r="Y6">
         <v>24</v>
       </c>
-      <c r="V6">
-        <v>0.004510999999999932</v>
-      </c>
-      <c r="W6">
-        <v>24</v>
-      </c>
-      <c r="X6">
+      <c r="Z6">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:26">
       <c r="A7">
         <v>0</v>
       </c>
@@ -934,43 +976,49 @@
         <v>7</v>
       </c>
       <c r="M7">
-        <v>1.04226575396884</v>
+        <v>30.28257116656484</v>
       </c>
       <c r="N7">
         <v>22.87529985576693</v>
       </c>
       <c r="O7">
+        <v>30.30996689597196</v>
+      </c>
+      <c r="P7">
+        <v>23.06991303361145</v>
+      </c>
+      <c r="Q7">
         <v>0.008863049198847551</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>0.08579405273451038</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>0.1106509212984269</v>
       </c>
-      <c r="R7">
+      <c r="T7">
         <v>0.1102865455273648</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>0.08636723013677074</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>0.04735080504031875</v>
       </c>
-      <c r="U7" t="s">
-        <v>24</v>
-      </c>
-      <c r="V7">
-        <v>0.001850899999999989</v>
-      </c>
-      <c r="W7">
+      <c r="W7" t="s">
+        <v>26</v>
+      </c>
+      <c r="X7">
+        <v>0.001798399999984213</v>
+      </c>
+      <c r="Y7">
         <v>9</v>
       </c>
-      <c r="X7">
+      <c r="Z7">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:26">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1008,43 +1056,49 @@
         <v>7</v>
       </c>
       <c r="M8">
-        <v>-0.1329274218000709</v>
+        <v>97.61618025069936</v>
       </c>
       <c r="N8">
         <v>3.973338297383755</v>
       </c>
       <c r="O8">
+        <v>97.59388314318247</v>
+      </c>
+      <c r="P8">
+        <v>4.092448445623718</v>
+      </c>
+      <c r="Q8">
         <v>0.008077015557201172</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>0.1243206576148433</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>0.07649873008277057</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <v>0.1117964951156491</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>0.08347235721500505</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>0.1312347761633799</v>
       </c>
-      <c r="U8" t="s">
-        <v>24</v>
-      </c>
-      <c r="V8">
-        <v>0.005051600000000267</v>
-      </c>
-      <c r="W8">
+      <c r="W8" t="s">
+        <v>26</v>
+      </c>
+      <c r="X8">
+        <v>0.005377600000002758</v>
+      </c>
+      <c r="Y8">
         <v>27</v>
       </c>
-      <c r="X8">
+      <c r="Z8">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:26">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1082,43 +1136,49 @@
         <v>7</v>
       </c>
       <c r="M9">
-        <v>1.35871477809105</v>
+        <v>12.15137765332865</v>
       </c>
       <c r="N9">
         <v>22.28974380606835</v>
       </c>
       <c r="O9">
+        <v>12.10755908925873</v>
+      </c>
+      <c r="P9">
+        <v>21.92529963720078</v>
+      </c>
+      <c r="Q9">
         <v>0.007993110621003273</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <v>0.093143481365163</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>0.04793578002851309</v>
       </c>
-      <c r="R9">
+      <c r="T9">
         <v>0.1626498917300425</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>0.08542279930119398</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>0.08482492764406348</v>
       </c>
-      <c r="U9" t="s">
-        <v>24</v>
-      </c>
-      <c r="V9">
-        <v>0.002185499999999951</v>
-      </c>
-      <c r="W9">
+      <c r="W9" t="s">
+        <v>26</v>
+      </c>
+      <c r="X9">
+        <v>0.001656200000013541</v>
+      </c>
+      <c r="Y9">
         <v>8</v>
       </c>
-      <c r="X9">
+      <c r="Z9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:26">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1156,43 +1216,49 @@
         <v>7</v>
       </c>
       <c r="M10">
-        <v>-0.8348238211053474</v>
+        <v>137.8318815863209</v>
       </c>
       <c r="N10">
         <v>11.86534188679525</v>
       </c>
       <c r="O10">
+        <v>137.8217018949612</v>
+      </c>
+      <c r="P10">
+        <v>11.82653270271912</v>
+      </c>
+      <c r="Q10">
         <v>0.003884257721875727</v>
       </c>
-      <c r="P10">
+      <c r="R10">
         <v>0.05120687287295991</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>0.04278688216800515</v>
       </c>
-      <c r="R10">
+      <c r="T10">
         <v>0.08226548561972791</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>0.09848228561505144</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>0.01785833950897671</v>
       </c>
-      <c r="U10" t="s">
-        <v>24</v>
-      </c>
-      <c r="V10">
-        <v>0.004220300000000066</v>
-      </c>
-      <c r="W10">
+      <c r="W10" t="s">
+        <v>26</v>
+      </c>
+      <c r="X10">
+        <v>0.004184299999991481</v>
+      </c>
+      <c r="Y10">
         <v>23</v>
       </c>
-      <c r="X10">
+      <c r="Z10">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:26">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1230,39 +1296,45 @@
         <v>7</v>
       </c>
       <c r="M11">
-        <v>1.487317718644038</v>
+        <v>4.782971926670573</v>
       </c>
       <c r="N11">
         <v>18.26849864379155</v>
       </c>
       <c r="O11">
+        <v>4.792166568826592</v>
+      </c>
+      <c r="P11">
+        <v>18.26164837529596</v>
+      </c>
+      <c r="Q11">
         <v>0.006435478200159691</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>0.1293649981787719</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>0.02393859897265657</v>
       </c>
-      <c r="R11">
+      <c r="T11">
         <v>0.2097803662010873</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>0.09423448751949749</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <v>0.02239290472535272</v>
       </c>
-      <c r="U11" t="s">
-        <v>24</v>
-      </c>
-      <c r="V11">
-        <v>0.001401500000000055</v>
-      </c>
-      <c r="W11">
+      <c r="W11" t="s">
+        <v>26</v>
+      </c>
+      <c r="X11">
+        <v>0.001604600000007395</v>
+      </c>
+      <c r="Y11">
         <v>7</v>
       </c>
-      <c r="X11">
+      <c r="Z11">
         <v>6</v>
       </c>
     </row>

--- a/tests/tests8/ЛМ 0.3.xlsx
+++ b/tests/tests8/ЛМ 0.3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="27">
   <si>
     <t>П0_ист</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,7 +609,7 @@
         <v>26</v>
       </c>
       <c r="X2">
-        <v>0.003625299999981735</v>
+        <v>0.003917900000004693</v>
       </c>
       <c r="Y2">
         <v>19</v>
@@ -689,7 +689,7 @@
         <v>26</v>
       </c>
       <c r="X3">
-        <v>0.003060000000004948</v>
+        <v>0.002578499999998485</v>
       </c>
       <c r="Y3">
         <v>12</v>
@@ -769,7 +769,7 @@
         <v>26</v>
       </c>
       <c r="X4">
-        <v>0.002744699999993827</v>
+        <v>0.001733999999999014</v>
       </c>
       <c r="Y4">
         <v>8</v>
@@ -849,7 +849,7 @@
         <v>26</v>
       </c>
       <c r="X5">
-        <v>0.003748000000001639</v>
+        <v>0.003699900000015077</v>
       </c>
       <c r="Y5">
         <v>19</v>
@@ -929,7 +929,7 @@
         <v>26</v>
       </c>
       <c r="X6">
-        <v>0.004961699999995517</v>
+        <v>0.005205200000006016</v>
       </c>
       <c r="Y6">
         <v>24</v>
@@ -1009,7 +1009,7 @@
         <v>26</v>
       </c>
       <c r="X7">
-        <v>0.001798399999984213</v>
+        <v>0.001909500000010667</v>
       </c>
       <c r="Y7">
         <v>9</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="X8">
-        <v>0.005377600000002758</v>
+        <v>0.005476599999980181</v>
       </c>
       <c r="Y8">
         <v>27</v>
@@ -1169,7 +1169,7 @@
         <v>26</v>
       </c>
       <c r="X9">
-        <v>0.001656200000013541</v>
+        <v>0.00168049999999198</v>
       </c>
       <c r="Y9">
         <v>8</v>
@@ -1249,7 +1249,7 @@
         <v>26</v>
       </c>
       <c r="X10">
-        <v>0.004184299999991481</v>
+        <v>0.00420880000001489</v>
       </c>
       <c r="Y10">
         <v>23</v>
@@ -1329,13 +1329,7213 @@
         <v>26</v>
       </c>
       <c r="X11">
-        <v>0.001604600000007395</v>
+        <v>0.001791400000001886</v>
       </c>
       <c r="Y11">
         <v>7</v>
       </c>
       <c r="Z11">
         <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>138.8377157880143</v>
+      </c>
+      <c r="D12">
+        <v>3.249023392312818</v>
+      </c>
+      <c r="E12">
+        <v>359.9808351024584</v>
+      </c>
+      <c r="F12">
+        <v>9.999013384039397</v>
+      </c>
+      <c r="G12">
+        <v>138.8457886681542</v>
+      </c>
+      <c r="H12">
+        <v>3.252464656810786</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>25</v>
+      </c>
+      <c r="K12">
+        <v>90</v>
+      </c>
+      <c r="L12">
+        <v>7</v>
+      </c>
+      <c r="M12">
+        <v>40.03006317522596</v>
+      </c>
+      <c r="N12">
+        <v>5.809547132347129</v>
+      </c>
+      <c r="O12">
+        <v>40.05049808707521</v>
+      </c>
+      <c r="P12">
+        <v>5.805464686361285</v>
+      </c>
+      <c r="Q12">
+        <v>0.0062790125709031</v>
+      </c>
+      <c r="R12">
+        <v>0.03320662980337338</v>
+      </c>
+      <c r="S12">
+        <v>0.03040545626698727</v>
+      </c>
+      <c r="T12">
+        <v>0.02211843882091269</v>
+      </c>
+      <c r="U12">
+        <v>0.08007899532901791</v>
+      </c>
+      <c r="V12">
+        <v>0.009129661007921189</v>
+      </c>
+      <c r="W12" t="s">
+        <v>26</v>
+      </c>
+      <c r="X12">
+        <v>0.002702700000014602</v>
+      </c>
+      <c r="Y12">
+        <v>14</v>
+      </c>
+      <c r="Z12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>32.44854399781845</v>
+      </c>
+      <c r="D13">
+        <v>3.233702897851495</v>
+      </c>
+      <c r="E13">
+        <v>0.01663710702885447</v>
+      </c>
+      <c r="F13">
+        <v>9.905355678595429</v>
+      </c>
+      <c r="G13">
+        <v>31.88916068469486</v>
+      </c>
+      <c r="H13">
+        <v>3.199184560372009</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>25</v>
+      </c>
+      <c r="K13">
+        <v>90</v>
+      </c>
+      <c r="L13">
+        <v>7</v>
+      </c>
+      <c r="M13">
+        <v>16.97012183948808</v>
+      </c>
+      <c r="N13">
+        <v>11.14346017967418</v>
+      </c>
+      <c r="O13">
+        <v>16.88254988623577</v>
+      </c>
+      <c r="P13">
+        <v>11.02369543686494</v>
+      </c>
+      <c r="Q13">
+        <v>0.006530427349805665</v>
+      </c>
+      <c r="R13">
+        <v>0.04900268414412776</v>
+      </c>
+      <c r="S13">
+        <v>0.02829034281183384</v>
+      </c>
+      <c r="T13">
+        <v>0.07288783481100135</v>
+      </c>
+      <c r="U13">
+        <v>0.08663278156327681</v>
+      </c>
+      <c r="V13">
+        <v>0.08047651763105054</v>
+      </c>
+      <c r="W13" t="s">
+        <v>26</v>
+      </c>
+      <c r="X13">
+        <v>0.001689099999993005</v>
+      </c>
+      <c r="Y13">
+        <v>8</v>
+      </c>
+      <c r="Z13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>27.74931162834103</v>
+      </c>
+      <c r="D14">
+        <v>11.88059635818486</v>
+      </c>
+      <c r="E14">
+        <v>0.0182124851496385</v>
+      </c>
+      <c r="F14">
+        <v>10.06673733428885</v>
+      </c>
+      <c r="G14">
+        <v>27.78376603683367</v>
+      </c>
+      <c r="H14">
+        <v>12.0637056711235</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>25</v>
+      </c>
+      <c r="K14">
+        <v>90</v>
+      </c>
+      <c r="L14">
+        <v>7</v>
+      </c>
+      <c r="M14">
+        <v>21.32604566380087</v>
+      </c>
+      <c r="N14">
+        <v>21.47093508922593</v>
+      </c>
+      <c r="O14">
+        <v>21.35750333468563</v>
+      </c>
+      <c r="P14">
+        <v>21.75164452004715</v>
+      </c>
+      <c r="Q14">
+        <v>0.008526458025628665</v>
+      </c>
+      <c r="R14">
+        <v>0.07988898933967169</v>
+      </c>
+      <c r="S14">
+        <v>0.07376684730430993</v>
+      </c>
+      <c r="T14">
+        <v>0.1220648605707002</v>
+      </c>
+      <c r="U14">
+        <v>0.09065201232226469</v>
+      </c>
+      <c r="V14">
+        <v>0.06904682607894078</v>
+      </c>
+      <c r="W14" t="s">
+        <v>26</v>
+      </c>
+      <c r="X14">
+        <v>0.002021199999973078</v>
+      </c>
+      <c r="Y14">
+        <v>8</v>
+      </c>
+      <c r="Z14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>139.9864339032876</v>
+      </c>
+      <c r="D15">
+        <v>5.850494640418948</v>
+      </c>
+      <c r="E15">
+        <v>359.9975872068194</v>
+      </c>
+      <c r="F15">
+        <v>10.03225981908293</v>
+      </c>
+      <c r="G15">
+        <v>139.9223346334124</v>
+      </c>
+      <c r="H15">
+        <v>5.883474171047862</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>25</v>
+      </c>
+      <c r="K15">
+        <v>90</v>
+      </c>
+      <c r="L15">
+        <v>7</v>
+      </c>
+      <c r="M15">
+        <v>70.55697937574554</v>
+      </c>
+      <c r="N15">
+        <v>6.028251123835125</v>
+      </c>
+      <c r="O15">
+        <v>70.5920760327157</v>
+      </c>
+      <c r="P15">
+        <v>6.059890778467812</v>
+      </c>
+      <c r="Q15">
+        <v>0.007170405881355056</v>
+      </c>
+      <c r="R15">
+        <v>0.06783378250011936</v>
+      </c>
+      <c r="S15">
+        <v>0.06055134320151914</v>
+      </c>
+      <c r="T15">
+        <v>0.04052099104082738</v>
+      </c>
+      <c r="U15">
+        <v>0.0789421765996331</v>
+      </c>
+      <c r="V15">
+        <v>0.03321687558721659</v>
+      </c>
+      <c r="W15" t="s">
+        <v>26</v>
+      </c>
+      <c r="X15">
+        <v>0.004002700000000914</v>
+      </c>
+      <c r="Y15">
+        <v>21</v>
+      </c>
+      <c r="Z15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>92.50980187908425</v>
+      </c>
+      <c r="D16">
+        <v>12.27798062495156</v>
+      </c>
+      <c r="E16">
+        <v>0.05358107435818425</v>
+      </c>
+      <c r="F16">
+        <v>9.933485345469084</v>
+      </c>
+      <c r="G16">
+        <v>92.40998089027036</v>
+      </c>
+      <c r="H16">
+        <v>12.187646102315</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>25</v>
+      </c>
+      <c r="K16">
+        <v>90</v>
+      </c>
+      <c r="L16">
+        <v>7</v>
+      </c>
+      <c r="M16">
+        <v>67.01959217131787</v>
+      </c>
+      <c r="N16">
+        <v>17.25965100693092</v>
+      </c>
+      <c r="O16">
+        <v>67.00358128225919</v>
+      </c>
+      <c r="P16">
+        <v>17.15532977362481</v>
+      </c>
+      <c r="Q16">
+        <v>0.008422077230881305</v>
+      </c>
+      <c r="R16">
+        <v>0.1177341554102874</v>
+      </c>
+      <c r="S16">
+        <v>0.1969271239624965</v>
+      </c>
+      <c r="T16">
+        <v>0.03127103274857802</v>
+      </c>
+      <c r="U16">
+        <v>0.09342180017889848</v>
+      </c>
+      <c r="V16">
+        <v>0.03496556060673177</v>
+      </c>
+      <c r="W16" t="s">
+        <v>26</v>
+      </c>
+      <c r="X16">
+        <v>0.003541899999987663</v>
+      </c>
+      <c r="Y16">
+        <v>19</v>
+      </c>
+      <c r="Z16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>152.7871855083442</v>
+      </c>
+      <c r="D17">
+        <v>5.146751099051982</v>
+      </c>
+      <c r="E17">
+        <v>0.01467334885969107</v>
+      </c>
+      <c r="F17">
+        <v>9.98577409867346</v>
+      </c>
+      <c r="G17">
+        <v>152.8482538561625</v>
+      </c>
+      <c r="H17">
+        <v>5.134688465666716</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>25</v>
+      </c>
+      <c r="K17">
+        <v>90</v>
+      </c>
+      <c r="L17">
+        <v>7</v>
+      </c>
+      <c r="M17">
+        <v>64.66687573308144</v>
+      </c>
+      <c r="N17">
+        <v>4.419793767587765</v>
+      </c>
+      <c r="O17">
+        <v>64.66293750991348</v>
+      </c>
+      <c r="P17">
+        <v>4.40897935751468</v>
+      </c>
+      <c r="Q17">
+        <v>0.00667822112442258</v>
+      </c>
+      <c r="R17">
+        <v>0.05011529105991597</v>
+      </c>
+      <c r="S17">
+        <v>0.04121609557607647</v>
+      </c>
+      <c r="T17">
+        <v>0.02800769330884179</v>
+      </c>
+      <c r="U17">
+        <v>0.09014921465490285</v>
+      </c>
+      <c r="V17">
+        <v>0.01244863028417016</v>
+      </c>
+      <c r="W17" t="s">
+        <v>26</v>
+      </c>
+      <c r="X17">
+        <v>0.004002200000002176</v>
+      </c>
+      <c r="Y17">
+        <v>21</v>
+      </c>
+      <c r="Z17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>40.19239424763699</v>
+      </c>
+      <c r="D18">
+        <v>9.277960096808114</v>
+      </c>
+      <c r="E18">
+        <v>0.0292681979108083</v>
+      </c>
+      <c r="F18">
+        <v>9.879019782847042</v>
+      </c>
+      <c r="G18">
+        <v>40.09270919345325</v>
+      </c>
+      <c r="H18">
+        <v>9.06740529120694</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>25</v>
+      </c>
+      <c r="K18">
+        <v>90</v>
+      </c>
+      <c r="L18">
+        <v>7</v>
+      </c>
+      <c r="M18">
+        <v>27.73953336539376</v>
+      </c>
+      <c r="N18">
+        <v>17.9514684390679</v>
+      </c>
+      <c r="O18">
+        <v>27.69984140376479</v>
+      </c>
+      <c r="P18">
+        <v>17.60408875066199</v>
+      </c>
+      <c r="Q18">
+        <v>0.008003562782443036</v>
+      </c>
+      <c r="R18">
+        <v>0.06582612857262909</v>
+      </c>
+      <c r="S18">
+        <v>0.06976316038496251</v>
+      </c>
+      <c r="T18">
+        <v>0.07948117169361563</v>
+      </c>
+      <c r="U18">
+        <v>0.0766026649956275</v>
+      </c>
+      <c r="V18">
+        <v>0.1014020697552453</v>
+      </c>
+      <c r="W18" t="s">
+        <v>26</v>
+      </c>
+      <c r="X18">
+        <v>0.001660300000025927</v>
+      </c>
+      <c r="Y18">
+        <v>8</v>
+      </c>
+      <c r="Z18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>53.03970048367974</v>
+      </c>
+      <c r="D19">
+        <v>9.367041067263528</v>
+      </c>
+      <c r="E19">
+        <v>359.9504826977136</v>
+      </c>
+      <c r="F19">
+        <v>9.958853720281191</v>
+      </c>
+      <c r="G19">
+        <v>52.84273890849358</v>
+      </c>
+      <c r="H19">
+        <v>9.399083765641654</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>25</v>
+      </c>
+      <c r="K19">
+        <v>90</v>
+      </c>
+      <c r="L19">
+        <v>7</v>
+      </c>
+      <c r="M19">
+        <v>35.67338189562808</v>
+      </c>
+      <c r="N19">
+        <v>17.4087621630154</v>
+      </c>
+      <c r="O19">
+        <v>35.64528168438728</v>
+      </c>
+      <c r="P19">
+        <v>17.41852437621082</v>
+      </c>
+      <c r="Q19">
+        <v>0.008168096656482784</v>
+      </c>
+      <c r="R19">
+        <v>0.07021698591340179</v>
+      </c>
+      <c r="S19">
+        <v>0.08800333951099736</v>
+      </c>
+      <c r="T19">
+        <v>0.06331085927829146</v>
+      </c>
+      <c r="U19">
+        <v>0.09277367628037278</v>
+      </c>
+      <c r="V19">
+        <v>0.02143567923445235</v>
+      </c>
+      <c r="W19" t="s">
+        <v>26</v>
+      </c>
+      <c r="X19">
+        <v>0.002017300000005662</v>
+      </c>
+      <c r="Y19">
+        <v>9</v>
+      </c>
+      <c r="Z19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>117.0673635131265</v>
+      </c>
+      <c r="D20">
+        <v>9.065440484818115</v>
+      </c>
+      <c r="E20">
+        <v>359.902631505705</v>
+      </c>
+      <c r="F20">
+        <v>10.1309634950975</v>
+      </c>
+      <c r="G20">
+        <v>116.9842515894162</v>
+      </c>
+      <c r="H20">
+        <v>9.267817812231169</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>25</v>
+      </c>
+      <c r="K20">
+        <v>90</v>
+      </c>
+      <c r="L20">
+        <v>7</v>
+      </c>
+      <c r="M20">
+        <v>77.36702495454749</v>
+      </c>
+      <c r="N20">
+        <v>11.12685015605182</v>
+      </c>
+      <c r="O20">
+        <v>77.42345164590519</v>
+      </c>
+      <c r="P20">
+        <v>11.33584089342176</v>
+      </c>
+      <c r="Q20">
+        <v>0.008311616880752442</v>
+      </c>
+      <c r="R20">
+        <v>0.116615198147886</v>
+      </c>
+      <c r="S20">
+        <v>0.1444021943406104</v>
+      </c>
+      <c r="T20">
+        <v>0.07170778525699409</v>
+      </c>
+      <c r="U20">
+        <v>0.09202917733597504</v>
+      </c>
+      <c r="V20">
+        <v>0.1032988582964311</v>
+      </c>
+      <c r="W20" t="s">
+        <v>26</v>
+      </c>
+      <c r="X20">
+        <v>0.004208599999998341</v>
+      </c>
+      <c r="Y20">
+        <v>22</v>
+      </c>
+      <c r="Z20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>17.55604831490129</v>
+      </c>
+      <c r="D21">
+        <v>12.13499660009828</v>
+      </c>
+      <c r="E21">
+        <v>359.9975372325037</v>
+      </c>
+      <c r="F21">
+        <v>9.950351500943393</v>
+      </c>
+      <c r="G21">
+        <v>17.49923731601013</v>
+      </c>
+      <c r="H21">
+        <v>12.19979349681614</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>25</v>
+      </c>
+      <c r="K21">
+        <v>90</v>
+      </c>
+      <c r="L21">
+        <v>7</v>
+      </c>
+      <c r="M21">
+        <v>14.65846372863805</v>
+      </c>
+      <c r="N21">
+        <v>21.98288036784542</v>
+      </c>
+      <c r="O21">
+        <v>14.66258412924655</v>
+      </c>
+      <c r="P21">
+        <v>22.01312313720266</v>
+      </c>
+      <c r="Q21">
+        <v>0.008203623028907465</v>
+      </c>
+      <c r="R21">
+        <v>0.08684410510200978</v>
+      </c>
+      <c r="S21">
+        <v>0.05531397406173397</v>
+      </c>
+      <c r="T21">
+        <v>0.1487090236600404</v>
+      </c>
+      <c r="U21">
+        <v>0.08681913481114292</v>
+      </c>
+      <c r="V21">
+        <v>0.01809245727359023</v>
+      </c>
+      <c r="W21" t="s">
+        <v>26</v>
+      </c>
+      <c r="X21">
+        <v>0.001812099999995098</v>
+      </c>
+      <c r="Y21">
+        <v>8</v>
+      </c>
+      <c r="Z21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>105.8635441939094</v>
+      </c>
+      <c r="D22">
+        <v>13.77256473491301</v>
+      </c>
+      <c r="E22">
+        <v>0.0444710663296838</v>
+      </c>
+      <c r="F22">
+        <v>9.863211546797942</v>
+      </c>
+      <c r="G22">
+        <v>105.8360112453758</v>
+      </c>
+      <c r="H22">
+        <v>13.50904947245343</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>25</v>
+      </c>
+      <c r="K22">
+        <v>90</v>
+      </c>
+      <c r="L22">
+        <v>7</v>
+      </c>
+      <c r="M22">
+        <v>80.46804950751098</v>
+      </c>
+      <c r="N22">
+        <v>17.3070565800005</v>
+      </c>
+      <c r="O22">
+        <v>80.44621474096785</v>
+      </c>
+      <c r="P22">
+        <v>17.00963260623424</v>
+      </c>
+      <c r="Q22">
+        <v>0.008640087006768321</v>
+      </c>
+      <c r="R22">
+        <v>0.1569755094138851</v>
+      </c>
+      <c r="S22">
+        <v>0.2701706875742927</v>
+      </c>
+      <c r="T22">
+        <v>0.09364514641143566</v>
+      </c>
+      <c r="U22">
+        <v>0.08489313320305004</v>
+      </c>
+      <c r="V22">
+        <v>0.08262226241417078</v>
+      </c>
+      <c r="W22" t="s">
+        <v>26</v>
+      </c>
+      <c r="X22">
+        <v>0.004632799999995996</v>
+      </c>
+      <c r="Y22">
+        <v>22</v>
+      </c>
+      <c r="Z22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>8.770478545642913</v>
+      </c>
+      <c r="D23">
+        <v>6.469315917477802</v>
+      </c>
+      <c r="E23">
+        <v>359.9546662722298</v>
+      </c>
+      <c r="F23">
+        <v>10.08195204224651</v>
+      </c>
+      <c r="G23">
+        <v>9.1184057825783</v>
+      </c>
+      <c r="H23">
+        <v>6.612029575750994</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>25</v>
+      </c>
+      <c r="K23">
+        <v>90</v>
+      </c>
+      <c r="L23">
+        <v>7</v>
+      </c>
+      <c r="M23">
+        <v>8.886792062587165</v>
+      </c>
+      <c r="N23">
+        <v>15.23897862130467</v>
+      </c>
+      <c r="O23">
+        <v>8.987745952121031</v>
+      </c>
+      <c r="P23">
+        <v>15.48994303615158</v>
+      </c>
+      <c r="Q23">
+        <v>0.006733203505142517</v>
+      </c>
+      <c r="R23">
+        <v>0.08407996801112551</v>
+      </c>
+      <c r="S23">
+        <v>0.02755972107262121</v>
+      </c>
+      <c r="T23">
+        <v>0.1377234770814408</v>
+      </c>
+      <c r="U23">
+        <v>0.0911752697349863</v>
+      </c>
+      <c r="V23">
+        <v>0.1165345071924043</v>
+      </c>
+      <c r="W23" t="s">
+        <v>26</v>
+      </c>
+      <c r="X23">
+        <v>0.001581699999974262</v>
+      </c>
+      <c r="Y23">
+        <v>7</v>
+      </c>
+      <c r="Z23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>37.52289672459167</v>
+      </c>
+      <c r="D24">
+        <v>8.78017274116039</v>
+      </c>
+      <c r="E24">
+        <v>0.01042140214472588</v>
+      </c>
+      <c r="F24">
+        <v>10.10913260371205</v>
+      </c>
+      <c r="G24">
+        <v>37.89409821732567</v>
+      </c>
+      <c r="H24">
+        <v>8.751401485190199</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>25</v>
+      </c>
+      <c r="K24">
+        <v>90</v>
+      </c>
+      <c r="L24">
+        <v>7</v>
+      </c>
+      <c r="M24">
+        <v>25.73745290239647</v>
+      </c>
+      <c r="N24">
+        <v>17.47349577797121</v>
+      </c>
+      <c r="O24">
+        <v>25.78247754252954</v>
+      </c>
+      <c r="P24">
+        <v>17.52469568660265</v>
+      </c>
+      <c r="Q24">
+        <v>0.008097720120627492</v>
+      </c>
+      <c r="R24">
+        <v>0.06672457085681695</v>
+      </c>
+      <c r="S24">
+        <v>0.06578831220973198</v>
+      </c>
+      <c r="T24">
+        <v>0.08368004802731262</v>
+      </c>
+      <c r="U24">
+        <v>0.09923272651559134</v>
+      </c>
+      <c r="V24">
+        <v>0.03361188532412507</v>
+      </c>
+      <c r="W24" t="s">
+        <v>26</v>
+      </c>
+      <c r="X24">
+        <v>0.001710800000012114</v>
+      </c>
+      <c r="Y24">
+        <v>8</v>
+      </c>
+      <c r="Z24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>93.11361909238606</v>
+      </c>
+      <c r="D25">
+        <v>14.36355124577777</v>
+      </c>
+      <c r="E25">
+        <v>359.9907080719605</v>
+      </c>
+      <c r="F25">
+        <v>9.94620674974192</v>
+      </c>
+      <c r="G25">
+        <v>93.12352663396985</v>
+      </c>
+      <c r="H25">
+        <v>14.27348765511536</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>25</v>
+      </c>
+      <c r="K25">
+        <v>90</v>
+      </c>
+      <c r="L25">
+        <v>7</v>
+      </c>
+      <c r="M25">
+        <v>70.67112797219256</v>
+      </c>
+      <c r="N25">
+        <v>19.47923218856673</v>
+      </c>
+      <c r="O25">
+        <v>70.70577376124767</v>
+      </c>
+      <c r="P25">
+        <v>19.35888668471965</v>
+      </c>
+      <c r="Q25">
+        <v>0.008844735556114331</v>
+      </c>
+      <c r="R25">
+        <v>0.1401820950657507</v>
+      </c>
+      <c r="S25">
+        <v>0.2607500133249283</v>
+      </c>
+      <c r="T25">
+        <v>0.04077030441724385</v>
+      </c>
+      <c r="U25">
+        <v>0.08244645662040224</v>
+      </c>
+      <c r="V25">
+        <v>0.03488176052361212</v>
+      </c>
+      <c r="W25" t="s">
+        <v>26</v>
+      </c>
+      <c r="X25">
+        <v>0.004131099999995058</v>
+      </c>
+      <c r="Y25">
+        <v>19</v>
+      </c>
+      <c r="Z25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>172.8031146004653</v>
+      </c>
+      <c r="D26">
+        <v>11.39414459939491</v>
+      </c>
+      <c r="E26">
+        <v>359.9840680216334</v>
+      </c>
+      <c r="F26">
+        <v>9.991053674091662</v>
+      </c>
+      <c r="G26">
+        <v>172.7827961269338</v>
+      </c>
+      <c r="H26">
+        <v>11.38541533927843</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>25</v>
+      </c>
+      <c r="K26">
+        <v>90</v>
+      </c>
+      <c r="L26">
+        <v>7</v>
+      </c>
+      <c r="M26">
+        <v>154.9934456744326</v>
+      </c>
+      <c r="N26">
+        <v>6.82101990562933</v>
+      </c>
+      <c r="O26">
+        <v>154.9806976639313</v>
+      </c>
+      <c r="P26">
+        <v>6.819461673537623</v>
+      </c>
+      <c r="Q26">
+        <v>0.00306820048286946</v>
+      </c>
+      <c r="R26">
+        <v>0.03281597225763039</v>
+      </c>
+      <c r="S26">
+        <v>0.01221468450534177</v>
+      </c>
+      <c r="T26">
+        <v>0.04524902970767673</v>
+      </c>
+      <c r="U26">
+        <v>0.08763830029442878</v>
+      </c>
+      <c r="V26">
+        <v>0.005991002341600925</v>
+      </c>
+      <c r="W26" t="s">
+        <v>26</v>
+      </c>
+      <c r="X26">
+        <v>0.004644900000016605</v>
+      </c>
+      <c r="Y26">
+        <v>26</v>
+      </c>
+      <c r="Z26">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>156.6223445928981</v>
+      </c>
+      <c r="D27">
+        <v>9.987323144070718</v>
+      </c>
+      <c r="E27">
+        <v>0.03406062329087965</v>
+      </c>
+      <c r="F27">
+        <v>9.965009040536268</v>
+      </c>
+      <c r="G27">
+        <v>156.7018122947274</v>
+      </c>
+      <c r="H27">
+        <v>9.934223840002415</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>25</v>
+      </c>
+      <c r="K27">
+        <v>90</v>
+      </c>
+      <c r="L27">
+        <v>7</v>
+      </c>
+      <c r="M27">
+        <v>121.4009088187373</v>
+      </c>
+      <c r="N27">
+        <v>6.942709063967283</v>
+      </c>
+      <c r="O27">
+        <v>121.430224550622</v>
+      </c>
+      <c r="P27">
+        <v>6.904398974212674</v>
+      </c>
+      <c r="Q27">
+        <v>0.004254330213422643</v>
+      </c>
+      <c r="R27">
+        <v>0.08221488296802199</v>
+      </c>
+      <c r="S27">
+        <v>0.05452621227153105</v>
+      </c>
+      <c r="T27">
+        <v>0.09755193245947688</v>
+      </c>
+      <c r="U27">
+        <v>0.09621185304993307</v>
+      </c>
+      <c r="V27">
+        <v>0.03180402095319182</v>
+      </c>
+      <c r="W27" t="s">
+        <v>26</v>
+      </c>
+      <c r="X27">
+        <v>0.00628939999998579</v>
+      </c>
+      <c r="Y27">
+        <v>25</v>
+      </c>
+      <c r="Z27">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>55.42829147249475</v>
+      </c>
+      <c r="D28">
+        <v>9.232697751663608</v>
+      </c>
+      <c r="E28">
+        <v>0.01923758749584967</v>
+      </c>
+      <c r="F28">
+        <v>10.03388123934493</v>
+      </c>
+      <c r="G28">
+        <v>55.60683480841474</v>
+      </c>
+      <c r="H28">
+        <v>9.220846891071808</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>25</v>
+      </c>
+      <c r="K28">
+        <v>90</v>
+      </c>
+      <c r="L28">
+        <v>7</v>
+      </c>
+      <c r="M28">
+        <v>36.9783150738388</v>
+      </c>
+      <c r="N28">
+        <v>17.11232764246076</v>
+      </c>
+      <c r="O28">
+        <v>37.01346913510282</v>
+      </c>
+      <c r="P28">
+        <v>17.11697008678654</v>
+      </c>
+      <c r="Q28">
+        <v>0.008174303392440125</v>
+      </c>
+      <c r="R28">
+        <v>0.07094806484659125</v>
+      </c>
+      <c r="S28">
+        <v>0.08966583449983259</v>
+      </c>
+      <c r="T28">
+        <v>0.05940492499856715</v>
+      </c>
+      <c r="U28">
+        <v>0.08640788081822684</v>
+      </c>
+      <c r="V28">
+        <v>0.01691319035905227</v>
+      </c>
+      <c r="W28" t="s">
+        <v>26</v>
+      </c>
+      <c r="X28">
+        <v>0.001926499999996167</v>
+      </c>
+      <c r="Y28">
+        <v>9</v>
+      </c>
+      <c r="Z28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>76.62985389340125</v>
+      </c>
+      <c r="D29">
+        <v>12.77500488593463</v>
+      </c>
+      <c r="E29">
+        <v>359.9409055055148</v>
+      </c>
+      <c r="F29">
+        <v>9.996834243271916</v>
+      </c>
+      <c r="G29">
+        <v>76.61786389657318</v>
+      </c>
+      <c r="H29">
+        <v>12.80838471214016</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>25</v>
+      </c>
+      <c r="K29">
+        <v>90</v>
+      </c>
+      <c r="L29">
+        <v>7</v>
+      </c>
+      <c r="M29">
+        <v>55.80674075854401</v>
+      </c>
+      <c r="N29">
+        <v>19.44632462639266</v>
+      </c>
+      <c r="O29">
+        <v>55.83045755431221</v>
+      </c>
+      <c r="P29">
+        <v>19.4745982712948</v>
+      </c>
+      <c r="Q29">
+        <v>0.00867001143762337</v>
+      </c>
+      <c r="R29">
+        <v>0.1040776825344172</v>
+      </c>
+      <c r="S29">
+        <v>0.1781460386260278</v>
+      </c>
+      <c r="T29">
+        <v>0.03371984158291584</v>
+      </c>
+      <c r="U29">
+        <v>0.09317253557425843</v>
+      </c>
+      <c r="V29">
+        <v>0.01518442294574283</v>
+      </c>
+      <c r="W29" t="s">
+        <v>26</v>
+      </c>
+      <c r="X29">
+        <v>0.002972900000003165</v>
+      </c>
+      <c r="Y29">
+        <v>13</v>
+      </c>
+      <c r="Z29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>131.2224736120414</v>
+      </c>
+      <c r="D30">
+        <v>9.734875227931694</v>
+      </c>
+      <c r="E30">
+        <v>359.9820651842481</v>
+      </c>
+      <c r="F30">
+        <v>10.05144019188763</v>
+      </c>
+      <c r="G30">
+        <v>131.1896512927459</v>
+      </c>
+      <c r="H30">
+        <v>9.812581399854677</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>25</v>
+      </c>
+      <c r="K30">
+        <v>90</v>
+      </c>
+      <c r="L30">
+        <v>7</v>
+      </c>
+      <c r="M30">
+        <v>91.80924814573706</v>
+      </c>
+      <c r="N30">
+        <v>9.961999912823932</v>
+      </c>
+      <c r="O30">
+        <v>91.82453041376074</v>
+      </c>
+      <c r="P30">
+        <v>10.03355445458794</v>
+      </c>
+      <c r="Q30">
+        <v>0.008222023939620401</v>
+      </c>
+      <c r="R30">
+        <v>0.1506631453363264</v>
+      </c>
+      <c r="S30">
+        <v>0.1657922295284351</v>
+      </c>
+      <c r="T30">
+        <v>0.1329095687686009</v>
+      </c>
+      <c r="U30">
+        <v>0.08623223848146574</v>
+      </c>
+      <c r="V30">
+        <v>0.03656798858451121</v>
+      </c>
+      <c r="W30" t="s">
+        <v>26</v>
+      </c>
+      <c r="X30">
+        <v>0.004702200000025414</v>
+      </c>
+      <c r="Y30">
+        <v>23</v>
+      </c>
+      <c r="Z30">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>155.4767974026149</v>
+      </c>
+      <c r="D31">
+        <v>6.418871582731521</v>
+      </c>
+      <c r="E31">
+        <v>359.9618136842066</v>
+      </c>
+      <c r="F31">
+        <v>10.11496046774032</v>
+      </c>
+      <c r="G31">
+        <v>155.1534121333135</v>
+      </c>
+      <c r="H31">
+        <v>6.533751792417259</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>25</v>
+      </c>
+      <c r="K31">
+        <v>90</v>
+      </c>
+      <c r="L31">
+        <v>7</v>
+      </c>
+      <c r="M31">
+        <v>85.08185965409687</v>
+      </c>
+      <c r="N31">
+        <v>4.383667298314077</v>
+      </c>
+      <c r="O31">
+        <v>85.07911381649315</v>
+      </c>
+      <c r="P31">
+        <v>4.474707260840514</v>
+      </c>
+      <c r="Q31">
+        <v>0.007862868731159565</v>
+      </c>
+      <c r="R31">
+        <v>0.09379238621118867</v>
+      </c>
+      <c r="S31">
+        <v>0.06709092900355577</v>
+      </c>
+      <c r="T31">
+        <v>0.07363410545324343</v>
+      </c>
+      <c r="U31">
+        <v>0.09052018760498577</v>
+      </c>
+      <c r="V31">
+        <v>0.08812755775399164</v>
+      </c>
+      <c r="W31" t="s">
+        <v>26</v>
+      </c>
+      <c r="X31">
+        <v>0.004740300000008801</v>
+      </c>
+      <c r="Y31">
+        <v>23</v>
+      </c>
+      <c r="Z31">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>115.9458364923003</v>
+      </c>
+      <c r="D32">
+        <v>7.568981875621398</v>
+      </c>
+      <c r="E32">
+        <v>0.02175942556600989</v>
+      </c>
+      <c r="F32">
+        <v>9.938324275159673</v>
+      </c>
+      <c r="G32">
+        <v>115.9297514818015</v>
+      </c>
+      <c r="H32">
+        <v>7.497316989102549</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>25</v>
+      </c>
+      <c r="K32">
+        <v>90</v>
+      </c>
+      <c r="L32">
+        <v>7</v>
+      </c>
+      <c r="M32">
+        <v>69.94009040741105</v>
+      </c>
+      <c r="N32">
+        <v>9.94082687493656</v>
+      </c>
+      <c r="O32">
+        <v>69.91457753312348</v>
+      </c>
+      <c r="P32">
+        <v>9.865301872481961</v>
+      </c>
+      <c r="Q32">
+        <v>0.007594600919902385</v>
+      </c>
+      <c r="R32">
+        <v>0.08599667534730523</v>
+      </c>
+      <c r="S32">
+        <v>0.09949900737495095</v>
+      </c>
+      <c r="T32">
+        <v>0.04342464549607124</v>
+      </c>
+      <c r="U32">
+        <v>0.08958934350337106</v>
+      </c>
+      <c r="V32">
+        <v>0.04311335512823918</v>
+      </c>
+      <c r="W32" t="s">
+        <v>26</v>
+      </c>
+      <c r="X32">
+        <v>0.003996199999988903</v>
+      </c>
+      <c r="Y32">
+        <v>21</v>
+      </c>
+      <c r="Z32">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>51.48968789889281</v>
+      </c>
+      <c r="D33">
+        <v>14.497266798228</v>
+      </c>
+      <c r="E33">
+        <v>0.04869750291271311</v>
+      </c>
+      <c r="F33">
+        <v>9.935835125454368</v>
+      </c>
+      <c r="G33">
+        <v>51.31981725840525</v>
+      </c>
+      <c r="H33">
+        <v>14.4243778480443</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>25</v>
+      </c>
+      <c r="K33">
+        <v>90</v>
+      </c>
+      <c r="L33">
+        <v>7</v>
+      </c>
+      <c r="M33">
+        <v>39.0616009844012</v>
+      </c>
+      <c r="N33">
+        <v>23.45979414801152</v>
+      </c>
+      <c r="O33">
+        <v>39.00768721572254</v>
+      </c>
+      <c r="P33">
+        <v>23.34085422495826</v>
+      </c>
+      <c r="Q33">
+        <v>0.008868962332779172</v>
+      </c>
+      <c r="R33">
+        <v>0.09299437522843496</v>
+      </c>
+      <c r="S33">
+        <v>0.1470891287814983</v>
+      </c>
+      <c r="T33">
+        <v>0.09510776921389506</v>
+      </c>
+      <c r="U33">
+        <v>0.09234416455113215</v>
+      </c>
+      <c r="V33">
+        <v>0.03874455023767131</v>
+      </c>
+      <c r="W33" t="s">
+        <v>26</v>
+      </c>
+      <c r="X33">
+        <v>0.001938200000012102</v>
+      </c>
+      <c r="Y33">
+        <v>9</v>
+      </c>
+      <c r="Z33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>154.6000681127472</v>
+      </c>
+      <c r="D34">
+        <v>7.472533859703359</v>
+      </c>
+      <c r="E34">
+        <v>359.9293744771894</v>
+      </c>
+      <c r="F34">
+        <v>10.10384672668806</v>
+      </c>
+      <c r="G34">
+        <v>154.3202238444132</v>
+      </c>
+      <c r="H34">
+        <v>7.594981209155637</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>25</v>
+      </c>
+      <c r="K34">
+        <v>90</v>
+      </c>
+      <c r="L34">
+        <v>7</v>
+      </c>
+      <c r="M34">
+        <v>98.12939238316436</v>
+      </c>
+      <c r="N34">
+        <v>5.067646835573846</v>
+      </c>
+      <c r="O34">
+        <v>98.09356180374679</v>
+      </c>
+      <c r="P34">
+        <v>5.158844550156177</v>
+      </c>
+      <c r="Q34">
+        <v>0.008187379807929798</v>
+      </c>
+      <c r="R34">
+        <v>0.1353709313046412</v>
+      </c>
+      <c r="S34">
+        <v>0.09377519152571127</v>
+      </c>
+      <c r="T34">
+        <v>0.1246218979596016</v>
+      </c>
+      <c r="U34">
+        <v>0.09080278186361623</v>
+      </c>
+      <c r="V34">
+        <v>0.08691300357819604</v>
+      </c>
+      <c r="W34" t="s">
+        <v>26</v>
+      </c>
+      <c r="X34">
+        <v>0.005613699999997834</v>
+      </c>
+      <c r="Y34">
+        <v>27</v>
+      </c>
+      <c r="Z34">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>44.73182293879139</v>
+      </c>
+      <c r="D35">
+        <v>8.399705052609546</v>
+      </c>
+      <c r="E35">
+        <v>0.09321615377368772</v>
+      </c>
+      <c r="F35">
+        <v>9.996029041681139</v>
+      </c>
+      <c r="G35">
+        <v>44.93332640099728</v>
+      </c>
+      <c r="H35">
+        <v>8.234080755337738</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>25</v>
+      </c>
+      <c r="K35">
+        <v>90</v>
+      </c>
+      <c r="L35">
+        <v>7</v>
+      </c>
+      <c r="M35">
+        <v>29.60621371940404</v>
+      </c>
+      <c r="N35">
+        <v>16.7283342947574</v>
+      </c>
+      <c r="O35">
+        <v>29.59851039134845</v>
+      </c>
+      <c r="P35">
+        <v>16.53191461046978</v>
+      </c>
+      <c r="Q35">
+        <v>0.007956461250653092</v>
+      </c>
+      <c r="R35">
+        <v>0.06401229206935304</v>
+      </c>
+      <c r="S35">
+        <v>0.0687737420420968</v>
+      </c>
+      <c r="T35">
+        <v>0.07019873131990766</v>
+      </c>
+      <c r="U35">
+        <v>0.08646118357738071</v>
+      </c>
+      <c r="V35">
+        <v>0.07582765498715796</v>
+      </c>
+      <c r="W35" t="s">
+        <v>26</v>
+      </c>
+      <c r="X35">
+        <v>0.002908499999989544</v>
+      </c>
+      <c r="Y35">
+        <v>9</v>
+      </c>
+      <c r="Z35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>6.941102558653737</v>
+      </c>
+      <c r="D36">
+        <v>12.3612055262961</v>
+      </c>
+      <c r="E36">
+        <v>359.9937384793855</v>
+      </c>
+      <c r="F36">
+        <v>10.09110118101348</v>
+      </c>
+      <c r="G36">
+        <v>7.056011796301719</v>
+      </c>
+      <c r="H36">
+        <v>12.21719187730866</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>25</v>
+      </c>
+      <c r="K36">
+        <v>90</v>
+      </c>
+      <c r="L36">
+        <v>7</v>
+      </c>
+      <c r="M36">
+        <v>7.633544320503938</v>
+      </c>
+      <c r="N36">
+        <v>22.30604591386155</v>
+      </c>
+      <c r="O36">
+        <v>7.680710404545972</v>
+      </c>
+      <c r="P36">
+        <v>22.22372282111919</v>
+      </c>
+      <c r="Q36">
+        <v>0.007625809589782399</v>
+      </c>
+      <c r="R36">
+        <v>0.1200822001931274</v>
+      </c>
+      <c r="S36">
+        <v>0.03707410535383149</v>
+      </c>
+      <c r="T36">
+        <v>0.2082255388353504</v>
+      </c>
+      <c r="U36">
+        <v>0.08597398793119049</v>
+      </c>
+      <c r="V36">
+        <v>0.04994141532318819</v>
+      </c>
+      <c r="W36" t="s">
+        <v>26</v>
+      </c>
+      <c r="X36">
+        <v>0.001524999999986676</v>
+      </c>
+      <c r="Y36">
+        <v>7</v>
+      </c>
+      <c r="Z36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>82.4498906803363</v>
+      </c>
+      <c r="D37">
+        <v>6.70019528357894</v>
+      </c>
+      <c r="E37">
+        <v>359.976765837408</v>
+      </c>
+      <c r="F37">
+        <v>10.03447146260444</v>
+      </c>
+      <c r="G37">
+        <v>82.65933319750893</v>
+      </c>
+      <c r="H37">
+        <v>6.733041544089732</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>25</v>
+      </c>
+      <c r="K37">
+        <v>90</v>
+      </c>
+      <c r="L37">
+        <v>7</v>
+      </c>
+      <c r="M37">
+        <v>47.28302978168723</v>
+      </c>
+      <c r="N37">
+        <v>12.44155687331505</v>
+      </c>
+      <c r="O37">
+        <v>47.36903114132573</v>
+      </c>
+      <c r="P37">
+        <v>12.47713175041619</v>
+      </c>
+      <c r="Q37">
+        <v>0.007660478241399538</v>
+      </c>
+      <c r="R37">
+        <v>0.06433650672880677</v>
+      </c>
+      <c r="S37">
+        <v>0.07815277226888334</v>
+      </c>
+      <c r="T37">
+        <v>0.02715539260609325</v>
+      </c>
+      <c r="U37">
+        <v>0.09390887754862622</v>
+      </c>
+      <c r="V37">
+        <v>0.04375771124281515</v>
+      </c>
+      <c r="W37" t="s">
+        <v>26</v>
+      </c>
+      <c r="X37">
+        <v>0.002515200000004825</v>
+      </c>
+      <c r="Y37">
+        <v>12</v>
+      </c>
+      <c r="Z37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>131.1312944872306</v>
+      </c>
+      <c r="D38">
+        <v>10.21937054844256</v>
+      </c>
+      <c r="E38">
+        <v>0.0703781856968395</v>
+      </c>
+      <c r="F38">
+        <v>9.716866553601818</v>
+      </c>
+      <c r="G38">
+        <v>131.2326828867089</v>
+      </c>
+      <c r="H38">
+        <v>9.809361221852226</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>25</v>
+      </c>
+      <c r="K38">
+        <v>90</v>
+      </c>
+      <c r="L38">
+        <v>7</v>
+      </c>
+      <c r="M38">
+        <v>93.75460165970797</v>
+      </c>
+      <c r="N38">
+        <v>10.42956719317792</v>
+      </c>
+      <c r="O38">
+        <v>93.75241576132116</v>
+      </c>
+      <c r="P38">
+        <v>10.05637618184955</v>
+      </c>
+      <c r="Q38">
+        <v>0.007660759861887171</v>
+      </c>
+      <c r="R38">
+        <v>0.1454816476210743</v>
+      </c>
+      <c r="S38">
+        <v>0.1640874718218351</v>
+      </c>
+      <c r="T38">
+        <v>0.1334584595484173</v>
+      </c>
+      <c r="U38">
+        <v>0.09909275949529134</v>
+      </c>
+      <c r="V38">
+        <v>0.1630198904341767</v>
+      </c>
+      <c r="W38" t="s">
+        <v>26</v>
+      </c>
+      <c r="X38">
+        <v>0.005689799999998968</v>
+      </c>
+      <c r="Y38">
+        <v>26</v>
+      </c>
+      <c r="Z38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>170.0093885143152</v>
+      </c>
+      <c r="D39">
+        <v>8.569178091652891</v>
+      </c>
+      <c r="E39">
+        <v>0.01331790217218321</v>
+      </c>
+      <c r="F39">
+        <v>9.943341560730762</v>
+      </c>
+      <c r="G39">
+        <v>170.099747100813</v>
+      </c>
+      <c r="H39">
+        <v>8.502322723660667</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>25</v>
+      </c>
+      <c r="K39">
+        <v>90</v>
+      </c>
+      <c r="L39">
+        <v>7</v>
+      </c>
+      <c r="M39">
+        <v>132.8794796020886</v>
+      </c>
+      <c r="N39">
+        <v>4.031761962137695</v>
+      </c>
+      <c r="O39">
+        <v>132.9416728457657</v>
+      </c>
+      <c r="P39">
+        <v>3.998327172828188</v>
+      </c>
+      <c r="Q39">
+        <v>0.003373065483836052</v>
+      </c>
+      <c r="R39">
+        <v>0.05329367223886661</v>
+      </c>
+      <c r="S39">
+        <v>0.02112290604294224</v>
+      </c>
+      <c r="T39">
+        <v>0.05983950772230526</v>
+      </c>
+      <c r="U39">
+        <v>0.08725043401950873</v>
+      </c>
+      <c r="V39">
+        <v>0.05113329237287127</v>
+      </c>
+      <c r="W39" t="s">
+        <v>26</v>
+      </c>
+      <c r="X39">
+        <v>0.004666899999989482</v>
+      </c>
+      <c r="Y39">
+        <v>25</v>
+      </c>
+      <c r="Z39">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>69.25916151301388</v>
+      </c>
+      <c r="D40">
+        <v>13.31649415908743</v>
+      </c>
+      <c r="E40">
+        <v>359.9327326510791</v>
+      </c>
+      <c r="F40">
+        <v>10.0723720502166</v>
+      </c>
+      <c r="G40">
+        <v>69.36204723769409</v>
+      </c>
+      <c r="H40">
+        <v>13.44104768899724</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>25</v>
+      </c>
+      <c r="K40">
+        <v>90</v>
+      </c>
+      <c r="L40">
+        <v>7</v>
+      </c>
+      <c r="M40">
+        <v>51.01422188754402</v>
+      </c>
+      <c r="N40">
+        <v>20.73148308181667</v>
+      </c>
+      <c r="O40">
+        <v>51.04329114338002</v>
+      </c>
+      <c r="P40">
+        <v>20.9006784857674</v>
+      </c>
+      <c r="Q40">
+        <v>0.008837250106739815</v>
+      </c>
+      <c r="R40">
+        <v>0.1022369991039115</v>
+      </c>
+      <c r="S40">
+        <v>0.1749968270383931</v>
+      </c>
+      <c r="T40">
+        <v>0.05141188174578631</v>
+      </c>
+      <c r="U40">
+        <v>0.09561456628143035</v>
+      </c>
+      <c r="V40">
+        <v>0.04682490619348081</v>
+      </c>
+      <c r="W40" t="s">
+        <v>26</v>
+      </c>
+      <c r="X40">
+        <v>0.002442999999999529</v>
+      </c>
+      <c r="Y40">
+        <v>12</v>
+      </c>
+      <c r="Z40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>98.44004810616384</v>
+      </c>
+      <c r="D41">
+        <v>12.57478825539126</v>
+      </c>
+      <c r="E41">
+        <v>359.9878459669504</v>
+      </c>
+      <c r="F41">
+        <v>10.00024478028939</v>
+      </c>
+      <c r="G41">
+        <v>98.42602448663101</v>
+      </c>
+      <c r="H41">
+        <v>12.58616851663137</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>25</v>
+      </c>
+      <c r="K41">
+        <v>90</v>
+      </c>
+      <c r="L41">
+        <v>7</v>
+      </c>
+      <c r="M41">
+        <v>72.19761816275663</v>
+      </c>
+      <c r="N41">
+        <v>16.90630795593209</v>
+      </c>
+      <c r="O41">
+        <v>72.20385339583405</v>
+      </c>
+      <c r="P41">
+        <v>16.91824600142312</v>
+      </c>
+      <c r="Q41">
+        <v>0.008639023870952483</v>
+      </c>
+      <c r="R41">
+        <v>0.1323029948945908</v>
+      </c>
+      <c r="S41">
+        <v>0.2211835077053105</v>
+      </c>
+      <c r="T41">
+        <v>0.05131753146213037</v>
+      </c>
+      <c r="U41">
+        <v>0.09412937459730135</v>
+      </c>
+      <c r="V41">
+        <v>0.005348797005732278</v>
+      </c>
+      <c r="W41" t="s">
+        <v>26</v>
+      </c>
+      <c r="X41">
+        <v>0.003937800000016978</v>
+      </c>
+      <c r="Y41">
+        <v>19</v>
+      </c>
+      <c r="Z41">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>73.3836650544515</v>
+      </c>
+      <c r="D42">
+        <v>3.664392481342321</v>
+      </c>
+      <c r="E42">
+        <v>359.985268660803</v>
+      </c>
+      <c r="F42">
+        <v>10.02630228513813</v>
+      </c>
+      <c r="G42">
+        <v>72.88751755922256</v>
+      </c>
+      <c r="H42">
+        <v>3.717720878828139</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>25</v>
+      </c>
+      <c r="K42">
+        <v>90</v>
+      </c>
+      <c r="L42">
+        <v>7</v>
+      </c>
+      <c r="M42">
+        <v>31.92625942098924</v>
+      </c>
+      <c r="N42">
+        <v>10.18120494273455</v>
+      </c>
+      <c r="O42">
+        <v>31.91069157500523</v>
+      </c>
+      <c r="P42">
+        <v>10.27557664497938</v>
+      </c>
+      <c r="Q42">
+        <v>0.007025967586813235</v>
+      </c>
+      <c r="R42">
+        <v>0.04489826372667048</v>
+      </c>
+      <c r="S42">
+        <v>0.04259906764590545</v>
+      </c>
+      <c r="T42">
+        <v>0.04083743113158478</v>
+      </c>
+      <c r="U42">
+        <v>0.08718210412369043</v>
+      </c>
+      <c r="V42">
+        <v>0.06812716503795169</v>
+      </c>
+      <c r="W42" t="s">
+        <v>26</v>
+      </c>
+      <c r="X42">
+        <v>0.001761799999997038</v>
+      </c>
+      <c r="Y42">
+        <v>8</v>
+      </c>
+      <c r="Z42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>45.16625227408922</v>
+      </c>
+      <c r="D43">
+        <v>3.553149848071341</v>
+      </c>
+      <c r="E43">
+        <v>0.07718265012102253</v>
+      </c>
+      <c r="F43">
+        <v>9.986482331349331</v>
+      </c>
+      <c r="G43">
+        <v>45.71758423790578</v>
+      </c>
+      <c r="H43">
+        <v>3.424444348288941</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>25</v>
+      </c>
+      <c r="K43">
+        <v>90</v>
+      </c>
+      <c r="L43">
+        <v>7</v>
+      </c>
+      <c r="M43">
+        <v>21.98281729864149</v>
+      </c>
+      <c r="N43">
+        <v>11.20442922515501</v>
+      </c>
+      <c r="O43">
+        <v>21.94653723543732</v>
+      </c>
+      <c r="P43">
+        <v>11.03920746624788</v>
+      </c>
+      <c r="Q43">
+        <v>0.006840591807640409</v>
+      </c>
+      <c r="R43">
+        <v>0.04605002759079402</v>
+      </c>
+      <c r="S43">
+        <v>0.03411237248965034</v>
+      </c>
+      <c r="T43">
+        <v>0.0610561912498605</v>
+      </c>
+      <c r="U43">
+        <v>0.09012156016824471</v>
+      </c>
+      <c r="V43">
+        <v>0.1379874929349451</v>
+      </c>
+      <c r="W43" t="s">
+        <v>26</v>
+      </c>
+      <c r="X43">
+        <v>0.001687099999998054</v>
+      </c>
+      <c r="Y43">
+        <v>8</v>
+      </c>
+      <c r="Z43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>67.41722139252525</v>
+      </c>
+      <c r="D44">
+        <v>14.40857167691899</v>
+      </c>
+      <c r="E44">
+        <v>0.06768461360661449</v>
+      </c>
+      <c r="F44">
+        <v>10.03288548409677</v>
+      </c>
+      <c r="G44">
+        <v>67.57958364716023</v>
+      </c>
+      <c r="H44">
+        <v>14.35912191321121</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>25</v>
+      </c>
+      <c r="K44">
+        <v>90</v>
+      </c>
+      <c r="L44">
+        <v>7</v>
+      </c>
+      <c r="M44">
+        <v>50.70287428680181</v>
+      </c>
+      <c r="N44">
+        <v>22.14193003827787</v>
+      </c>
+      <c r="O44">
+        <v>50.73331461695467</v>
+      </c>
+      <c r="P44">
+        <v>22.10098652389589</v>
+      </c>
+      <c r="Q44">
+        <v>0.008847711793288991</v>
+      </c>
+      <c r="R44">
+        <v>0.1060553253999629</v>
+      </c>
+      <c r="S44">
+        <v>0.1888232270170709</v>
+      </c>
+      <c r="T44">
+        <v>0.05949638391630039</v>
+      </c>
+      <c r="U44">
+        <v>0.08439219103641556</v>
+      </c>
+      <c r="V44">
+        <v>0.02333095901815049</v>
+      </c>
+      <c r="W44" t="s">
+        <v>26</v>
+      </c>
+      <c r="X44">
+        <v>0.002584200000001147</v>
+      </c>
+      <c r="Y44">
+        <v>12</v>
+      </c>
+      <c r="Z44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>20.70982195016021</v>
+      </c>
+      <c r="D45">
+        <v>10.30879847135378</v>
+      </c>
+      <c r="E45">
+        <v>359.9769095357144</v>
+      </c>
+      <c r="F45">
+        <v>9.932681205762684</v>
+      </c>
+      <c r="G45">
+        <v>20.55278505173932</v>
+      </c>
+      <c r="H45">
+        <v>10.36926571908482</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>25</v>
+      </c>
+      <c r="K45">
+        <v>90</v>
+      </c>
+      <c r="L45">
+        <v>7</v>
+      </c>
+      <c r="M45">
+        <v>16.3064939917049</v>
+      </c>
+      <c r="N45">
+        <v>19.74929820405307</v>
+      </c>
+      <c r="O45">
+        <v>16.26770523334584</v>
+      </c>
+      <c r="P45">
+        <v>19.75848558030572</v>
+      </c>
+      <c r="Q45">
+        <v>0.007963944072970189</v>
+      </c>
+      <c r="R45">
+        <v>0.07672132275257454</v>
+      </c>
+      <c r="S45">
+        <v>0.0522625794059447</v>
+      </c>
+      <c r="T45">
+        <v>0.1252553427931449</v>
+      </c>
+      <c r="U45">
+        <v>0.08802906498345081</v>
+      </c>
+      <c r="V45">
+        <v>0.02906243577212857</v>
+      </c>
+      <c r="W45" t="s">
+        <v>26</v>
+      </c>
+      <c r="X45">
+        <v>0.001769500000023072</v>
+      </c>
+      <c r="Y45">
+        <v>8</v>
+      </c>
+      <c r="Z45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <v>150.2715867598169</v>
+      </c>
+      <c r="D46">
+        <v>4.257553252438437</v>
+      </c>
+      <c r="E46">
+        <v>0.01367746220424612</v>
+      </c>
+      <c r="F46">
+        <v>10.06863695123713</v>
+      </c>
+      <c r="G46">
+        <v>150.2560020609334</v>
+      </c>
+      <c r="H46">
+        <v>4.305258954415621</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>25</v>
+      </c>
+      <c r="K46">
+        <v>90</v>
+      </c>
+      <c r="L46">
+        <v>7</v>
+      </c>
+      <c r="M46">
+        <v>51.49320715697708</v>
+      </c>
+      <c r="N46">
+        <v>4.733318900759217</v>
+      </c>
+      <c r="O46">
+        <v>51.54817129564889</v>
+      </c>
+      <c r="P46">
+        <v>4.770587873312783</v>
+      </c>
+      <c r="Q46">
+        <v>0.006388933751805778</v>
+      </c>
+      <c r="R46">
+        <v>0.03790538427077393</v>
+      </c>
+      <c r="S46">
+        <v>0.03352127652217646</v>
+      </c>
+      <c r="T46">
+        <v>0.01834134905361313</v>
+      </c>
+      <c r="U46">
+        <v>0.08982516752295583</v>
+      </c>
+      <c r="V46">
+        <v>0.0552659628173448</v>
+      </c>
+      <c r="W46" t="s">
+        <v>26</v>
+      </c>
+      <c r="X46">
+        <v>0.003186999999996942</v>
+      </c>
+      <c r="Y46">
+        <v>17</v>
+      </c>
+      <c r="Z46">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>10</v>
+      </c>
+      <c r="C47">
+        <v>178.022072425608</v>
+      </c>
+      <c r="D47">
+        <v>9.594536722136706</v>
+      </c>
+      <c r="E47">
+        <v>359.9889331638786</v>
+      </c>
+      <c r="F47">
+        <v>9.993858273062699</v>
+      </c>
+      <c r="G47">
+        <v>178.0173520209381</v>
+      </c>
+      <c r="H47">
+        <v>9.589204175023669</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>25</v>
+      </c>
+      <c r="K47">
+        <v>90</v>
+      </c>
+      <c r="L47">
+        <v>7</v>
+      </c>
+      <c r="M47">
+        <v>159.1796698056864</v>
+      </c>
+      <c r="N47">
+        <v>4.410985878453859</v>
+      </c>
+      <c r="O47">
+        <v>159.1929658207329</v>
+      </c>
+      <c r="P47">
+        <v>4.410290732667142</v>
+      </c>
+      <c r="Q47">
+        <v>0.00293703900572938</v>
+      </c>
+      <c r="R47">
+        <v>0.02918986956258017</v>
+      </c>
+      <c r="S47">
+        <v>0.007275239663992695</v>
+      </c>
+      <c r="T47">
+        <v>0.03570822080478194</v>
+      </c>
+      <c r="U47">
+        <v>0.0849785705156698</v>
+      </c>
+      <c r="V47">
+        <v>0.005094145759153347</v>
+      </c>
+      <c r="W47" t="s">
+        <v>26</v>
+      </c>
+      <c r="X47">
+        <v>0.005540199999984452</v>
+      </c>
+      <c r="Y47">
+        <v>27</v>
+      </c>
+      <c r="Z47">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>10</v>
+      </c>
+      <c r="C48">
+        <v>141.0898231450351</v>
+      </c>
+      <c r="D48">
+        <v>10.61800447263276</v>
+      </c>
+      <c r="E48">
+        <v>0.03170950599291764</v>
+      </c>
+      <c r="F48">
+        <v>9.888303851796104</v>
+      </c>
+      <c r="G48">
+        <v>141.1765889666571</v>
+      </c>
+      <c r="H48">
+        <v>10.44977719716441</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>25</v>
+      </c>
+      <c r="K48">
+        <v>90</v>
+      </c>
+      <c r="L48">
+        <v>7</v>
+      </c>
+      <c r="M48">
+        <v>105.4244541290951</v>
+      </c>
+      <c r="N48">
+        <v>9.516228537064677</v>
+      </c>
+      <c r="O48">
+        <v>105.4485091392666</v>
+      </c>
+      <c r="P48">
+        <v>9.376120524259411</v>
+      </c>
+      <c r="Q48">
+        <v>0.006257954969103235</v>
+      </c>
+      <c r="R48">
+        <v>0.132432433684616</v>
+      </c>
+      <c r="S48">
+        <v>0.1299070793905629</v>
+      </c>
+      <c r="T48">
+        <v>0.1439683087021882</v>
+      </c>
+      <c r="U48">
+        <v>0.09265035851176624</v>
+      </c>
+      <c r="V48">
+        <v>0.07233029999846469</v>
+      </c>
+      <c r="W48" t="s">
+        <v>26</v>
+      </c>
+      <c r="X48">
+        <v>0.004757100000006176</v>
+      </c>
+      <c r="Y48">
+        <v>26</v>
+      </c>
+      <c r="Z48">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>10</v>
+      </c>
+      <c r="C49">
+        <v>20.42792494085692</v>
+      </c>
+      <c r="D49">
+        <v>14.69379713323748</v>
+      </c>
+      <c r="E49">
+        <v>0.01910696507490615</v>
+      </c>
+      <c r="F49">
+        <v>10.03823101561031</v>
+      </c>
+      <c r="G49">
+        <v>20.4534823692435</v>
+      </c>
+      <c r="H49">
+        <v>14.63617392930242</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>25</v>
+      </c>
+      <c r="K49">
+        <v>90</v>
+      </c>
+      <c r="L49">
+        <v>7</v>
+      </c>
+      <c r="M49">
+        <v>17.03401812828383</v>
+      </c>
+      <c r="N49">
+        <v>25.00422823336124</v>
+      </c>
+      <c r="O49">
+        <v>17.02421753261807</v>
+      </c>
+      <c r="P49">
+        <v>24.97227044355077</v>
+      </c>
+      <c r="Q49">
+        <v>0.00876407740427523</v>
+      </c>
+      <c r="R49">
+        <v>0.09312163670615056</v>
+      </c>
+      <c r="S49">
+        <v>0.0733346844268663</v>
+      </c>
+      <c r="T49">
+        <v>0.1617034567098546</v>
+      </c>
+      <c r="U49">
+        <v>0.08961660893064725</v>
+      </c>
+      <c r="V49">
+        <v>0.01502324522224046</v>
+      </c>
+      <c r="W49" t="s">
+        <v>26</v>
+      </c>
+      <c r="X49">
+        <v>0.001934500000004391</v>
+      </c>
+      <c r="Y49">
+        <v>8</v>
+      </c>
+      <c r="Z49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>10</v>
+      </c>
+      <c r="C50">
+        <v>3.148248767607473</v>
+      </c>
+      <c r="D50">
+        <v>13.6988792061631</v>
+      </c>
+      <c r="E50">
+        <v>359.9966225867912</v>
+      </c>
+      <c r="F50">
+        <v>9.864877918719122</v>
+      </c>
+      <c r="G50">
+        <v>3.061508321463989</v>
+      </c>
+      <c r="H50">
+        <v>13.76502812944603</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>25</v>
+      </c>
+      <c r="K50">
+        <v>90</v>
+      </c>
+      <c r="L50">
+        <v>7</v>
+      </c>
+      <c r="M50">
+        <v>4.979091423193565</v>
+      </c>
+      <c r="N50">
+        <v>23.88762442334499</v>
+      </c>
+      <c r="O50">
+        <v>4.939707666953167</v>
+      </c>
+      <c r="P50">
+        <v>23.8314877075805</v>
+      </c>
+      <c r="Q50">
+        <v>0.007156724727833458</v>
+      </c>
+      <c r="R50">
+        <v>0.1578283097103141</v>
+      </c>
+      <c r="S50">
+        <v>0.03156151052413048</v>
+      </c>
+      <c r="T50">
+        <v>0.2686356384905434</v>
+      </c>
+      <c r="U50">
+        <v>0.09167731617326942</v>
+      </c>
+      <c r="V50">
+        <v>0.02800313158968249</v>
+      </c>
+      <c r="W50" t="s">
+        <v>26</v>
+      </c>
+      <c r="X50">
+        <v>0.00155589999999961</v>
+      </c>
+      <c r="Y50">
+        <v>7</v>
+      </c>
+      <c r="Z50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>10</v>
+      </c>
+      <c r="C51">
+        <v>54.17360205406462</v>
+      </c>
+      <c r="D51">
+        <v>5.964741983541773</v>
+      </c>
+      <c r="E51">
+        <v>359.986100787335</v>
+      </c>
+      <c r="F51">
+        <v>9.949648461875469</v>
+      </c>
+      <c r="G51">
+        <v>53.90269941476101</v>
+      </c>
+      <c r="H51">
+        <v>5.960509921281147</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>25</v>
+      </c>
+      <c r="K51">
+        <v>90</v>
+      </c>
+      <c r="L51">
+        <v>7</v>
+      </c>
+      <c r="M51">
+        <v>31.07252442683621</v>
+      </c>
+      <c r="N51">
+        <v>13.5120365339658</v>
+      </c>
+      <c r="O51">
+        <v>31.03336595219249</v>
+      </c>
+      <c r="P51">
+        <v>13.47619088178297</v>
+      </c>
+      <c r="Q51">
+        <v>0.007508605890467389</v>
+      </c>
+      <c r="R51">
+        <v>0.05449645145070501</v>
+      </c>
+      <c r="S51">
+        <v>0.05586770885433468</v>
+      </c>
+      <c r="T51">
+        <v>0.05335479321324432</v>
+      </c>
+      <c r="U51">
+        <v>0.08196370210180678</v>
+      </c>
+      <c r="V51">
+        <v>0.02275741427941334</v>
+      </c>
+      <c r="W51" t="s">
+        <v>26</v>
+      </c>
+      <c r="X51">
+        <v>0.001689900000002353</v>
+      </c>
+      <c r="Y51">
+        <v>8</v>
+      </c>
+      <c r="Z51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>10</v>
+      </c>
+      <c r="C52">
+        <v>89.02829619684385</v>
+      </c>
+      <c r="D52">
+        <v>5.736997253392035</v>
+      </c>
+      <c r="E52">
+        <v>359.9880113396767</v>
+      </c>
+      <c r="F52">
+        <v>10.00929177537994</v>
+      </c>
+      <c r="G52">
+        <v>88.92018688144462</v>
+      </c>
+      <c r="H52">
+        <v>5.766437945296302</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>25</v>
+      </c>
+      <c r="K52">
+        <v>90</v>
+      </c>
+      <c r="L52">
+        <v>7</v>
+      </c>
+      <c r="M52">
+        <v>47.03792036458195</v>
+      </c>
+      <c r="N52">
+        <v>11.00547523311644</v>
+      </c>
+      <c r="O52">
+        <v>47.06746560641908</v>
+      </c>
+      <c r="P52">
+        <v>11.04526053884257</v>
+      </c>
+      <c r="Q52">
+        <v>0.007417246020991987</v>
+      </c>
+      <c r="R52">
+        <v>0.05840404960038258</v>
+      </c>
+      <c r="S52">
+        <v>0.06695758571763091</v>
+      </c>
+      <c r="T52">
+        <v>0.02498622382710531</v>
+      </c>
+      <c r="U52">
+        <v>0.08822099040244458</v>
+      </c>
+      <c r="V52">
+        <v>0.02894343335426537</v>
+      </c>
+      <c r="W52" t="s">
+        <v>26</v>
+      </c>
+      <c r="X52">
+        <v>0.002405699999997069</v>
+      </c>
+      <c r="Y52">
+        <v>12</v>
+      </c>
+      <c r="Z52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>10</v>
+      </c>
+      <c r="C53">
+        <v>121.6316547906394</v>
+      </c>
+      <c r="D53">
+        <v>3.536546186435352</v>
+      </c>
+      <c r="E53">
+        <v>9.841355573755971E-05</v>
+      </c>
+      <c r="F53">
+        <v>9.975168808723748</v>
+      </c>
+      <c r="G53">
+        <v>121.0519259686478</v>
+      </c>
+      <c r="H53">
+        <v>3.522923248079666</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>25</v>
+      </c>
+      <c r="K53">
+        <v>90</v>
+      </c>
+      <c r="L53">
+        <v>7</v>
+      </c>
+      <c r="M53">
+        <v>42.84508415968962</v>
+      </c>
+      <c r="N53">
+        <v>7.034854823508725</v>
+      </c>
+      <c r="O53">
+        <v>42.78281772144626</v>
+      </c>
+      <c r="P53">
+        <v>7.055400814610453</v>
+      </c>
+      <c r="Q53">
+        <v>0.006604192028110969</v>
+      </c>
+      <c r="R53">
+        <v>0.03956033774280011</v>
+      </c>
+      <c r="S53">
+        <v>0.03812564443406494</v>
+      </c>
+      <c r="T53">
+        <v>0.02232151436734685</v>
+      </c>
+      <c r="U53">
+        <v>0.0875850469672613</v>
+      </c>
+      <c r="V53">
+        <v>0.04455761021394476</v>
+      </c>
+      <c r="W53" t="s">
+        <v>26</v>
+      </c>
+      <c r="X53">
+        <v>0.002895200000011755</v>
+      </c>
+      <c r="Y53">
+        <v>14</v>
+      </c>
+      <c r="Z53">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>10</v>
+      </c>
+      <c r="C54">
+        <v>148.1598613277625</v>
+      </c>
+      <c r="D54">
+        <v>3.313415778838408</v>
+      </c>
+      <c r="E54">
+        <v>359.9498776065867</v>
+      </c>
+      <c r="F54">
+        <v>10.06850040160956</v>
+      </c>
+      <c r="G54">
+        <v>147.3879159764465</v>
+      </c>
+      <c r="H54">
+        <v>3.347869285909601</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>25</v>
+      </c>
+      <c r="K54">
+        <v>90</v>
+      </c>
+      <c r="L54">
+        <v>7</v>
+      </c>
+      <c r="M54">
+        <v>39.20823517402567</v>
+      </c>
+      <c r="N54">
+        <v>5.169813417634993</v>
+      </c>
+      <c r="O54">
+        <v>39.27596440795003</v>
+      </c>
+      <c r="P54">
+        <v>5.255206467633409</v>
+      </c>
+      <c r="Q54">
+        <v>0.006167528506883285</v>
+      </c>
+      <c r="R54">
+        <v>0.03100723774704554</v>
+      </c>
+      <c r="S54">
+        <v>0.02779530946631293</v>
+      </c>
+      <c r="T54">
+        <v>0.02176141910746901</v>
+      </c>
+      <c r="U54">
+        <v>0.08314730881249531</v>
+      </c>
+      <c r="V54">
+        <v>0.08975578079742746</v>
+      </c>
+      <c r="W54" t="s">
+        <v>26</v>
+      </c>
+      <c r="X54">
+        <v>0.002667799999983345</v>
+      </c>
+      <c r="Y54">
+        <v>14</v>
+      </c>
+      <c r="Z54">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>10</v>
+      </c>
+      <c r="C55">
+        <v>152.3992332978241</v>
+      </c>
+      <c r="D55">
+        <v>9.733986483180409</v>
+      </c>
+      <c r="E55">
+        <v>0.0005968923695148979</v>
+      </c>
+      <c r="F55">
+        <v>9.90484011541534</v>
+      </c>
+      <c r="G55">
+        <v>152.4484432862416</v>
+      </c>
+      <c r="H55">
+        <v>9.610889177715912</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>25</v>
+      </c>
+      <c r="K55">
+        <v>90</v>
+      </c>
+      <c r="L55">
+        <v>7</v>
+      </c>
+      <c r="M55">
+        <v>114.2699214848488</v>
+      </c>
+      <c r="N55">
+        <v>7.220398177179498</v>
+      </c>
+      <c r="O55">
+        <v>114.2963355128003</v>
+      </c>
+      <c r="P55">
+        <v>7.137290905568784</v>
+      </c>
+      <c r="Q55">
+        <v>0.005008626950950766</v>
+      </c>
+      <c r="R55">
+        <v>0.1031597245323388</v>
+      </c>
+      <c r="S55">
+        <v>0.07643473490866033</v>
+      </c>
+      <c r="T55">
+        <v>0.1166647649186598</v>
+      </c>
+      <c r="U55">
+        <v>0.1008777923820025</v>
+      </c>
+      <c r="V55">
+        <v>0.05863253987794356</v>
+      </c>
+      <c r="W55" t="s">
+        <v>26</v>
+      </c>
+      <c r="X55">
+        <v>0.005308499999983951</v>
+      </c>
+      <c r="Y55">
+        <v>26</v>
+      </c>
+      <c r="Z55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>10</v>
+      </c>
+      <c r="C56">
+        <v>75.6329340853393</v>
+      </c>
+      <c r="D56">
+        <v>7.358873963581027</v>
+      </c>
+      <c r="E56">
+        <v>0.06868554815151293</v>
+      </c>
+      <c r="F56">
+        <v>9.910961571768658</v>
+      </c>
+      <c r="G56">
+        <v>75.71176135678894</v>
+      </c>
+      <c r="H56">
+        <v>7.214032502741088</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>25</v>
+      </c>
+      <c r="K56">
+        <v>90</v>
+      </c>
+      <c r="L56">
+        <v>7</v>
+      </c>
+      <c r="M56">
+        <v>45.4456541921149</v>
+      </c>
+      <c r="N56">
+        <v>13.64739445873363</v>
+      </c>
+      <c r="O56">
+        <v>45.4229805750787</v>
+      </c>
+      <c r="P56">
+        <v>13.43715420007712</v>
+      </c>
+      <c r="Q56">
+        <v>0.007661071421619971</v>
+      </c>
+      <c r="R56">
+        <v>0.0648478545443391</v>
+      </c>
+      <c r="S56">
+        <v>0.0812244276951118</v>
+      </c>
+      <c r="T56">
+        <v>0.03173499360723213</v>
+      </c>
+      <c r="U56">
+        <v>0.0884757060468865</v>
+      </c>
+      <c r="V56">
+        <v>0.08252074230807571</v>
+      </c>
+      <c r="W56" t="s">
+        <v>26</v>
+      </c>
+      <c r="X56">
+        <v>0.001852700000000596</v>
+      </c>
+      <c r="Y56">
+        <v>9</v>
+      </c>
+      <c r="Z56">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>10</v>
+      </c>
+      <c r="C57">
+        <v>16.75949160093444</v>
+      </c>
+      <c r="D57">
+        <v>14.65987103987745</v>
+      </c>
+      <c r="E57">
+        <v>359.9736793839655</v>
+      </c>
+      <c r="F57">
+        <v>10.02288427835615</v>
+      </c>
+      <c r="G57">
+        <v>16.83352606211023</v>
+      </c>
+      <c r="H57">
+        <v>14.73919653647856</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>25</v>
+      </c>
+      <c r="K57">
+        <v>90</v>
+      </c>
+      <c r="L57">
+        <v>7</v>
+      </c>
+      <c r="M57">
+        <v>14.44966940927695</v>
+      </c>
+      <c r="N57">
+        <v>25.01968713371055</v>
+      </c>
+      <c r="O57">
+        <v>14.48728809285419</v>
+      </c>
+      <c r="P57">
+        <v>25.13488040188481</v>
+      </c>
+      <c r="Q57">
+        <v>0.008635526479563347</v>
+      </c>
+      <c r="R57">
+        <v>0.09788946217714385</v>
+      </c>
+      <c r="S57">
+        <v>0.06510086978805632</v>
+      </c>
+      <c r="T57">
+        <v>0.1744878602053068</v>
+      </c>
+      <c r="U57">
+        <v>0.08796722459210699</v>
+      </c>
+      <c r="V57">
+        <v>0.0324567002071573</v>
+      </c>
+      <c r="W57" t="s">
+        <v>26</v>
+      </c>
+      <c r="X57">
+        <v>0.001636600000011867</v>
+      </c>
+      <c r="Y57">
+        <v>8</v>
+      </c>
+      <c r="Z57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>10</v>
+      </c>
+      <c r="C58">
+        <v>177.1545330976638</v>
+      </c>
+      <c r="D58">
+        <v>7.00094719217584</v>
+      </c>
+      <c r="E58">
+        <v>0.007359106434516213</v>
+      </c>
+      <c r="F58">
+        <v>9.958674310843065</v>
+      </c>
+      <c r="G58">
+        <v>177.2673116884112</v>
+      </c>
+      <c r="H58">
+        <v>6.960882917758513</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>25</v>
+      </c>
+      <c r="K58">
+        <v>90</v>
+      </c>
+      <c r="L58">
+        <v>7</v>
+      </c>
+      <c r="M58">
+        <v>122.3917356254008</v>
+      </c>
+      <c r="N58">
+        <v>1.88002910171164</v>
+      </c>
+      <c r="O58">
+        <v>122.5276027042501</v>
+      </c>
+      <c r="P58">
+        <v>1.862075611738176</v>
+      </c>
+      <c r="Q58">
+        <v>0.003219093335130586</v>
+      </c>
+      <c r="R58">
+        <v>0.03858333553211321</v>
+      </c>
+      <c r="S58">
+        <v>0.01232367022278386</v>
+      </c>
+      <c r="T58">
+        <v>0.03737951270854045</v>
+      </c>
+      <c r="U58">
+        <v>0.08613971735836201</v>
+      </c>
+      <c r="V58">
+        <v>0.06700893616845784</v>
+      </c>
+      <c r="W58" t="s">
+        <v>26</v>
+      </c>
+      <c r="X58">
+        <v>0.005143500000002632</v>
+      </c>
+      <c r="Y58">
+        <v>25</v>
+      </c>
+      <c r="Z58">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>10</v>
+      </c>
+      <c r="C59">
+        <v>15.72293572239151</v>
+      </c>
+      <c r="D59">
+        <v>5.765725194620736</v>
+      </c>
+      <c r="E59">
+        <v>359.9730144356035</v>
+      </c>
+      <c r="F59">
+        <v>9.894220609096269</v>
+      </c>
+      <c r="G59">
+        <v>15.45477167881831</v>
+      </c>
+      <c r="H59">
+        <v>5.943228784035044</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>25</v>
+      </c>
+      <c r="K59">
+        <v>90</v>
+      </c>
+      <c r="L59">
+        <v>7</v>
+      </c>
+      <c r="M59">
+        <v>12.23519148406908</v>
+      </c>
+      <c r="N59">
+        <v>14.37002887945796</v>
+      </c>
+      <c r="O59">
+        <v>12.22529553945775</v>
+      </c>
+      <c r="P59">
+        <v>14.48022619574288</v>
+      </c>
+      <c r="Q59">
+        <v>0.006820092270687907</v>
+      </c>
+      <c r="R59">
+        <v>0.0678048486439677</v>
+      </c>
+      <c r="S59">
+        <v>0.03040748803846969</v>
+      </c>
+      <c r="T59">
+        <v>0.1096645771938333</v>
+      </c>
+      <c r="U59">
+        <v>0.09818003311662983</v>
+      </c>
+      <c r="V59">
+        <v>0.09892399608276292</v>
+      </c>
+      <c r="W59" t="s">
+        <v>26</v>
+      </c>
+      <c r="X59">
+        <v>0.001926900000000842</v>
+      </c>
+      <c r="Y59">
+        <v>8</v>
+      </c>
+      <c r="Z59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>10</v>
+      </c>
+      <c r="C60">
+        <v>65.7190049440849</v>
+      </c>
+      <c r="D60">
+        <v>8.414470990720055</v>
+      </c>
+      <c r="E60">
+        <v>0.0005486880342969841</v>
+      </c>
+      <c r="F60">
+        <v>9.831189243118448</v>
+      </c>
+      <c r="G60">
+        <v>65.26780803795407</v>
+      </c>
+      <c r="H60">
+        <v>8.280548437022848</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>25</v>
+      </c>
+      <c r="K60">
+        <v>90</v>
+      </c>
+      <c r="L60">
+        <v>7</v>
+      </c>
+      <c r="M60">
+        <v>41.96631688030001</v>
+      </c>
+      <c r="N60">
+        <v>15.51473424919647</v>
+      </c>
+      <c r="O60">
+        <v>41.87807277635485</v>
+      </c>
+      <c r="P60">
+        <v>15.27344003312564</v>
+      </c>
+      <c r="Q60">
+        <v>0.007854640367551123</v>
+      </c>
+      <c r="R60">
+        <v>0.06720571702518183</v>
+      </c>
+      <c r="S60">
+        <v>0.08720282705724029</v>
+      </c>
+      <c r="T60">
+        <v>0.04299413843605943</v>
+      </c>
+      <c r="U60">
+        <v>0.08462362290521941</v>
+      </c>
+      <c r="V60">
+        <v>0.09905127916784662</v>
+      </c>
+      <c r="W60" t="s">
+        <v>26</v>
+      </c>
+      <c r="X60">
+        <v>0.002033600000004299</v>
+      </c>
+      <c r="Y60">
+        <v>9</v>
+      </c>
+      <c r="Z60">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>10</v>
+      </c>
+      <c r="C61">
+        <v>166.3263208033966</v>
+      </c>
+      <c r="D61">
+        <v>4.894446966417504</v>
+      </c>
+      <c r="E61">
+        <v>0.0293502171761339</v>
+      </c>
+      <c r="F61">
+        <v>9.952554042793784</v>
+      </c>
+      <c r="G61">
+        <v>166.6326179601183</v>
+      </c>
+      <c r="H61">
+        <v>4.862699455962475</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>25</v>
+      </c>
+      <c r="K61">
+        <v>90</v>
+      </c>
+      <c r="L61">
+        <v>7</v>
+      </c>
+      <c r="M61">
+        <v>56.76408976169788</v>
+      </c>
+      <c r="N61">
+        <v>3.059300117780022</v>
+      </c>
+      <c r="O61">
+        <v>56.68934008898233</v>
+      </c>
+      <c r="P61">
+        <v>3.020951869059322</v>
+      </c>
+      <c r="Q61">
+        <v>0.006113649224332694</v>
+      </c>
+      <c r="R61">
+        <v>0.03434443640916377</v>
+      </c>
+      <c r="S61">
+        <v>0.0278296789594869</v>
+      </c>
+      <c r="T61">
+        <v>0.01788595270023738</v>
+      </c>
+      <c r="U61">
+        <v>0.09035872421175384</v>
+      </c>
+      <c r="V61">
+        <v>0.0634525577863046</v>
+      </c>
+      <c r="W61" t="s">
+        <v>26</v>
+      </c>
+      <c r="X61">
+        <v>0.00396810000000869</v>
+      </c>
+      <c r="Y61">
+        <v>20</v>
+      </c>
+      <c r="Z61">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>10</v>
+      </c>
+      <c r="C62">
+        <v>54.15719940839138</v>
+      </c>
+      <c r="D62">
+        <v>5.243349796102536</v>
+      </c>
+      <c r="E62">
+        <v>359.9623513177883</v>
+      </c>
+      <c r="F62">
+        <v>10.07631474379991</v>
+      </c>
+      <c r="G62">
+        <v>54.35019604799841</v>
+      </c>
+      <c r="H62">
+        <v>5.325411267399211</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>25</v>
+      </c>
+      <c r="K62">
+        <v>90</v>
+      </c>
+      <c r="L62">
+        <v>7</v>
+      </c>
+      <c r="M62">
+        <v>29.53509225686502</v>
+      </c>
+      <c r="N62">
+        <v>12.72106643331113</v>
+      </c>
+      <c r="O62">
+        <v>29.61170206245213</v>
+      </c>
+      <c r="P62">
+        <v>12.86472884436431</v>
+      </c>
+      <c r="Q62">
+        <v>0.007457835001360207</v>
+      </c>
+      <c r="R62">
+        <v>0.05272665321641103</v>
+      </c>
+      <c r="S62">
+        <v>0.05118822945957911</v>
+      </c>
+      <c r="T62">
+        <v>0.05358928510744469</v>
+      </c>
+      <c r="U62">
+        <v>0.09642460070408397</v>
+      </c>
+      <c r="V62">
+        <v>0.08192593332048126</v>
+      </c>
+      <c r="W62" t="s">
+        <v>26</v>
+      </c>
+      <c r="X62">
+        <v>0.001709199999993416</v>
+      </c>
+      <c r="Y62">
+        <v>8</v>
+      </c>
+      <c r="Z62">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>10</v>
+      </c>
+      <c r="C63">
+        <v>148.4045056643907</v>
+      </c>
+      <c r="D63">
+        <v>5.176196789966397</v>
+      </c>
+      <c r="E63">
+        <v>0.01711915703075922</v>
+      </c>
+      <c r="F63">
+        <v>10.04026074183626</v>
+      </c>
+      <c r="G63">
+        <v>148.3710015266738</v>
+      </c>
+      <c r="H63">
+        <v>5.210579515537251</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>25</v>
+      </c>
+      <c r="K63">
+        <v>90</v>
+      </c>
+      <c r="L63">
+        <v>7</v>
+      </c>
+      <c r="M63">
+        <v>64.68552660313826</v>
+      </c>
+      <c r="N63">
+        <v>4.894765047516295</v>
+      </c>
+      <c r="O63">
+        <v>64.74952754961426</v>
+      </c>
+      <c r="P63">
+        <v>4.922842904871388</v>
+      </c>
+      <c r="Q63">
+        <v>0.006794712617101775</v>
+      </c>
+      <c r="R63">
+        <v>0.05312025321571165</v>
+      </c>
+      <c r="S63">
+        <v>0.04492992887983616</v>
+      </c>
+      <c r="T63">
+        <v>0.02923109715029977</v>
+      </c>
+      <c r="U63">
+        <v>0.09280936025851438</v>
+      </c>
+      <c r="V63">
+        <v>0.04300451766593349</v>
+      </c>
+      <c r="W63" t="s">
+        <v>26</v>
+      </c>
+      <c r="X63">
+        <v>0.005368700000019544</v>
+      </c>
+      <c r="Y63">
+        <v>21</v>
+      </c>
+      <c r="Z63">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>10</v>
+      </c>
+      <c r="C64">
+        <v>6.075847876177498</v>
+      </c>
+      <c r="D64">
+        <v>8.869290095587015</v>
+      </c>
+      <c r="E64">
+        <v>0.02738328499037718</v>
+      </c>
+      <c r="F64">
+        <v>10.13679137897146</v>
+      </c>
+      <c r="G64">
+        <v>6.152205045459022</v>
+      </c>
+      <c r="H64">
+        <v>8.743396028140202</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>25</v>
+      </c>
+      <c r="K64">
+        <v>90</v>
+      </c>
+      <c r="L64">
+        <v>7</v>
+      </c>
+      <c r="M64">
+        <v>7.285415246674767</v>
+      </c>
+      <c r="N64">
+        <v>18.11323190547886</v>
+      </c>
+      <c r="O64">
+        <v>7.300065094111526</v>
+      </c>
+      <c r="P64">
+        <v>18.09877937040987</v>
+      </c>
+      <c r="Q64">
+        <v>0.006989690377250179</v>
+      </c>
+      <c r="R64">
+        <v>0.1058229151374037</v>
+      </c>
+      <c r="S64">
+        <v>0.02904931367167558</v>
+      </c>
+      <c r="T64">
+        <v>0.1762460212236386</v>
+      </c>
+      <c r="U64">
+        <v>0.08043967933881856</v>
+      </c>
+      <c r="V64">
+        <v>0.04238717142668139</v>
+      </c>
+      <c r="W64" t="s">
+        <v>26</v>
+      </c>
+      <c r="X64">
+        <v>0.001960999999994328</v>
+      </c>
+      <c r="Y64">
+        <v>7</v>
+      </c>
+      <c r="Z64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>10</v>
+      </c>
+      <c r="C65">
+        <v>99.70938405010556</v>
+      </c>
+      <c r="D65">
+        <v>7.7549747244644</v>
+      </c>
+      <c r="E65">
+        <v>359.9813833751352</v>
+      </c>
+      <c r="F65">
+        <v>10.0555010877338</v>
+      </c>
+      <c r="G65">
+        <v>99.78018355818169</v>
+      </c>
+      <c r="H65">
+        <v>7.810037331757808</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>25</v>
+      </c>
+      <c r="K65">
+        <v>90</v>
+      </c>
+      <c r="L65">
+        <v>7</v>
+      </c>
+      <c r="M65">
+        <v>60.6583617383578</v>
+      </c>
+      <c r="N65">
+        <v>11.86528034063046</v>
+      </c>
+      <c r="O65">
+        <v>60.66141334626627</v>
+      </c>
+      <c r="P65">
+        <v>11.93363973189886</v>
+      </c>
+      <c r="Q65">
+        <v>0.007787993546026942</v>
+      </c>
+      <c r="R65">
+        <v>0.0802078935338902</v>
+      </c>
+      <c r="S65">
+        <v>0.1016131014193288</v>
+      </c>
+      <c r="T65">
+        <v>0.02586499218379785</v>
+      </c>
+      <c r="U65">
+        <v>0.08633804696825036</v>
+      </c>
+      <c r="V65">
+        <v>0.0298857867410259</v>
+      </c>
+      <c r="W65" t="s">
+        <v>26</v>
+      </c>
+      <c r="X65">
+        <v>0.005973600000004353</v>
+      </c>
+      <c r="Y65">
+        <v>18</v>
+      </c>
+      <c r="Z65">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>10</v>
+      </c>
+      <c r="C66">
+        <v>68.23773457807862</v>
+      </c>
+      <c r="D66">
+        <v>9.805178006155369</v>
+      </c>
+      <c r="E66">
+        <v>0.07910335882405756</v>
+      </c>
+      <c r="F66">
+        <v>10.00948738204392</v>
+      </c>
+      <c r="G66">
+        <v>68.31549394468888</v>
+      </c>
+      <c r="H66">
+        <v>9.769602032510605</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>25</v>
+      </c>
+      <c r="K66">
+        <v>90</v>
+      </c>
+      <c r="L66">
+        <v>7</v>
+      </c>
+      <c r="M66">
+        <v>45.8459076388655</v>
+      </c>
+      <c r="N66">
+        <v>16.86218162216168</v>
+      </c>
+      <c r="O66">
+        <v>45.85023197879765</v>
+      </c>
+      <c r="P66">
+        <v>16.83315548271809</v>
+      </c>
+      <c r="Q66">
+        <v>0.008178066583940326</v>
+      </c>
+      <c r="R66">
+        <v>0.07866574574814637</v>
+      </c>
+      <c r="S66">
+        <v>0.1111589440924083</v>
+      </c>
+      <c r="T66">
+        <v>0.04262022708773178</v>
+      </c>
+      <c r="U66">
+        <v>0.09718463455265713</v>
+      </c>
+      <c r="V66">
+        <v>0.01496473844290292</v>
+      </c>
+      <c r="W66" t="s">
+        <v>26</v>
+      </c>
+      <c r="X66">
+        <v>0.001913400000006504</v>
+      </c>
+      <c r="Y66">
+        <v>9</v>
+      </c>
+      <c r="Z66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>10</v>
+      </c>
+      <c r="C67">
+        <v>39.35610902649709</v>
+      </c>
+      <c r="D67">
+        <v>3.376832634030967</v>
+      </c>
+      <c r="E67">
+        <v>0.04064873287615991</v>
+      </c>
+      <c r="F67">
+        <v>9.988501512154411</v>
+      </c>
+      <c r="G67">
+        <v>39.14012190501722</v>
+      </c>
+      <c r="H67">
+        <v>3.374402914641367</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>25</v>
+      </c>
+      <c r="K67">
+        <v>90</v>
+      </c>
+      <c r="L67">
+        <v>7</v>
+      </c>
+      <c r="M67">
+        <v>19.57687427078943</v>
+      </c>
+      <c r="N67">
+        <v>11.16212898988536</v>
+      </c>
+      <c r="O67">
+        <v>19.5520684971208</v>
+      </c>
+      <c r="P67">
+        <v>11.15606305286354</v>
+      </c>
+      <c r="Q67">
+        <v>0.006753376131886801</v>
+      </c>
+      <c r="R67">
+        <v>0.04751524009035393</v>
+      </c>
+      <c r="S67">
+        <v>0.03176808120194182</v>
+      </c>
+      <c r="T67">
+        <v>0.06700137535502725</v>
+      </c>
+      <c r="U67">
+        <v>0.08930063573641597</v>
+      </c>
+      <c r="V67">
+        <v>0.01430566861999852</v>
+      </c>
+      <c r="W67" t="s">
+        <v>26</v>
+      </c>
+      <c r="X67">
+        <v>0.001863700000001245</v>
+      </c>
+      <c r="Y67">
+        <v>8</v>
+      </c>
+      <c r="Z67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>10</v>
+      </c>
+      <c r="C68">
+        <v>27.77176406362965</v>
+      </c>
+      <c r="D68">
+        <v>4.604394728400791</v>
+      </c>
+      <c r="E68">
+        <v>359.9745967926818</v>
+      </c>
+      <c r="F68">
+        <v>9.962253356486746</v>
+      </c>
+      <c r="G68">
+        <v>27.753090686993</v>
+      </c>
+      <c r="H68">
+        <v>4.552523648301134</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>25</v>
+      </c>
+      <c r="K68">
+        <v>90</v>
+      </c>
+      <c r="L68">
+        <v>7</v>
+      </c>
+      <c r="M68">
+        <v>16.96964631110587</v>
+      </c>
+      <c r="N68">
+        <v>12.83113260813786</v>
+      </c>
+      <c r="O68">
+        <v>16.93984735723286</v>
+      </c>
+      <c r="P68">
+        <v>12.73293217722555</v>
+      </c>
+      <c r="Q68">
+        <v>0.00688633938574051</v>
+      </c>
+      <c r="R68">
+        <v>0.05430621662454526</v>
+      </c>
+      <c r="S68">
+        <v>0.03290875096909247</v>
+      </c>
+      <c r="T68">
+        <v>0.08160904382022161</v>
+      </c>
+      <c r="U68">
+        <v>0.08831909526760388</v>
+      </c>
+      <c r="V68">
+        <v>0.0488359602740801</v>
+      </c>
+      <c r="W68" t="s">
+        <v>26</v>
+      </c>
+      <c r="X68">
+        <v>0.001921400000014728</v>
+      </c>
+      <c r="Y68">
+        <v>8</v>
+      </c>
+      <c r="Z68">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>10</v>
+      </c>
+      <c r="C69">
+        <v>98.25325738829615</v>
+      </c>
+      <c r="D69">
+        <v>13.30627932709631</v>
+      </c>
+      <c r="E69">
+        <v>0.08216035567411381</v>
+      </c>
+      <c r="F69">
+        <v>9.853735170720764</v>
+      </c>
+      <c r="G69">
+        <v>98.16295355076036</v>
+      </c>
+      <c r="H69">
+        <v>13.03336334737902</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>25</v>
+      </c>
+      <c r="K69">
+        <v>90</v>
+      </c>
+      <c r="L69">
+        <v>7</v>
+      </c>
+      <c r="M69">
+        <v>73.30159050095429</v>
+      </c>
+      <c r="N69">
+        <v>17.71985515776622</v>
+      </c>
+      <c r="O69">
+        <v>73.24777452076209</v>
+      </c>
+      <c r="P69">
+        <v>17.4048166412655</v>
+      </c>
+      <c r="Q69">
+        <v>0.008487221681593281</v>
+      </c>
+      <c r="R69">
+        <v>0.1358794330474665</v>
+      </c>
+      <c r="S69">
+        <v>0.236008226155282</v>
+      </c>
+      <c r="T69">
+        <v>0.05398094336073588</v>
+      </c>
+      <c r="U69">
+        <v>0.08784935445146666</v>
+      </c>
+      <c r="V69">
+        <v>0.09661878274820049</v>
+      </c>
+      <c r="W69" t="s">
+        <v>26</v>
+      </c>
+      <c r="X69">
+        <v>0.003561799999999948</v>
+      </c>
+      <c r="Y69">
+        <v>19</v>
+      </c>
+      <c r="Z69">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>10</v>
+      </c>
+      <c r="C70">
+        <v>46.68686459071981</v>
+      </c>
+      <c r="D70">
+        <v>3.520332613942803</v>
+      </c>
+      <c r="E70">
+        <v>359.9741711935127</v>
+      </c>
+      <c r="F70">
+        <v>9.981924198172335</v>
+      </c>
+      <c r="G70">
+        <v>46.73454740986199</v>
+      </c>
+      <c r="H70">
+        <v>3.503108521366725</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>25</v>
+      </c>
+      <c r="K70">
+        <v>90</v>
+      </c>
+      <c r="L70">
+        <v>7</v>
+      </c>
+      <c r="M70">
+        <v>22.43075918953557</v>
+      </c>
+      <c r="N70">
+        <v>11.12306944814092</v>
+      </c>
+      <c r="O70">
+        <v>22.41750573065035</v>
+      </c>
+      <c r="P70">
+        <v>11.08436084693041</v>
+      </c>
+      <c r="Q70">
+        <v>0.006854655098166897</v>
+      </c>
+      <c r="R70">
+        <v>0.0459675161814143</v>
+      </c>
+      <c r="S70">
+        <v>0.03478154503878286</v>
+      </c>
+      <c r="T70">
+        <v>0.06002691944655823</v>
+      </c>
+      <c r="U70">
+        <v>0.09057248714237874</v>
+      </c>
+      <c r="V70">
+        <v>0.0225373475528377</v>
+      </c>
+      <c r="W70" t="s">
+        <v>26</v>
+      </c>
+      <c r="X70">
+        <v>0.001763199999999188</v>
+      </c>
+      <c r="Y70">
+        <v>8</v>
+      </c>
+      <c r="Z70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>10</v>
+      </c>
+      <c r="C71">
+        <v>53.32484910103803</v>
+      </c>
+      <c r="D71">
+        <v>12.70881258807992</v>
+      </c>
+      <c r="E71">
+        <v>0.06622076396579761</v>
+      </c>
+      <c r="F71">
+        <v>9.81519742438639</v>
+      </c>
+      <c r="G71">
+        <v>53.09930024046346</v>
+      </c>
+      <c r="H71">
+        <v>12.40244676817058</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>25</v>
+      </c>
+      <c r="K71">
+        <v>90</v>
+      </c>
+      <c r="L71">
+        <v>7</v>
+      </c>
+      <c r="M71">
+        <v>39.09766949772915</v>
+      </c>
+      <c r="N71">
+        <v>21.2511977384674</v>
+      </c>
+      <c r="O71">
+        <v>39.03748570463218</v>
+      </c>
+      <c r="P71">
+        <v>20.77286213747506</v>
+      </c>
+      <c r="Q71">
+        <v>0.008490003471528942</v>
+      </c>
+      <c r="R71">
+        <v>0.08309658874524968</v>
+      </c>
+      <c r="S71">
+        <v>0.1233597821254446</v>
+      </c>
+      <c r="T71">
+        <v>0.07699725275992625</v>
+      </c>
+      <c r="U71">
+        <v>0.09409830142018541</v>
+      </c>
+      <c r="V71">
+        <v>0.1184654861714871</v>
+      </c>
+      <c r="W71" t="s">
+        <v>26</v>
+      </c>
+      <c r="X71">
+        <v>0.002007599999984677</v>
+      </c>
+      <c r="Y71">
+        <v>9</v>
+      </c>
+      <c r="Z71">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26">
+      <c r="A72">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>10</v>
+      </c>
+      <c r="C72">
+        <v>166.9464969514126</v>
+      </c>
+      <c r="D72">
+        <v>13.46911553291059</v>
+      </c>
+      <c r="E72">
+        <v>359.9923009664714</v>
+      </c>
+      <c r="F72">
+        <v>10.02121684336183</v>
+      </c>
+      <c r="G72">
+        <v>166.9110286720732</v>
+      </c>
+      <c r="H72">
+        <v>13.5062258201926</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>25</v>
+      </c>
+      <c r="K72">
+        <v>90</v>
+      </c>
+      <c r="L72">
+        <v>7</v>
+      </c>
+      <c r="M72">
+        <v>150.0337683635548</v>
+      </c>
+      <c r="N72">
+        <v>9.651912212970135</v>
+      </c>
+      <c r="O72">
+        <v>149.9977994062215</v>
+      </c>
+      <c r="P72">
+        <v>9.678383083290608</v>
+      </c>
+      <c r="Q72">
+        <v>0.003321299390875399</v>
+      </c>
+      <c r="R72">
+        <v>0.03745172301025933</v>
+      </c>
+      <c r="S72">
+        <v>0.02092924534810156</v>
+      </c>
+      <c r="T72">
+        <v>0.05840171584874901</v>
+      </c>
+      <c r="U72">
+        <v>0.09112208244448219</v>
+      </c>
+      <c r="V72">
+        <v>0.02133789961521618</v>
+      </c>
+      <c r="W72" t="s">
+        <v>26</v>
+      </c>
+      <c r="X72">
+        <v>0.004955200000011928</v>
+      </c>
+      <c r="Y72">
+        <v>26</v>
+      </c>
+      <c r="Z72">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26">
+      <c r="A73">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>10</v>
+      </c>
+      <c r="C73">
+        <v>33.40354946733707</v>
+      </c>
+      <c r="D73">
+        <v>7.63919163650484</v>
+      </c>
+      <c r="E73">
+        <v>0.01971855268780189</v>
+      </c>
+      <c r="F73">
+        <v>10.04680785620253</v>
+      </c>
+      <c r="G73">
+        <v>33.60261211275865</v>
+      </c>
+      <c r="H73">
+        <v>7.57161975515254</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>25</v>
+      </c>
+      <c r="K73">
+        <v>90</v>
+      </c>
+      <c r="L73">
+        <v>7</v>
+      </c>
+      <c r="M73">
+        <v>22.46395608561936</v>
+      </c>
+      <c r="N73">
+        <v>16.27104575612665</v>
+      </c>
+      <c r="O73">
+        <v>22.46715176818335</v>
+      </c>
+      <c r="P73">
+        <v>16.22996526661857</v>
+      </c>
+      <c r="Q73">
+        <v>0.007777441849631329</v>
+      </c>
+      <c r="R73">
+        <v>0.06219573968492428</v>
+      </c>
+      <c r="S73">
+        <v>0.05322208940778401</v>
+      </c>
+      <c r="T73">
+        <v>0.08447726471788708</v>
+      </c>
+      <c r="U73">
+        <v>0.08812733277315915</v>
+      </c>
+      <c r="V73">
+        <v>0.03209697800556389</v>
+      </c>
+      <c r="W73" t="s">
+        <v>26</v>
+      </c>
+      <c r="X73">
+        <v>0.001658900000023777</v>
+      </c>
+      <c r="Y73">
+        <v>8</v>
+      </c>
+      <c r="Z73">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26">
+      <c r="A74">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <v>10</v>
+      </c>
+      <c r="C74">
+        <v>19.21287640595593</v>
+      </c>
+      <c r="D74">
+        <v>11.21211159934425</v>
+      </c>
+      <c r="E74">
+        <v>359.9776861416221</v>
+      </c>
+      <c r="F74">
+        <v>9.976472501237595</v>
+      </c>
+      <c r="G74">
+        <v>19.18001701899759</v>
+      </c>
+      <c r="H74">
+        <v>11.28953013780048</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>25</v>
+      </c>
+      <c r="K74">
+        <v>90</v>
+      </c>
+      <c r="L74">
+        <v>7</v>
+      </c>
+      <c r="M74">
+        <v>15.57133329969279</v>
+      </c>
+      <c r="N74">
+        <v>20.85419847183129</v>
+      </c>
+      <c r="O74">
+        <v>15.57330427469522</v>
+      </c>
+      <c r="P74">
+        <v>20.92369673552158</v>
+      </c>
+      <c r="Q74">
+        <v>0.008116747012449037</v>
+      </c>
+      <c r="R74">
+        <v>0.08178122187448127</v>
+      </c>
+      <c r="S74">
+        <v>0.05437732995624546</v>
+      </c>
+      <c r="T74">
+        <v>0.1365480396363401</v>
+      </c>
+      <c r="U74">
+        <v>0.0908326036168336</v>
+      </c>
+      <c r="V74">
+        <v>0.0241307832247159</v>
+      </c>
+      <c r="W74" t="s">
+        <v>26</v>
+      </c>
+      <c r="X74">
+        <v>0.001668399999999792</v>
+      </c>
+      <c r="Y74">
+        <v>8</v>
+      </c>
+      <c r="Z74">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26">
+      <c r="A75">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>10</v>
+      </c>
+      <c r="C75">
+        <v>115.6841848414942</v>
+      </c>
+      <c r="D75">
+        <v>9.463451171627362</v>
+      </c>
+      <c r="E75">
+        <v>359.9639577231771</v>
+      </c>
+      <c r="F75">
+        <v>10.16579534972658</v>
+      </c>
+      <c r="G75">
+        <v>115.7120832831858</v>
+      </c>
+      <c r="H75">
+        <v>9.697273462567274</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>25</v>
+      </c>
+      <c r="K75">
+        <v>90</v>
+      </c>
+      <c r="L75">
+        <v>7</v>
+      </c>
+      <c r="M75">
+        <v>77.81913838663891</v>
+      </c>
+      <c r="N75">
+        <v>11.66724248977646</v>
+      </c>
+      <c r="O75">
+        <v>77.88303936869703</v>
+      </c>
+      <c r="P75">
+        <v>11.91401377723126</v>
+      </c>
+      <c r="Q75">
+        <v>0.008338447112057409</v>
+      </c>
+      <c r="R75">
+        <v>0.1224668748659744</v>
+      </c>
+      <c r="S75">
+        <v>0.1562868621798066</v>
+      </c>
+      <c r="T75">
+        <v>0.075393509774851</v>
+      </c>
+      <c r="U75">
+        <v>0.08194394120007545</v>
+      </c>
+      <c r="V75">
+        <v>0.1136938332333802</v>
+      </c>
+      <c r="W75" t="s">
+        <v>26</v>
+      </c>
+      <c r="X75">
+        <v>0.005357900000007021</v>
+      </c>
+      <c r="Y75">
+        <v>22</v>
+      </c>
+      <c r="Z75">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26">
+      <c r="A76">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>10</v>
+      </c>
+      <c r="C76">
+        <v>36.39641281744344</v>
+      </c>
+      <c r="D76">
+        <v>12.41457124932673</v>
+      </c>
+      <c r="E76">
+        <v>359.9721252099644</v>
+      </c>
+      <c r="F76">
+        <v>9.994072156274834</v>
+      </c>
+      <c r="G76">
+        <v>36.40634424951466</v>
+      </c>
+      <c r="H76">
+        <v>12.39133467730844</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>25</v>
+      </c>
+      <c r="K76">
+        <v>90</v>
+      </c>
+      <c r="L76">
+        <v>7</v>
+      </c>
+      <c r="M76">
+        <v>27.32317301036183</v>
+      </c>
+      <c r="N76">
+        <v>21.80818795837916</v>
+      </c>
+      <c r="O76">
+        <v>27.31409344717083</v>
+      </c>
+      <c r="P76">
+        <v>21.77274724489023</v>
+      </c>
+      <c r="Q76">
+        <v>0.008617716541816627</v>
+      </c>
+      <c r="R76">
+        <v>0.07970633050448868</v>
+      </c>
+      <c r="S76">
+        <v>0.09189986006103018</v>
+      </c>
+      <c r="T76">
+        <v>0.1069844911419506</v>
+      </c>
+      <c r="U76">
+        <v>0.08195464616187705</v>
+      </c>
+      <c r="V76">
+        <v>0.009905988069526084</v>
+      </c>
+      <c r="W76" t="s">
+        <v>26</v>
+      </c>
+      <c r="X76">
+        <v>0.002046400000011772</v>
+      </c>
+      <c r="Y76">
+        <v>9</v>
+      </c>
+      <c r="Z76">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>10</v>
+      </c>
+      <c r="C77">
+        <v>102.4092396214642</v>
+      </c>
+      <c r="D77">
+        <v>3.791570731073309</v>
+      </c>
+      <c r="E77">
+        <v>359.943453270666</v>
+      </c>
+      <c r="F77">
+        <v>10.07597451748039</v>
+      </c>
+      <c r="G77">
+        <v>102.2923148441711</v>
+      </c>
+      <c r="H77">
+        <v>3.862683297243559</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>25</v>
+      </c>
+      <c r="K77">
+        <v>90</v>
+      </c>
+      <c r="L77">
+        <v>7</v>
+      </c>
+      <c r="M77">
+        <v>41.23088095385175</v>
+      </c>
+      <c r="N77">
+        <v>8.517806771190989</v>
+      </c>
+      <c r="O77">
+        <v>41.31495645089004</v>
+      </c>
+      <c r="P77">
+        <v>8.617817043600242</v>
+      </c>
+      <c r="Q77">
+        <v>0.006956915099005513</v>
+      </c>
+      <c r="R77">
+        <v>0.04493956704247284</v>
+      </c>
+      <c r="S77">
+        <v>0.04499991216468095</v>
+      </c>
+      <c r="T77">
+        <v>0.02595710489164307</v>
+      </c>
+      <c r="U77">
+        <v>0.08629893804558</v>
+      </c>
+      <c r="V77">
+        <v>0.09039944856548858</v>
+      </c>
+      <c r="W77" t="s">
+        <v>26</v>
+      </c>
+      <c r="X77">
+        <v>0.002198299999975006</v>
+      </c>
+      <c r="Y77">
+        <v>11</v>
+      </c>
+      <c r="Z77">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26">
+      <c r="A78">
+        <v>0</v>
+      </c>
+      <c r="B78">
+        <v>10</v>
+      </c>
+      <c r="C78">
+        <v>55.94936395614395</v>
+      </c>
+      <c r="D78">
+        <v>12.8278466486262</v>
+      </c>
+      <c r="E78">
+        <v>359.9759240516551</v>
+      </c>
+      <c r="F78">
+        <v>10.00952690218121</v>
+      </c>
+      <c r="G78">
+        <v>56.03540989346659</v>
+      </c>
+      <c r="H78">
+        <v>12.8434736707567</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>25</v>
+      </c>
+      <c r="K78">
+        <v>90</v>
+      </c>
+      <c r="L78">
+        <v>7</v>
+      </c>
+      <c r="M78">
+        <v>41.02759868558736</v>
+      </c>
+      <c r="N78">
+        <v>21.21280471567252</v>
+      </c>
+      <c r="O78">
+        <v>41.07554017669181</v>
+      </c>
+      <c r="P78">
+        <v>21.22938080940596</v>
+      </c>
+      <c r="Q78">
+        <v>0.008722103242011274</v>
+      </c>
+      <c r="R78">
+        <v>0.08876423029960739</v>
+      </c>
+      <c r="S78">
+        <v>0.1359422408361842</v>
+      </c>
+      <c r="T78">
+        <v>0.07556794053703451</v>
+      </c>
+      <c r="U78">
+        <v>0.08582364143905773</v>
+      </c>
+      <c r="V78">
+        <v>0.01848441376510159</v>
+      </c>
+      <c r="W78" t="s">
+        <v>26</v>
+      </c>
+      <c r="X78">
+        <v>0.002154199999978346</v>
+      </c>
+      <c r="Y78">
+        <v>9</v>
+      </c>
+      <c r="Z78">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26">
+      <c r="A79">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>10</v>
+      </c>
+      <c r="C79">
+        <v>165.4396257238527</v>
+      </c>
+      <c r="D79">
+        <v>10.70634719908626</v>
+      </c>
+      <c r="E79">
+        <v>0.007454386719924592</v>
+      </c>
+      <c r="F79">
+        <v>9.940994860894955</v>
+      </c>
+      <c r="G79">
+        <v>165.4758046878212</v>
+      </c>
+      <c r="H79">
+        <v>10.62602720776771</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>25</v>
+      </c>
+      <c r="K79">
+        <v>90</v>
+      </c>
+      <c r="L79">
+        <v>7</v>
+      </c>
+      <c r="M79">
+        <v>138.9401716507728</v>
+      </c>
+      <c r="N79">
+        <v>6.69919649565565</v>
+      </c>
+      <c r="O79">
+        <v>138.9572300849901</v>
+      </c>
+      <c r="P79">
+        <v>6.65468509522244</v>
+      </c>
+      <c r="Q79">
+        <v>0.003438084646093548</v>
+      </c>
+      <c r="R79">
+        <v>0.04821091836035381</v>
+      </c>
+      <c r="S79">
+        <v>0.02417837132093626</v>
+      </c>
+      <c r="T79">
+        <v>0.06266702414078935</v>
+      </c>
+      <c r="U79">
+        <v>0.08961370137466941</v>
+      </c>
+      <c r="V79">
+        <v>0.03499812594468939</v>
+      </c>
+      <c r="W79" t="s">
+        <v>26</v>
+      </c>
+      <c r="X79">
+        <v>0.004534900000010111</v>
+      </c>
+      <c r="Y79">
+        <v>24</v>
+      </c>
+      <c r="Z79">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26">
+      <c r="A80">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>10</v>
+      </c>
+      <c r="C80">
+        <v>8.672620950042782</v>
+      </c>
+      <c r="D80">
+        <v>11.17155616641261</v>
+      </c>
+      <c r="E80">
+        <v>359.9639163890105</v>
+      </c>
+      <c r="F80">
+        <v>10.13436530071046</v>
+      </c>
+      <c r="G80">
+        <v>8.900141379685715</v>
+      </c>
+      <c r="H80">
+        <v>11.12571443432873</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>25</v>
+      </c>
+      <c r="K80">
+        <v>90</v>
+      </c>
+      <c r="L80">
+        <v>7</v>
+      </c>
+      <c r="M80">
+        <v>8.792537788842502</v>
+      </c>
+      <c r="N80">
+        <v>20.88161751407274</v>
+      </c>
+      <c r="O80">
+        <v>8.864396094243931</v>
+      </c>
+      <c r="P80">
+        <v>20.95843843441805</v>
+      </c>
+      <c r="Q80">
+        <v>0.007620198681400158</v>
+      </c>
+      <c r="R80">
+        <v>0.1064727587722619</v>
+      </c>
+      <c r="S80">
+        <v>0.03778495983025854</v>
+      </c>
+      <c r="T80">
+        <v>0.1836979329842028</v>
+      </c>
+      <c r="U80">
+        <v>0.09037141261288002</v>
+      </c>
+      <c r="V80">
+        <v>0.04004263265704786</v>
+      </c>
+      <c r="W80" t="s">
+        <v>26</v>
+      </c>
+      <c r="X80">
+        <v>0.001486800000009225</v>
+      </c>
+      <c r="Y80">
+        <v>7</v>
+      </c>
+      <c r="Z80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26">
+      <c r="A81">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>10</v>
+      </c>
+      <c r="C81">
+        <v>90.1202627412686</v>
+      </c>
+      <c r="D81">
+        <v>8.616809111377382</v>
+      </c>
+      <c r="E81">
+        <v>359.9155709186005</v>
+      </c>
+      <c r="F81">
+        <v>10.02870061638072</v>
+      </c>
+      <c r="G81">
+        <v>89.87848744121558</v>
+      </c>
+      <c r="H81">
+        <v>8.715507075957619</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>25</v>
+      </c>
+      <c r="K81">
+        <v>90</v>
+      </c>
+      <c r="L81">
+        <v>7</v>
+      </c>
+      <c r="M81">
+        <v>57.39789300421757</v>
+      </c>
+      <c r="N81">
+        <v>13.66352932901044</v>
+      </c>
+      <c r="O81">
+        <v>57.37592534894979</v>
+      </c>
+      <c r="P81">
+        <v>13.7899589938502</v>
+      </c>
+      <c r="Q81">
+        <v>0.008018604803734683</v>
+      </c>
+      <c r="R81">
+        <v>0.08277448221753118</v>
+      </c>
+      <c r="S81">
+        <v>0.1132976251755549</v>
+      </c>
+      <c r="T81">
+        <v>0.02238283901836523</v>
+      </c>
+      <c r="U81">
+        <v>0.0849888826100554</v>
+      </c>
+      <c r="V81">
+        <v>0.05559338808478977</v>
+      </c>
+      <c r="W81" t="s">
+        <v>26</v>
+      </c>
+      <c r="X81">
+        <v>0.002811100000002398</v>
+      </c>
+      <c r="Y81">
+        <v>15</v>
+      </c>
+      <c r="Z81">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26">
+      <c r="A82">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>10</v>
+      </c>
+      <c r="C82">
+        <v>93.94482897004586</v>
+      </c>
+      <c r="D82">
+        <v>11.39287640417597</v>
+      </c>
+      <c r="E82">
+        <v>359.9763669119646</v>
+      </c>
+      <c r="F82">
+        <v>10.09202288580455</v>
+      </c>
+      <c r="G82">
+        <v>94.1673253775767</v>
+      </c>
+      <c r="H82">
+        <v>11.49819265053632</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>25</v>
+      </c>
+      <c r="K82">
+        <v>90</v>
+      </c>
+      <c r="L82">
+        <v>7</v>
+      </c>
+      <c r="M82">
+        <v>66.48783954982605</v>
+      </c>
+      <c r="N82">
+        <v>16.15039452812126</v>
+      </c>
+      <c r="O82">
+        <v>66.55730381852261</v>
+      </c>
+      <c r="P82">
+        <v>16.27064720370977</v>
+      </c>
+      <c r="Q82">
+        <v>0.008499868047080543</v>
+      </c>
+      <c r="R82">
+        <v>0.1142720033184916</v>
+      </c>
+      <c r="S82">
+        <v>0.1808496121901727</v>
+      </c>
+      <c r="T82">
+        <v>0.03271272510218266</v>
+      </c>
+      <c r="U82">
+        <v>0.0858737102514969</v>
+      </c>
+      <c r="V82">
+        <v>0.05844826008066378</v>
+      </c>
+      <c r="W82" t="s">
+        <v>26</v>
+      </c>
+      <c r="X82">
+        <v>0.003373500000009244</v>
+      </c>
+      <c r="Y82">
+        <v>18</v>
+      </c>
+      <c r="Z82">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26">
+      <c r="A83">
+        <v>0</v>
+      </c>
+      <c r="B83">
+        <v>10</v>
+      </c>
+      <c r="C83">
+        <v>63.97544120494257</v>
+      </c>
+      <c r="D83">
+        <v>7.09018652027162</v>
+      </c>
+      <c r="E83">
+        <v>0.06911620363736601</v>
+      </c>
+      <c r="F83">
+        <v>10.09981102683883</v>
+      </c>
+      <c r="G83">
+        <v>64.51672971762729</v>
+      </c>
+      <c r="H83">
+        <v>7.087667840753275</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>25</v>
+      </c>
+      <c r="K83">
+        <v>90</v>
+      </c>
+      <c r="L83">
+        <v>7</v>
+      </c>
+      <c r="M83">
+        <v>38.4159118793041</v>
+      </c>
+      <c r="N83">
+        <v>14.1881020213233</v>
+      </c>
+      <c r="O83">
+        <v>38.49057013176383</v>
+      </c>
+      <c r="P83">
+        <v>14.23614694381939</v>
+      </c>
+      <c r="Q83">
+        <v>0.00781934118843648</v>
+      </c>
+      <c r="R83">
+        <v>0.06288212961783396</v>
+      </c>
+      <c r="S83">
+        <v>0.0738241172327046</v>
+      </c>
+      <c r="T83">
+        <v>0.04438557273992801</v>
+      </c>
+      <c r="U83">
+        <v>0.09102940269361379</v>
+      </c>
+      <c r="V83">
+        <v>0.03872866668689485</v>
+      </c>
+      <c r="W83" t="s">
+        <v>26</v>
+      </c>
+      <c r="X83">
+        <v>0.001881100000019842</v>
+      </c>
+      <c r="Y83">
+        <v>9</v>
+      </c>
+      <c r="Z83">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26">
+      <c r="A84">
+        <v>0</v>
+      </c>
+      <c r="B84">
+        <v>10</v>
+      </c>
+      <c r="C84">
+        <v>49.54062056424078</v>
+      </c>
+      <c r="D84">
+        <v>10.67076913110323</v>
+      </c>
+      <c r="E84">
+        <v>359.947970073248</v>
+      </c>
+      <c r="F84">
+        <v>9.97712729738867</v>
+      </c>
+      <c r="G84">
+        <v>49.38569941449543</v>
+      </c>
+      <c r="H84">
+        <v>10.74999312277731</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>25</v>
+      </c>
+      <c r="K84">
+        <v>90</v>
+      </c>
+      <c r="L84">
+        <v>7</v>
+      </c>
+      <c r="M84">
+        <v>34.81590641774923</v>
+      </c>
+      <c r="N84">
+        <v>19.11454519061216</v>
+      </c>
+      <c r="O84">
+        <v>34.80408573426663</v>
+      </c>
+      <c r="P84">
+        <v>19.19135771393136</v>
+      </c>
+      <c r="Q84">
+        <v>0.008399979713924206</v>
+      </c>
+      <c r="R84">
+        <v>0.07558526917026054</v>
+      </c>
+      <c r="S84">
+        <v>0.09802035237405884</v>
+      </c>
+      <c r="T84">
+        <v>0.07479730994927458</v>
+      </c>
+      <c r="U84">
+        <v>0.09701509538382673</v>
+      </c>
+      <c r="V84">
+        <v>0.03208674707821796</v>
+      </c>
+      <c r="W84" t="s">
+        <v>26</v>
+      </c>
+      <c r="X84">
+        <v>0.001810299999988274</v>
+      </c>
+      <c r="Y84">
+        <v>9</v>
+      </c>
+      <c r="Z84">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>10</v>
+      </c>
+      <c r="C85">
+        <v>46.26763687892519</v>
+      </c>
+      <c r="D85">
+        <v>11.20545099685287</v>
+      </c>
+      <c r="E85">
+        <v>0.006330022644319514</v>
+      </c>
+      <c r="F85">
+        <v>9.925418255134291</v>
+      </c>
+      <c r="G85">
+        <v>46.16351859880147</v>
+      </c>
+      <c r="H85">
+        <v>11.09813706406221</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>25</v>
+      </c>
+      <c r="K85">
+        <v>90</v>
+      </c>
+      <c r="L85">
+        <v>7</v>
+      </c>
+      <c r="M85">
+        <v>33.13287081288786</v>
+      </c>
+      <c r="N85">
+        <v>19.91760304290331</v>
+      </c>
+      <c r="O85">
+        <v>33.10049180033649</v>
+      </c>
+      <c r="P85">
+        <v>19.73582076260351</v>
+      </c>
+      <c r="Q85">
+        <v>0.008399610540109853</v>
+      </c>
+      <c r="R85">
+        <v>0.07569743003224665</v>
+      </c>
+      <c r="S85">
+        <v>0.09656332689522983</v>
+      </c>
+      <c r="T85">
+        <v>0.08145186179457839</v>
+      </c>
+      <c r="U85">
+        <v>0.08910048525024075</v>
+      </c>
+      <c r="V85">
+        <v>0.04985125149793285</v>
+      </c>
+      <c r="W85" t="s">
+        <v>26</v>
+      </c>
+      <c r="X85">
+        <v>0.001937800000007428</v>
+      </c>
+      <c r="Y85">
+        <v>9</v>
+      </c>
+      <c r="Z85">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26">
+      <c r="A86">
+        <v>0</v>
+      </c>
+      <c r="B86">
+        <v>10</v>
+      </c>
+      <c r="C86">
+        <v>8.287378853667391</v>
+      </c>
+      <c r="D86">
+        <v>7.442907793387191</v>
+      </c>
+      <c r="E86">
+        <v>0.08811517263247672</v>
+      </c>
+      <c r="F86">
+        <v>10.05078910685663</v>
+      </c>
+      <c r="G86">
+        <v>8.158864339008709</v>
+      </c>
+      <c r="H86">
+        <v>7.429626467666776</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>25</v>
+      </c>
+      <c r="K86">
+        <v>90</v>
+      </c>
+      <c r="L86">
+        <v>7</v>
+      </c>
+      <c r="M86">
+        <v>8.615529210004841</v>
+      </c>
+      <c r="N86">
+        <v>16.40699998673912</v>
+      </c>
+      <c r="O86">
+        <v>8.572915667719736</v>
+      </c>
+      <c r="P86">
+        <v>16.44345001342568</v>
+      </c>
+      <c r="Q86">
+        <v>0.006904819267890556</v>
+      </c>
+      <c r="R86">
+        <v>0.09044300894356153</v>
+      </c>
+      <c r="S86">
+        <v>0.02855569223181449</v>
+      </c>
+      <c r="T86">
+        <v>0.1493798256914487</v>
+      </c>
+      <c r="U86">
+        <v>0.1005650297311264</v>
+      </c>
+      <c r="V86">
+        <v>0.02203000656079038</v>
+      </c>
+      <c r="W86" t="s">
+        <v>26</v>
+      </c>
+      <c r="X86">
+        <v>0.001462200000020175</v>
+      </c>
+      <c r="Y86">
+        <v>7</v>
+      </c>
+      <c r="Z86">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26">
+      <c r="A87">
+        <v>0</v>
+      </c>
+      <c r="B87">
+        <v>10</v>
+      </c>
+      <c r="C87">
+        <v>111.6672866195861</v>
+      </c>
+      <c r="D87">
+        <v>9.107436823744884</v>
+      </c>
+      <c r="E87">
+        <v>0.004601562476006126</v>
+      </c>
+      <c r="F87">
+        <v>10.0508738143554</v>
+      </c>
+      <c r="G87">
+        <v>111.6366855099489</v>
+      </c>
+      <c r="H87">
+        <v>9.178696322225203</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>25</v>
+      </c>
+      <c r="K87">
+        <v>90</v>
+      </c>
+      <c r="L87">
+        <v>7</v>
+      </c>
+      <c r="M87">
+        <v>73.53144854422638</v>
+      </c>
+      <c r="N87">
+        <v>11.81175051977503</v>
+      </c>
+      <c r="O87">
+        <v>73.52961765552078</v>
+      </c>
+      <c r="P87">
+        <v>11.8978371735925</v>
+      </c>
+      <c r="Q87">
+        <v>0.008062633873703288</v>
+      </c>
+      <c r="R87">
+        <v>0.1078218296708352</v>
+      </c>
+      <c r="S87">
+        <v>0.1391003488066198</v>
+      </c>
+      <c r="T87">
+        <v>0.05693748187799057</v>
+      </c>
+      <c r="U87">
+        <v>0.09183439542835517</v>
+      </c>
+      <c r="V87">
+        <v>0.03293058527056678</v>
+      </c>
+      <c r="W87" t="s">
+        <v>26</v>
+      </c>
+      <c r="X87">
+        <v>0.003966899999994666</v>
+      </c>
+      <c r="Y87">
+        <v>22</v>
+      </c>
+      <c r="Z87">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26">
+      <c r="A88">
+        <v>0</v>
+      </c>
+      <c r="B88">
+        <v>10</v>
+      </c>
+      <c r="C88">
+        <v>36.46925165320029</v>
+      </c>
+      <c r="D88">
+        <v>5.485117248731678</v>
+      </c>
+      <c r="E88">
+        <v>359.9926588522969</v>
+      </c>
+      <c r="F88">
+        <v>10.00803430033927</v>
+      </c>
+      <c r="G88">
+        <v>36.7133987096397</v>
+      </c>
+      <c r="H88">
+        <v>5.430133539798806</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>25</v>
+      </c>
+      <c r="K88">
+        <v>90</v>
+      </c>
+      <c r="L88">
+        <v>7</v>
+      </c>
+      <c r="M88">
+        <v>21.84848718910419</v>
+      </c>
+      <c r="N88">
+        <v>13.65786460130007</v>
+      </c>
+      <c r="O88">
+        <v>21.87384921044241</v>
+      </c>
+      <c r="P88">
+        <v>13.59393596010319</v>
+      </c>
+      <c r="Q88">
+        <v>0.007305955427735412</v>
+      </c>
+      <c r="R88">
+        <v>0.05393288548574281</v>
+      </c>
+      <c r="S88">
+        <v>0.04247015986782689</v>
+      </c>
+      <c r="T88">
+        <v>0.07252688699409665</v>
+      </c>
+      <c r="U88">
+        <v>0.09119511536192372</v>
+      </c>
+      <c r="V88">
+        <v>0.04530578919031692</v>
+      </c>
+      <c r="W88" t="s">
+        <v>26</v>
+      </c>
+      <c r="X88">
+        <v>0.001710599999995566</v>
+      </c>
+      <c r="Y88">
+        <v>8</v>
+      </c>
+      <c r="Z88">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26">
+      <c r="A89">
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <v>10</v>
+      </c>
+      <c r="C89">
+        <v>118.1275533419322</v>
+      </c>
+      <c r="D89">
+        <v>14.45881652295873</v>
+      </c>
+      <c r="E89">
+        <v>0.06502941233506913</v>
+      </c>
+      <c r="F89">
+        <v>9.680770673066391</v>
+      </c>
+      <c r="G89">
+        <v>118.0763983130162</v>
+      </c>
+      <c r="H89">
+        <v>13.85303738210425</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>25</v>
+      </c>
+      <c r="K89">
+        <v>90</v>
+      </c>
+      <c r="L89">
+        <v>7</v>
+      </c>
+      <c r="M89">
+        <v>92.7668218217183</v>
+      </c>
+      <c r="N89">
+        <v>16.49115940110462</v>
+      </c>
+      <c r="O89">
+        <v>92.74356963466856</v>
+      </c>
+      <c r="P89">
+        <v>15.86701680395577</v>
+      </c>
+      <c r="Q89">
+        <v>0.007915110800942621</v>
+      </c>
+      <c r="R89">
+        <v>0.1663817604068485</v>
+      </c>
+      <c r="S89">
+        <v>0.2718650947815651</v>
+      </c>
+      <c r="T89">
+        <v>0.1541678480446899</v>
+      </c>
+      <c r="U89">
+        <v>0.09036075308749597</v>
+      </c>
+      <c r="V89">
+        <v>0.1749125986877725</v>
+      </c>
+      <c r="W89" t="s">
+        <v>26</v>
+      </c>
+      <c r="X89">
+        <v>0.004167499999994106</v>
+      </c>
+      <c r="Y89">
+        <v>23</v>
+      </c>
+      <c r="Z89">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26">
+      <c r="A90">
+        <v>0</v>
+      </c>
+      <c r="B90">
+        <v>10</v>
+      </c>
+      <c r="C90">
+        <v>116.5591888835442</v>
+      </c>
+      <c r="D90">
+        <v>9.085796258556961</v>
+      </c>
+      <c r="E90">
+        <v>359.9861655220624</v>
+      </c>
+      <c r="F90">
+        <v>10.15331782317353</v>
+      </c>
+      <c r="G90">
+        <v>116.5672844317489</v>
+      </c>
+      <c r="H90">
+        <v>9.28384582968434</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>25</v>
+      </c>
+      <c r="K90">
+        <v>90</v>
+      </c>
+      <c r="L90">
+        <v>7</v>
+      </c>
+      <c r="M90">
+        <v>77.06502614626034</v>
+      </c>
+      <c r="N90">
+        <v>11.20723949811577</v>
+      </c>
+      <c r="O90">
+        <v>77.07701624555446</v>
+      </c>
+      <c r="P90">
+        <v>11.42156782778743</v>
+      </c>
+      <c r="Q90">
+        <v>0.008208544810555952</v>
+      </c>
+      <c r="R90">
+        <v>0.1166203193992405</v>
+      </c>
+      <c r="S90">
+        <v>0.1447610212471657</v>
+      </c>
+      <c r="T90">
+        <v>0.07082468744657046</v>
+      </c>
+      <c r="U90">
+        <v>0.08966330175362455</v>
+      </c>
+      <c r="V90">
+        <v>0.08956768797009912</v>
+      </c>
+      <c r="W90" t="s">
+        <v>26</v>
+      </c>
+      <c r="X90">
+        <v>0.004310400000008485</v>
+      </c>
+      <c r="Y90">
+        <v>22</v>
+      </c>
+      <c r="Z90">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26">
+      <c r="A91">
+        <v>0</v>
+      </c>
+      <c r="B91">
+        <v>10</v>
+      </c>
+      <c r="C91">
+        <v>89.94497768439012</v>
+      </c>
+      <c r="D91">
+        <v>6.071245611740043</v>
+      </c>
+      <c r="E91">
+        <v>0.06543141583983607</v>
+      </c>
+      <c r="F91">
+        <v>10.00364524020433</v>
+      </c>
+      <c r="G91">
+        <v>90.20775718171832</v>
+      </c>
+      <c r="H91">
+        <v>6.030024488858446</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>25</v>
+      </c>
+      <c r="K91">
+        <v>90</v>
+      </c>
+      <c r="L91">
+        <v>7</v>
+      </c>
+      <c r="M91">
+        <v>48.84601329812367</v>
+      </c>
+      <c r="N91">
+        <v>11.23051578470421</v>
+      </c>
+      <c r="O91">
+        <v>48.83177185593303</v>
+      </c>
+      <c r="P91">
+        <v>11.18236336089194</v>
+      </c>
+      <c r="Q91">
+        <v>0.00742666050042414</v>
+      </c>
+      <c r="R91">
+        <v>0.06071372769510504</v>
+      </c>
+      <c r="S91">
+        <v>0.07077040897464676</v>
+      </c>
+      <c r="T91">
+        <v>0.02385654553665065</v>
+      </c>
+      <c r="U91">
+        <v>0.09356354124199828</v>
+      </c>
+      <c r="V91">
+        <v>0.03424983193094974</v>
+      </c>
+      <c r="W91" t="s">
+        <v>26</v>
+      </c>
+      <c r="X91">
+        <v>0.002406600000000481</v>
+      </c>
+      <c r="Y91">
+        <v>12</v>
+      </c>
+      <c r="Z91">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26">
+      <c r="A92">
+        <v>0</v>
+      </c>
+      <c r="B92">
+        <v>10</v>
+      </c>
+      <c r="C92">
+        <v>27.54975577790644</v>
+      </c>
+      <c r="D92">
+        <v>4.892227932112887</v>
+      </c>
+      <c r="E92">
+        <v>359.9721401946686</v>
+      </c>
+      <c r="F92">
+        <v>9.916227721170456</v>
+      </c>
+      <c r="G92">
+        <v>27.12487763273816</v>
+      </c>
+      <c r="H92">
+        <v>4.95155519265148</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>25</v>
+      </c>
+      <c r="K92">
+        <v>90</v>
+      </c>
+      <c r="L92">
+        <v>7</v>
+      </c>
+      <c r="M92">
+        <v>17.15395993153109</v>
+      </c>
+      <c r="N92">
+        <v>13.17470023696191</v>
+      </c>
+      <c r="O92">
+        <v>17.1086299040537</v>
+      </c>
+      <c r="P92">
+        <v>13.17104955862592</v>
+      </c>
+      <c r="Q92">
+        <v>0.006949773929639439</v>
+      </c>
+      <c r="R92">
+        <v>0.05521876633630286</v>
+      </c>
+      <c r="S92">
+        <v>0.03422907075786952</v>
+      </c>
+      <c r="T92">
+        <v>0.08312541234742316</v>
+      </c>
+      <c r="U92">
+        <v>0.0964232515998171</v>
+      </c>
+      <c r="V92">
+        <v>0.05273338742549727</v>
+      </c>
+      <c r="W92" t="s">
+        <v>26</v>
+      </c>
+      <c r="X92">
+        <v>0.001657599999987269</v>
+      </c>
+      <c r="Y92">
+        <v>8</v>
+      </c>
+      <c r="Z92">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26">
+      <c r="A93">
+        <v>0</v>
+      </c>
+      <c r="B93">
+        <v>10</v>
+      </c>
+      <c r="C93">
+        <v>36.1806473012353</v>
+      </c>
+      <c r="D93">
+        <v>6.948245597906183</v>
+      </c>
+      <c r="E93">
+        <v>359.9533128897002</v>
+      </c>
+      <c r="F93">
+        <v>9.950186261865007</v>
+      </c>
+      <c r="G93">
+        <v>36.13691373720327</v>
+      </c>
+      <c r="H93">
+        <v>6.929535670163919</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>25</v>
+      </c>
+      <c r="K93">
+        <v>90</v>
+      </c>
+      <c r="L93">
+        <v>7</v>
+      </c>
+      <c r="M93">
+        <v>23.34892049549794</v>
+      </c>
+      <c r="N93">
+        <v>15.37253312835461</v>
+      </c>
+      <c r="O93">
+        <v>23.35313111871404</v>
+      </c>
+      <c r="P93">
+        <v>15.30309840215156</v>
+      </c>
+      <c r="Q93">
+        <v>0.007600040977520942</v>
+      </c>
+      <c r="R93">
+        <v>0.05857359248629732</v>
+      </c>
+      <c r="S93">
+        <v>0.05097925566033346</v>
+      </c>
+      <c r="T93">
+        <v>0.07699053645407443</v>
+      </c>
+      <c r="U93">
+        <v>0.08465984093466287</v>
+      </c>
+      <c r="V93">
+        <v>0.01640589151825994</v>
+      </c>
+      <c r="W93" t="s">
+        <v>26</v>
+      </c>
+      <c r="X93">
+        <v>0.001957400000009102</v>
+      </c>
+      <c r="Y93">
+        <v>8</v>
+      </c>
+      <c r="Z93">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26">
+      <c r="A94">
+        <v>0</v>
+      </c>
+      <c r="B94">
+        <v>10</v>
+      </c>
+      <c r="C94">
+        <v>159.4584898987726</v>
+      </c>
+      <c r="D94">
+        <v>12.4629788016447</v>
+      </c>
+      <c r="E94">
+        <v>0.01460466578241809</v>
+      </c>
+      <c r="F94">
+        <v>10.0495922184895</v>
+      </c>
+      <c r="G94">
+        <v>159.4822349647655</v>
+      </c>
+      <c r="H94">
+        <v>12.53416496398611</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>25</v>
+      </c>
+      <c r="K94">
+        <v>90</v>
+      </c>
+      <c r="L94">
+        <v>7</v>
+      </c>
+      <c r="M94">
+        <v>135.8914103371119</v>
+      </c>
+      <c r="N94">
+        <v>9.221215218233809</v>
+      </c>
+      <c r="O94">
+        <v>135.913126436933</v>
+      </c>
+      <c r="P94">
+        <v>9.263195768367291</v>
+      </c>
+      <c r="Q94">
+        <v>0.00377009196821867</v>
+      </c>
+      <c r="R94">
+        <v>0.05335601302180273</v>
+      </c>
+      <c r="S94">
+        <v>0.03643111639747781</v>
+      </c>
+      <c r="T94">
+        <v>0.07605251428078763</v>
+      </c>
+      <c r="U94">
+        <v>0.08032995517870097</v>
+      </c>
+      <c r="V94">
+        <v>0.027889850613031</v>
+      </c>
+      <c r="W94" t="s">
+        <v>26</v>
+      </c>
+      <c r="X94">
+        <v>0.004379699999986997</v>
+      </c>
+      <c r="Y94">
+        <v>24</v>
+      </c>
+      <c r="Z94">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26">
+      <c r="A95">
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <v>10</v>
+      </c>
+      <c r="C95">
+        <v>109.1437807997656</v>
+      </c>
+      <c r="D95">
+        <v>10.89013882341379</v>
+      </c>
+      <c r="E95">
+        <v>359.9734619635659</v>
+      </c>
+      <c r="F95">
+        <v>9.997508335534453</v>
+      </c>
+      <c r="G95">
+        <v>109.1204551123907</v>
+      </c>
+      <c r="H95">
+        <v>10.89887823800666</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>25</v>
+      </c>
+      <c r="K95">
+        <v>90</v>
+      </c>
+      <c r="L95">
+        <v>7</v>
+      </c>
+      <c r="M95">
+        <v>77.08991880558148</v>
+      </c>
+      <c r="N95">
+        <v>13.86645042167153</v>
+      </c>
+      <c r="O95">
+        <v>77.10002743957425</v>
+      </c>
+      <c r="P95">
+        <v>13.87309351096039</v>
+      </c>
+      <c r="Q95">
+        <v>0.008424996409970046</v>
+      </c>
+      <c r="R95">
+        <v>0.1295547916245046</v>
+      </c>
+      <c r="S95">
+        <v>0.1875834121297915</v>
+      </c>
+      <c r="T95">
+        <v>0.07314168045456605</v>
+      </c>
+      <c r="U95">
+        <v>0.08116017925863468</v>
+      </c>
+      <c r="V95">
+        <v>0.005915029315124628</v>
+      </c>
+      <c r="W95" t="s">
+        <v>26</v>
+      </c>
+      <c r="X95">
+        <v>0.004088700000011158</v>
+      </c>
+      <c r="Y95">
+        <v>22</v>
+      </c>
+      <c r="Z95">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26">
+      <c r="A96">
+        <v>0</v>
+      </c>
+      <c r="B96">
+        <v>10</v>
+      </c>
+      <c r="C96">
+        <v>129.4894415239125</v>
+      </c>
+      <c r="D96">
+        <v>10.28665410746387</v>
+      </c>
+      <c r="E96">
+        <v>359.9964138309279</v>
+      </c>
+      <c r="F96">
+        <v>9.976865916436292</v>
+      </c>
+      <c r="G96">
+        <v>129.426584596161</v>
+      </c>
+      <c r="H96">
+        <v>10.26091596669071</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>25</v>
+      </c>
+      <c r="K96">
+        <v>90</v>
+      </c>
+      <c r="L96">
+        <v>7</v>
+      </c>
+      <c r="M96">
+        <v>92.4963307677606</v>
+      </c>
+      <c r="N96">
+        <v>10.70698393477249</v>
+      </c>
+      <c r="O96">
+        <v>92.46289501757195</v>
+      </c>
+      <c r="P96">
+        <v>10.69082302823771</v>
+      </c>
+      <c r="Q96">
+        <v>0.008112032078057987</v>
+      </c>
+      <c r="R96">
+        <v>0.1534745343995173</v>
+      </c>
+      <c r="S96">
+        <v>0.1776939262916896</v>
+      </c>
+      <c r="T96">
+        <v>0.1375478247440104</v>
+      </c>
+      <c r="U96">
+        <v>0.08977358511228775</v>
+      </c>
+      <c r="V96">
+        <v>0.01870122049259725</v>
+      </c>
+      <c r="W96" t="s">
+        <v>26</v>
+      </c>
+      <c r="X96">
+        <v>0.004518600000011475</v>
+      </c>
+      <c r="Y96">
+        <v>23</v>
+      </c>
+      <c r="Z96">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26">
+      <c r="A97">
+        <v>0</v>
+      </c>
+      <c r="B97">
+        <v>10</v>
+      </c>
+      <c r="C97">
+        <v>41.18462776024221</v>
+      </c>
+      <c r="D97">
+        <v>5.288256223490196</v>
+      </c>
+      <c r="E97">
+        <v>359.984933732535</v>
+      </c>
+      <c r="F97">
+        <v>9.998210347997645</v>
+      </c>
+      <c r="G97">
+        <v>41.11446454791265</v>
+      </c>
+      <c r="H97">
+        <v>5.311837281908634</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>25</v>
+      </c>
+      <c r="K97">
+        <v>90</v>
+      </c>
+      <c r="L97">
+        <v>7</v>
+      </c>
+      <c r="M97">
+        <v>23.74542453059524</v>
+      </c>
+      <c r="N97">
+        <v>13.28409758323217</v>
+      </c>
+      <c r="O97">
+        <v>23.74261118441996</v>
+      </c>
+      <c r="P97">
+        <v>13.31073183526781</v>
+      </c>
+      <c r="Q97">
+        <v>0.007318351166687746</v>
+      </c>
+      <c r="R97">
+        <v>0.05267851641988976</v>
+      </c>
+      <c r="S97">
+        <v>0.04417557455842025</v>
+      </c>
+      <c r="T97">
+        <v>0.06683268135241113</v>
+      </c>
+      <c r="U97">
+        <v>0.08495771787778983</v>
+      </c>
+      <c r="V97">
+        <v>0.01694688012694064</v>
+      </c>
+      <c r="W97" t="s">
+        <v>26</v>
+      </c>
+      <c r="X97">
+        <v>0.001681999999988193</v>
+      </c>
+      <c r="Y97">
+        <v>8</v>
+      </c>
+      <c r="Z97">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26">
+      <c r="A98">
+        <v>0</v>
+      </c>
+      <c r="B98">
+        <v>10</v>
+      </c>
+      <c r="C98">
+        <v>38.64364002302879</v>
+      </c>
+      <c r="D98">
+        <v>13.91402845609996</v>
+      </c>
+      <c r="E98">
+        <v>0.07662091878482159</v>
+      </c>
+      <c r="F98">
+        <v>10.00196069544657</v>
+      </c>
+      <c r="G98">
+        <v>38.70594882002419</v>
+      </c>
+      <c r="H98">
+        <v>13.75322890004037</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>25</v>
+      </c>
+      <c r="K98">
+        <v>90</v>
+      </c>
+      <c r="L98">
+        <v>7</v>
+      </c>
+      <c r="M98">
+        <v>29.58813609103335</v>
+      </c>
+      <c r="N98">
+        <v>23.48744640074011</v>
+      </c>
+      <c r="O98">
+        <v>29.58326789827166</v>
+      </c>
+      <c r="P98">
+        <v>23.30235907274373</v>
+      </c>
+      <c r="Q98">
+        <v>0.008827101947674757</v>
+      </c>
+      <c r="R98">
+        <v>0.0857228229253785</v>
+      </c>
+      <c r="S98">
+        <v>0.1093308003329968</v>
+      </c>
+      <c r="T98">
+        <v>0.1138087875239369</v>
+      </c>
+      <c r="U98">
+        <v>0.08708299517094056</v>
+      </c>
+      <c r="V98">
+        <v>0.04480016981213258</v>
+      </c>
+      <c r="W98" t="s">
+        <v>26</v>
+      </c>
+      <c r="X98">
+        <v>0.002066099999979087</v>
+      </c>
+      <c r="Y98">
+        <v>9</v>
+      </c>
+      <c r="Z98">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26">
+      <c r="A99">
+        <v>0</v>
+      </c>
+      <c r="B99">
+        <v>10</v>
+      </c>
+      <c r="C99">
+        <v>150.6499423676143</v>
+      </c>
+      <c r="D99">
+        <v>14.64283022328396</v>
+      </c>
+      <c r="E99">
+        <v>0.0190240278880521</v>
+      </c>
+      <c r="F99">
+        <v>10.10629099668958</v>
+      </c>
+      <c r="G99">
+        <v>150.6150047818229</v>
+      </c>
+      <c r="H99">
+        <v>14.82741308185022</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>25</v>
+      </c>
+      <c r="K99">
+        <v>90</v>
+      </c>
+      <c r="L99">
+        <v>7</v>
+      </c>
+      <c r="M99">
+        <v>129.036147186146</v>
+      </c>
+      <c r="N99">
+        <v>12.59476915243944</v>
+      </c>
+      <c r="O99">
+        <v>128.9769037524154</v>
+      </c>
+      <c r="P99">
+        <v>12.74035829891565</v>
+      </c>
+      <c r="Q99">
+        <v>0.004390507113874162</v>
+      </c>
+      <c r="R99">
+        <v>0.06716465604528281</v>
+      </c>
+      <c r="S99">
+        <v>0.06667544068666742</v>
+      </c>
+      <c r="T99">
+        <v>0.1033177149069416</v>
+      </c>
+      <c r="U99">
+        <v>0.08811322484537322</v>
+      </c>
+      <c r="V99">
+        <v>0.0664643243469101</v>
+      </c>
+      <c r="W99" t="s">
+        <v>26</v>
+      </c>
+      <c r="X99">
+        <v>0.004604900000003909</v>
+      </c>
+      <c r="Y99">
+        <v>24</v>
+      </c>
+      <c r="Z99">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26">
+      <c r="A100">
+        <v>0</v>
+      </c>
+      <c r="B100">
+        <v>10</v>
+      </c>
+      <c r="C100">
+        <v>131.8081046523934</v>
+      </c>
+      <c r="D100">
+        <v>9.806268185410616</v>
+      </c>
+      <c r="E100">
+        <v>0.06593225644835733</v>
+      </c>
+      <c r="F100">
+        <v>9.862314441150987</v>
+      </c>
+      <c r="G100">
+        <v>131.9255633090651</v>
+      </c>
+      <c r="H100">
+        <v>9.601530776212643</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>25</v>
+      </c>
+      <c r="K100">
+        <v>90</v>
+      </c>
+      <c r="L100">
+        <v>7</v>
+      </c>
+      <c r="M100">
+        <v>92.65513206400841</v>
+      </c>
+      <c r="N100">
+        <v>9.952434050938109</v>
+      </c>
+      <c r="O100">
+        <v>92.65628287462647</v>
+      </c>
+      <c r="P100">
+        <v>9.764697302081997</v>
+      </c>
+      <c r="Q100">
+        <v>0.007856598028178433</v>
+      </c>
+      <c r="R100">
+        <v>0.1462716335665173</v>
+      </c>
+      <c r="S100">
+        <v>0.1599825734718841</v>
+      </c>
+      <c r="T100">
+        <v>0.131075022548632</v>
+      </c>
+      <c r="U100">
+        <v>0.09858619804853502</v>
+      </c>
+      <c r="V100">
+        <v>0.08685871588988965</v>
+      </c>
+      <c r="W100" t="s">
+        <v>26</v>
+      </c>
+      <c r="X100">
+        <v>0.004993899999988116</v>
+      </c>
+      <c r="Y100">
+        <v>26</v>
+      </c>
+      <c r="Z100">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26">
+      <c r="A101">
+        <v>0</v>
+      </c>
+      <c r="B101">
+        <v>10</v>
+      </c>
+      <c r="C101">
+        <v>121.0101405535425</v>
+      </c>
+      <c r="D101">
+        <v>8.856940790887005</v>
+      </c>
+      <c r="E101">
+        <v>359.9714424682297</v>
+      </c>
+      <c r="F101">
+        <v>10.04727336127143</v>
+      </c>
+      <c r="G101">
+        <v>120.9882303119808</v>
+      </c>
+      <c r="H101">
+        <v>8.921889531568102</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>25</v>
+      </c>
+      <c r="K101">
+        <v>90</v>
+      </c>
+      <c r="L101">
+        <v>7</v>
+      </c>
+      <c r="M101">
+        <v>79.48494662297404</v>
+      </c>
+      <c r="N101">
+        <v>10.4553174329922</v>
+      </c>
+      <c r="O101">
+        <v>79.49154456721361</v>
+      </c>
+      <c r="P101">
+        <v>10.52008406071603</v>
+      </c>
+      <c r="Q101">
+        <v>0.008126413924524067</v>
+      </c>
+      <c r="R101">
+        <v>0.1163701655260727</v>
+      </c>
+      <c r="S101">
+        <v>0.1375547262997939</v>
+      </c>
+      <c r="T101">
+        <v>0.07721812476341308</v>
+      </c>
+      <c r="U101">
+        <v>0.08756471436654696</v>
+      </c>
+      <c r="V101">
+        <v>0.03085431837773593</v>
+      </c>
+      <c r="W101" t="s">
+        <v>26</v>
+      </c>
+      <c r="X101">
+        <v>0.004249600000008513</v>
+      </c>
+      <c r="Y101">
+        <v>22</v>
+      </c>
+      <c r="Z101">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
